--- a/EncounterRoutingNRotM/NRotMAugust2024.xlsx
+++ b/EncounterRoutingNRotM/NRotMAugust2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f30cbaf81810b05/Documents/Programming/pokemonDataTools/EncounterRoutingNRotM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{CBC81FE4-5CCE-4303-970D-0617F9213FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CC2A7B2-D5BA-49A4-A988-3C4C81434B32}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{CBC81FE4-5CCE-4303-970D-0617F9213FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0FD1126-F756-4493-9B6E-9A21F352830E}"/>
   <bookViews>
-    <workbookView xWindow="51720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54855" yWindow="795" windowWidth="25785" windowHeight="15405" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -1012,9 +1012,6 @@
     <t>Ravaged Path</t>
   </si>
   <si>
-    <t>Floroama Meadow</t>
-  </si>
-  <si>
     <t>Death Counts (DO NOT TOUCH)</t>
   </si>
   <si>
@@ -2210,6 +2207,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Floaroma Meadow</t>
   </si>
 </sst>
 </file>
@@ -3894,6 +3894,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3903,27 +3906,90 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3931,39 +3997,37 @@
     <xf numFmtId="0" fontId="24" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3978,103 +4042,67 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="42" fillId="27" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4093,43 +4121,27 @@
     <xf numFmtId="0" fontId="11" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="38" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4144,18 +4156,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4794,10 +4794,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -5017,7 +5013,7 @@
       <c r="G1" s="122"/>
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="123" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="122"/>
@@ -5028,7 +5024,7 @@
       <c r="G2" s="122"/>
     </row>
     <row r="3" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="124" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="122"/>
@@ -5050,7 +5046,7 @@
       <c r="G4" s="122"/>
     </row>
     <row r="5" spans="1:7" ht="27" customHeight="1">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="125" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="122"/>
@@ -5061,7 +5057,7 @@
       <c r="G5" s="122"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="124" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="122"/>
@@ -5072,7 +5068,7 @@
       <c r="G6" s="122"/>
     </row>
     <row r="7" spans="1:7" ht="27" customHeight="1">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="124" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="122"/>
@@ -5083,7 +5079,7 @@
       <c r="G7" s="122"/>
     </row>
     <row r="8" spans="1:7" ht="45" customHeight="1">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="124" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="122"/>
@@ -5105,7 +5101,7 @@
       <c r="G9" s="122"/>
     </row>
     <row r="10" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="124" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="122"/>
@@ -5116,7 +5112,7 @@
       <c r="G10" s="122"/>
     </row>
     <row r="11" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="124" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="122"/>
@@ -5138,7 +5134,7 @@
       <c r="G12" s="122"/>
     </row>
     <row r="13" spans="1:7" ht="27" customHeight="1">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="125" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="122"/>
@@ -5149,7 +5145,7 @@
       <c r="G13" s="122"/>
     </row>
     <row r="14" spans="1:7" ht="33" customHeight="1">
-      <c r="A14" s="123" t="s">
+      <c r="A14" s="124" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="122"/>
@@ -5160,7 +5156,7 @@
       <c r="G14" s="122"/>
     </row>
     <row r="15" spans="1:7" ht="54" customHeight="1">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="124" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="122"/>
@@ -5182,7 +5178,7 @@
       <c r="G16" s="122"/>
     </row>
     <row r="17" spans="1:7" ht="27" customHeight="1">
-      <c r="A17" s="125" t="s">
+      <c r="A17" s="126" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="122"/>
@@ -5204,7 +5200,7 @@
       <c r="G18" s="122"/>
     </row>
     <row r="19" spans="1:7" ht="27" customHeight="1">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="124" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="122"/>
@@ -5216,16 +5212,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A8:G8"/>
@@ -5235,6 +5221,16 @@
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5271,70 +5267,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="169" t="s">
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="169" t="s">
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="129"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="174"/>
     </row>
     <row r="2" spans="1:16" ht="12.75">
-      <c r="A2" s="148"/>
+      <c r="A2" s="175"/>
       <c r="B2" s="122"/>
       <c r="C2" s="122"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="148"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="175"/>
       <c r="F2" s="122"/>
       <c r="G2" s="122"/>
       <c r="H2" s="122"/>
       <c r="I2" s="122"/>
       <c r="J2" s="122"/>
       <c r="K2" s="122"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="148"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="175"/>
       <c r="N2" s="122"/>
       <c r="O2" s="122"/>
-      <c r="P2" s="154"/>
+      <c r="P2" s="138"/>
     </row>
     <row r="3" spans="1:16" ht="12.75">
-      <c r="A3" s="130"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="132"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="145"/>
     </row>
     <row r="4" spans="1:16" ht="97.5" customHeight="1">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="153"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="1" t="e">
         <f t="shared" ref="C4:O4" ca="1" si="0">_xludf.image("http://play.pokemonshowdown.com/sprites/trainers/"&amp;LOWER(C5)&amp;".png")</f>
         <v>#NAME?</v>
@@ -5383,15 +5379,15 @@
         <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
-      <c r="O4" s="170" t="e">
+      <c r="O4" s="176" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
-      <c r="P4" s="142"/>
+      <c r="P4" s="141"/>
     </row>
     <row r="5" spans="1:16" ht="15.4">
-      <c r="A5" s="151"/>
-      <c r="B5" s="154"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="138"/>
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
@@ -5428,14 +5424,14 @@
       <c r="N5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="171" t="s">
+      <c r="O5" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="157"/>
+      <c r="P5" s="129"/>
     </row>
     <row r="6" spans="1:16" ht="15.4">
-      <c r="A6" s="151"/>
-      <c r="B6" s="154"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="138"/>
       <c r="C6" s="9">
         <v>14</v>
       </c>
@@ -5460,18 +5456,18 @@
       <c r="J6" s="11">
         <v>50</v>
       </c>
-      <c r="K6" s="155">
+      <c r="K6" s="178">
         <v>62</v>
       </c>
-      <c r="L6" s="156"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="157"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="129"/>
     </row>
     <row r="7" spans="1:16" ht="15.4">
-      <c r="A7" s="152"/>
-      <c r="B7" s="132"/>
+      <c r="A7" s="184"/>
+      <c r="B7" s="145"/>
       <c r="C7" s="12" t="b">
         <v>0</v>
       </c>
@@ -5508,80 +5504,80 @@
       <c r="N7" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="O7" s="158" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="153"/>
+      <c r="O7" s="179" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="136"/>
     </row>
     <row r="8" spans="1:16" ht="12.75">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="185" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="162">
+      <c r="B8" s="173"/>
+      <c r="C8" s="186">
         <f>('Points Calculation'!D10)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="161" t="s">
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="128"/>
-      <c r="L8" s="128"/>
-      <c r="M8" s="128"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="128"/>
-      <c r="P8" s="129"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="173"/>
+      <c r="O8" s="173"/>
+      <c r="P8" s="174"/>
     </row>
     <row r="9" spans="1:16" ht="12.75">
-      <c r="A9" s="148"/>
+      <c r="A9" s="175"/>
       <c r="B9" s="122"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="148"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="175"/>
       <c r="E9" s="122"/>
       <c r="F9" s="122"/>
       <c r="G9" s="122"/>
       <c r="H9" s="122"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="148"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="175"/>
       <c r="K9" s="122"/>
       <c r="L9" s="122"/>
       <c r="M9" s="122"/>
       <c r="N9" s="122"/>
       <c r="O9" s="122"/>
-      <c r="P9" s="154"/>
+      <c r="P9" s="138"/>
     </row>
     <row r="10" spans="1:16" ht="12.75">
-      <c r="A10" s="130"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="130"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="132"/>
+      <c r="A10" s="170"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="145"/>
     </row>
     <row r="11" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A11" s="166" t="s">
+      <c r="A11" s="190" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="167"/>
-      <c r="C11" s="168"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="132"/>
       <c r="D11" s="14" t="str">
         <f>'Team &amp; Encounters'!B5</f>
         <v/>
@@ -5609,64 +5605,64 @@
       <c r="J11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="191" t="s">
+      <c r="K11" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="167"/>
-      <c r="M11" s="191" t="s">
+      <c r="L11" s="131"/>
+      <c r="M11" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="167"/>
-      <c r="O11" s="167"/>
-      <c r="P11" s="168"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
+      <c r="P11" s="132"/>
     </row>
     <row r="12" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="134"/>
+      <c r="B12" s="160"/>
       <c r="C12" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="D12" s="146" t="e">
+      <c r="D12" s="191" t="e">
         <f ca="1">'Team &amp; Encounters'!B6</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="150" t="e">
+      <c r="E12" s="181"/>
+      <c r="F12" s="180" t="e">
         <f ca="1">'Team &amp; Encounters'!D6</f>
         <v>#NAME?</v>
       </c>
-      <c r="G12" s="147"/>
-      <c r="H12" s="150" t="e">
+      <c r="G12" s="181"/>
+      <c r="H12" s="180" t="e">
         <f ca="1">'Team &amp; Encounters'!F6</f>
         <v>#NAME?</v>
       </c>
-      <c r="I12" s="153"/>
-      <c r="J12" s="192" t="s">
+      <c r="I12" s="136"/>
+      <c r="J12" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="156"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="157"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="129"/>
     </row>
     <row r="13" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="134"/>
+      <c r="B13" s="160"/>
       <c r="C13" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="D13" s="148"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="154"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="138"/>
       <c r="J13" s="20"/>
       <c r="K13" s="21" t="s">
         <v>45</v>
@@ -5674,25 +5670,25 @@
       <c r="L13" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="179"/>
-      <c r="N13" s="180"/>
-      <c r="O13" s="180"/>
-      <c r="P13" s="153"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="136"/>
     </row>
     <row r="14" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="134"/>
+      <c r="B14" s="160"/>
       <c r="C14" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="148"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="154"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="138"/>
       <c r="J14" s="20"/>
       <c r="K14" s="21" t="s">
         <v>48</v>
@@ -5700,25 +5696,25 @@
       <c r="L14" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="M14" s="151"/>
+      <c r="M14" s="137"/>
       <c r="N14" s="122"/>
       <c r="O14" s="122"/>
-      <c r="P14" s="154"/>
+      <c r="P14" s="138"/>
     </row>
     <row r="15" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A15" s="143" t="s">
+      <c r="A15" s="182" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="134"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="D15" s="148"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="154"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="138"/>
       <c r="J15" s="20"/>
       <c r="K15" s="21" t="s">
         <v>51</v>
@@ -5726,25 +5722,25 @@
       <c r="L15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="M15" s="151"/>
+      <c r="M15" s="137"/>
       <c r="N15" s="122"/>
       <c r="O15" s="122"/>
-      <c r="P15" s="154"/>
+      <c r="P15" s="138"/>
     </row>
     <row r="16" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A16" s="143" t="s">
+      <c r="A16" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="134"/>
+      <c r="B16" s="160"/>
       <c r="C16" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="D16" s="137"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="142"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="141"/>
       <c r="J16" s="20"/>
       <c r="K16" s="21" t="s">
         <v>54</v>
@@ -5752,16 +5748,16 @@
       <c r="L16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="M16" s="159"/>
-      <c r="N16" s="138"/>
-      <c r="O16" s="138"/>
-      <c r="P16" s="142"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="140"/>
+      <c r="O16" s="140"/>
+      <c r="P16" s="141"/>
     </row>
     <row r="17" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A17" s="143" t="s">
+      <c r="A17" s="182" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="134"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="19" t="b">
         <v>0</v>
       </c>
@@ -5789,39 +5785,39 @@
         <f>'Team &amp; Encounters'!G12</f>
         <v/>
       </c>
-      <c r="J17" s="193" t="s">
+      <c r="J17" s="142" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="156"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="156"/>
-      <c r="N17" s="156"/>
-      <c r="O17" s="156"/>
-      <c r="P17" s="157"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="129"/>
     </row>
     <row r="18" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A18" s="144" t="s">
+      <c r="A18" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="145"/>
+      <c r="B18" s="156"/>
       <c r="C18" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="D18" s="146" t="e">
+      <c r="D18" s="191" t="e">
         <f ca="1">'Team &amp; Encounters'!B13</f>
         <v>#NAME?</v>
       </c>
-      <c r="E18" s="147"/>
-      <c r="F18" s="150" t="e">
+      <c r="E18" s="181"/>
+      <c r="F18" s="180" t="e">
         <f ca="1">'Team &amp; Encounters'!D13</f>
         <v>#NAME?</v>
       </c>
-      <c r="G18" s="147"/>
-      <c r="H18" s="150" t="e">
+      <c r="G18" s="181"/>
+      <c r="H18" s="180" t="e">
         <f ca="1">'Team &amp; Encounters'!F13</f>
         <v>#NAME?</v>
       </c>
-      <c r="I18" s="153"/>
+      <c r="I18" s="136"/>
       <c r="J18" s="20"/>
       <c r="K18" s="28" t="s">
         <v>59</v>
@@ -5829,21 +5825,21 @@
       <c r="L18" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="M18" s="179"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="180"/>
-      <c r="P18" s="153"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="136"/>
     </row>
     <row r="19" spans="1:16" ht="26.25" customHeight="1">
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="136"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="136"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="154"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="138"/>
       <c r="J19" s="20"/>
       <c r="K19" s="21" t="s">
         <v>61</v>
@@ -5851,23 +5847,23 @@
       <c r="L19" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M19" s="151"/>
+      <c r="M19" s="137"/>
       <c r="N19" s="122"/>
       <c r="O19" s="122"/>
-      <c r="P19" s="154"/>
+      <c r="P19" s="138"/>
     </row>
     <row r="20" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A20" s="174" t="s">
+      <c r="A20" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="167"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="154"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="138"/>
       <c r="J20" s="20"/>
       <c r="K20" s="28" t="s">
         <v>64</v>
@@ -5875,25 +5871,25 @@
       <c r="L20" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="M20" s="151"/>
+      <c r="M20" s="137"/>
       <c r="N20" s="122"/>
       <c r="O20" s="122"/>
-      <c r="P20" s="154"/>
+      <c r="P20" s="138"/>
     </row>
     <row r="21" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A21" s="133" t="s">
+      <c r="A21" s="159" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="134"/>
+      <c r="B21" s="160"/>
       <c r="C21" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D21" s="148"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="154"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="138"/>
       <c r="J21" s="20"/>
       <c r="K21" s="28" t="s">
         <v>67</v>
@@ -5901,51 +5897,51 @@
       <c r="L21" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="M21" s="151"/>
+      <c r="M21" s="137"/>
       <c r="N21" s="122"/>
       <c r="O21" s="122"/>
-      <c r="P21" s="154"/>
+      <c r="P21" s="138"/>
     </row>
     <row r="22" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="159" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="134"/>
+      <c r="B22" s="160"/>
       <c r="C22" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D22" s="130"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="188" t="s">
+      <c r="D22" s="170"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="157"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="128"/>
+      <c r="P22" s="129"/>
     </row>
     <row r="23" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A23" s="133" t="s">
+      <c r="A23" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="134"/>
+      <c r="B23" s="160"/>
       <c r="C23" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D23" s="127" t="s">
+      <c r="D23" s="193" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="129"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="174"/>
       <c r="J23" s="20"/>
       <c r="K23" s="21" t="s">
         <v>73</v>
@@ -5953,25 +5949,25 @@
       <c r="L23" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="M23" s="181"/>
-      <c r="N23" s="180"/>
-      <c r="O23" s="180"/>
-      <c r="P23" s="153"/>
+      <c r="M23" s="146"/>
+      <c r="N23" s="135"/>
+      <c r="O23" s="135"/>
+      <c r="P23" s="136"/>
     </row>
     <row r="24" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A24" s="133" t="s">
+      <c r="A24" s="159" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="134"/>
+      <c r="B24" s="160"/>
       <c r="C24" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D24" s="130"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="132"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="145"/>
       <c r="J24" s="20"/>
       <c r="K24" s="21" t="s">
         <v>76</v>
@@ -5982,26 +5978,26 @@
       <c r="M24" s="122"/>
       <c r="N24" s="122"/>
       <c r="O24" s="122"/>
-      <c r="P24" s="154"/>
+      <c r="P24" s="138"/>
     </row>
     <row r="25" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A25" s="175" t="s">
+      <c r="A25" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="145"/>
+      <c r="B25" s="156"/>
       <c r="C25" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="D25" s="135" t="s">
+      <c r="D25" s="164" t="s">
         <v>79</v>
       </c>
       <c r="E25" s="122"/>
       <c r="F25" s="122"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="140" t="s">
+      <c r="G25" s="165"/>
+      <c r="H25" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="141" t="b">
+      <c r="I25" s="169" t="b">
         <v>0</v>
       </c>
       <c r="J25" s="20"/>
@@ -6011,47 +6007,47 @@
       <c r="L25" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="M25" s="138"/>
-      <c r="N25" s="138"/>
-      <c r="O25" s="138"/>
-      <c r="P25" s="142"/>
+      <c r="M25" s="140"/>
+      <c r="N25" s="140"/>
+      <c r="O25" s="140"/>
+      <c r="P25" s="141"/>
     </row>
     <row r="26" spans="1:16" ht="26.25" customHeight="1">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="33"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="186" t="s">
+      <c r="D26" s="166"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="156"/>
-      <c r="O26" s="156"/>
-      <c r="P26" s="157"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="128"/>
+      <c r="P26" s="129"/>
     </row>
     <row r="27" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A27" s="176" t="s">
+      <c r="A27" s="162" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="167"/>
-      <c r="C27" s="168"/>
-      <c r="D27" s="135" t="s">
+      <c r="B27" s="131"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="164" t="s">
         <v>85</v>
       </c>
       <c r="E27" s="122"/>
       <c r="F27" s="122"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="140" t="s">
+      <c r="G27" s="165"/>
+      <c r="H27" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="I27" s="141" t="b">
+      <c r="I27" s="169" t="b">
         <v>0</v>
       </c>
       <c r="J27" s="20"/>
@@ -6061,25 +6057,25 @@
       <c r="L27" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="M27" s="182"/>
-      <c r="N27" s="180"/>
-      <c r="O27" s="180"/>
-      <c r="P27" s="153"/>
+      <c r="M27" s="147"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="136"/>
     </row>
     <row r="28" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A28" s="177" t="s">
+      <c r="A28" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="134"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D28" s="137"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="142"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="141"/>
       <c r="J28" s="20"/>
       <c r="K28" s="21" t="s">
         <v>90</v>
@@ -6090,26 +6086,26 @@
       <c r="M28" s="122"/>
       <c r="N28" s="122"/>
       <c r="O28" s="122"/>
-      <c r="P28" s="154"/>
+      <c r="P28" s="138"/>
     </row>
     <row r="29" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A29" s="177" t="s">
+      <c r="A29" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="134"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D29" s="135" t="s">
+      <c r="D29" s="164" t="s">
         <v>93</v>
       </c>
       <c r="E29" s="122"/>
       <c r="F29" s="122"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="140" t="s">
+      <c r="G29" s="165"/>
+      <c r="H29" s="168" t="s">
         <v>94</v>
       </c>
-      <c r="I29" s="141" t="b">
+      <c r="I29" s="169" t="b">
         <v>0</v>
       </c>
       <c r="J29" s="20"/>
@@ -6122,22 +6118,22 @@
       <c r="M29" s="122"/>
       <c r="N29" s="122"/>
       <c r="O29" s="122"/>
-      <c r="P29" s="154"/>
+      <c r="P29" s="138"/>
     </row>
     <row r="30" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A30" s="173" t="s">
+      <c r="A30" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="145"/>
+      <c r="B30" s="156"/>
       <c r="C30" s="35" t="b">
         <v>0</v>
       </c>
-      <c r="D30" s="137"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="142"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="141"/>
       <c r="J30" s="20"/>
       <c r="K30" s="21" t="s">
         <v>98</v>
@@ -6148,22 +6144,22 @@
       <c r="M30" s="122"/>
       <c r="N30" s="122"/>
       <c r="O30" s="122"/>
-      <c r="P30" s="154"/>
+      <c r="P30" s="138"/>
     </row>
     <row r="31" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A31" s="172"/>
+      <c r="A31" s="157"/>
       <c r="B31" s="122"/>
       <c r="C31" s="122"/>
-      <c r="D31" s="135" t="s">
+      <c r="D31" s="164" t="s">
         <v>100</v>
       </c>
       <c r="E31" s="122"/>
       <c r="F31" s="122"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="140" t="s">
+      <c r="G31" s="165"/>
+      <c r="H31" s="168" t="s">
         <v>101</v>
       </c>
-      <c r="I31" s="141" t="b">
+      <c r="I31" s="169" t="b">
         <v>0</v>
       </c>
       <c r="J31" s="20"/>
@@ -6173,45 +6169,45 @@
       <c r="L31" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="M31" s="138"/>
-      <c r="N31" s="138"/>
-      <c r="O31" s="138"/>
-      <c r="P31" s="142"/>
+      <c r="M31" s="140"/>
+      <c r="N31" s="140"/>
+      <c r="O31" s="140"/>
+      <c r="P31" s="141"/>
     </row>
     <row r="32" spans="1:16" ht="26.25" customHeight="1">
       <c r="A32" s="122"/>
       <c r="B32" s="122"/>
       <c r="C32" s="122"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="187" t="s">
+      <c r="D32" s="166"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="152" t="s">
         <v>104</v>
       </c>
-      <c r="K32" s="156"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="156"/>
-      <c r="O32" s="156"/>
-      <c r="P32" s="157"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="128"/>
+      <c r="M32" s="128"/>
+      <c r="N32" s="128"/>
+      <c r="O32" s="128"/>
+      <c r="P32" s="129"/>
     </row>
     <row r="33" spans="1:16" ht="26.25" customHeight="1">
       <c r="A33" s="122"/>
       <c r="B33" s="122"/>
       <c r="C33" s="122"/>
-      <c r="D33" s="135" t="s">
+      <c r="D33" s="164" t="s">
         <v>105</v>
       </c>
       <c r="E33" s="122"/>
       <c r="F33" s="122"/>
-      <c r="G33" s="136"/>
-      <c r="H33" s="140" t="s">
+      <c r="G33" s="165"/>
+      <c r="H33" s="168" t="s">
         <v>106</v>
       </c>
-      <c r="I33" s="141" t="b">
+      <c r="I33" s="169" t="b">
         <v>0</v>
       </c>
       <c r="J33" s="20"/>
@@ -6221,21 +6217,21 @@
       <c r="L33" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="M33" s="181"/>
-      <c r="N33" s="180"/>
-      <c r="O33" s="180"/>
-      <c r="P33" s="153"/>
+      <c r="M33" s="146"/>
+      <c r="N33" s="135"/>
+      <c r="O33" s="135"/>
+      <c r="P33" s="136"/>
     </row>
     <row r="34" spans="1:16" ht="26.25" customHeight="1">
       <c r="A34" s="122"/>
       <c r="B34" s="122"/>
       <c r="C34" s="122"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="138"/>
-      <c r="F34" s="138"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="139"/>
-      <c r="I34" s="142"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="167"/>
+      <c r="H34" s="167"/>
+      <c r="I34" s="141"/>
       <c r="J34" s="20"/>
       <c r="K34" s="21" t="s">
         <v>109</v>
@@ -6246,22 +6242,22 @@
       <c r="M34" s="122"/>
       <c r="N34" s="122"/>
       <c r="O34" s="122"/>
-      <c r="P34" s="154"/>
+      <c r="P34" s="138"/>
     </row>
     <row r="35" spans="1:16" ht="26.25" customHeight="1">
       <c r="A35" s="122"/>
       <c r="B35" s="122"/>
       <c r="C35" s="122"/>
-      <c r="D35" s="135" t="s">
+      <c r="D35" s="164" t="s">
         <v>110</v>
       </c>
       <c r="E35" s="122"/>
       <c r="F35" s="122"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="140" t="s">
+      <c r="G35" s="165"/>
+      <c r="H35" s="168" t="s">
         <v>111</v>
       </c>
-      <c r="I35" s="141" t="b">
+      <c r="I35" s="169" t="b">
         <v>0</v>
       </c>
       <c r="J35" s="20"/>
@@ -6274,18 +6270,18 @@
       <c r="M35" s="122"/>
       <c r="N35" s="122"/>
       <c r="O35" s="122"/>
-      <c r="P35" s="154"/>
+      <c r="P35" s="138"/>
     </row>
     <row r="36" spans="1:16" ht="26.25" customHeight="1">
       <c r="A36" s="122"/>
       <c r="B36" s="122"/>
       <c r="C36" s="122"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="138"/>
-      <c r="F36" s="138"/>
-      <c r="G36" s="139"/>
-      <c r="H36" s="139"/>
-      <c r="I36" s="142"/>
+      <c r="D36" s="166"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="140"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="167"/>
+      <c r="I36" s="141"/>
       <c r="J36" s="20"/>
       <c r="K36" s="21" t="s">
         <v>114</v>
@@ -6296,22 +6292,22 @@
       <c r="M36" s="122"/>
       <c r="N36" s="122"/>
       <c r="O36" s="122"/>
-      <c r="P36" s="154"/>
+      <c r="P36" s="138"/>
     </row>
     <row r="37" spans="1:16" ht="26.25" customHeight="1">
       <c r="A37" s="122"/>
       <c r="B37" s="122"/>
       <c r="C37" s="122"/>
-      <c r="D37" s="135" t="s">
+      <c r="D37" s="164" t="s">
         <v>116</v>
       </c>
       <c r="E37" s="122"/>
       <c r="F37" s="122"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="140" t="s">
+      <c r="G37" s="165"/>
+      <c r="H37" s="168" t="s">
         <v>117</v>
       </c>
-      <c r="I37" s="141" t="b">
+      <c r="I37" s="169" t="b">
         <v>0</v>
       </c>
       <c r="J37" s="20"/>
@@ -6324,42 +6320,42 @@
       <c r="M37" s="122"/>
       <c r="N37" s="122"/>
       <c r="O37" s="122"/>
-      <c r="P37" s="154"/>
+      <c r="P37" s="138"/>
     </row>
     <row r="38" spans="1:16" ht="26.25" customHeight="1">
       <c r="A38" s="122"/>
       <c r="B38" s="122"/>
       <c r="C38" s="122"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="138"/>
-      <c r="F38" s="138"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="142"/>
-      <c r="J38" s="183" t="s">
+      <c r="D38" s="166"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="140"/>
+      <c r="G38" s="167"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="141"/>
+      <c r="J38" s="148" t="s">
         <v>119</v>
       </c>
-      <c r="K38" s="156"/>
-      <c r="L38" s="156"/>
-      <c r="M38" s="156"/>
-      <c r="N38" s="156"/>
-      <c r="O38" s="156"/>
-      <c r="P38" s="157"/>
+      <c r="K38" s="128"/>
+      <c r="L38" s="128"/>
+      <c r="M38" s="128"/>
+      <c r="N38" s="128"/>
+      <c r="O38" s="128"/>
+      <c r="P38" s="129"/>
     </row>
     <row r="39" spans="1:16" ht="26.25" customHeight="1">
       <c r="A39" s="122"/>
       <c r="B39" s="122"/>
       <c r="C39" s="122"/>
-      <c r="D39" s="135" t="s">
+      <c r="D39" s="164" t="s">
         <v>120</v>
       </c>
       <c r="E39" s="122"/>
       <c r="F39" s="122"/>
-      <c r="G39" s="136"/>
-      <c r="H39" s="140" t="s">
+      <c r="G39" s="165"/>
+      <c r="H39" s="168" t="s">
         <v>121</v>
       </c>
-      <c r="I39" s="141" t="b">
+      <c r="I39" s="169" t="b">
         <v>0</v>
       </c>
       <c r="J39" s="20"/>
@@ -6369,21 +6365,21 @@
       <c r="L39" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="M39" s="184"/>
+      <c r="M39" s="149"/>
       <c r="N39" s="122"/>
       <c r="O39" s="122"/>
-      <c r="P39" s="154"/>
+      <c r="P39" s="138"/>
     </row>
     <row r="40" spans="1:16" ht="26.25" customHeight="1">
       <c r="A40" s="122"/>
       <c r="B40" s="122"/>
       <c r="C40" s="122"/>
-      <c r="D40" s="137"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="139"/>
-      <c r="H40" s="139"/>
-      <c r="I40" s="142"/>
+      <c r="D40" s="166"/>
+      <c r="E40" s="140"/>
+      <c r="F40" s="140"/>
+      <c r="G40" s="167"/>
+      <c r="H40" s="167"/>
+      <c r="I40" s="141"/>
       <c r="J40" s="20"/>
       <c r="K40" s="21" t="s">
         <v>124</v>
@@ -6394,22 +6390,22 @@
       <c r="M40" s="122"/>
       <c r="N40" s="122"/>
       <c r="O40" s="122"/>
-      <c r="P40" s="154"/>
+      <c r="P40" s="138"/>
     </row>
     <row r="41" spans="1:16" ht="26.25" customHeight="1">
       <c r="A41" s="122"/>
       <c r="B41" s="122"/>
       <c r="C41" s="122"/>
-      <c r="D41" s="135" t="s">
+      <c r="D41" s="164" t="s">
         <v>126</v>
       </c>
       <c r="E41" s="122"/>
       <c r="F41" s="122"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="140" t="s">
+      <c r="G41" s="165"/>
+      <c r="H41" s="168" t="s">
         <v>127</v>
       </c>
-      <c r="I41" s="141" t="b">
+      <c r="I41" s="169" t="b">
         <v>0</v>
       </c>
       <c r="J41" s="20"/>
@@ -6422,18 +6418,18 @@
       <c r="M41" s="122"/>
       <c r="N41" s="122"/>
       <c r="O41" s="122"/>
-      <c r="P41" s="154"/>
+      <c r="P41" s="138"/>
     </row>
     <row r="42" spans="1:16" ht="26.25" customHeight="1">
       <c r="A42" s="122"/>
       <c r="B42" s="122"/>
       <c r="C42" s="122"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="132"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="144"/>
+      <c r="G42" s="171"/>
+      <c r="H42" s="171"/>
+      <c r="I42" s="145"/>
       <c r="J42" s="20"/>
       <c r="K42" s="21" t="s">
         <v>130</v>
@@ -6441,30 +6437,30 @@
       <c r="L42" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="M42" s="138"/>
-      <c r="N42" s="138"/>
-      <c r="O42" s="138"/>
-      <c r="P42" s="142"/>
+      <c r="M42" s="140"/>
+      <c r="N42" s="140"/>
+      <c r="O42" s="140"/>
+      <c r="P42" s="141"/>
     </row>
     <row r="43" spans="1:16" ht="26.25" customHeight="1">
       <c r="A43" s="122"/>
       <c r="B43" s="122"/>
       <c r="C43" s="122"/>
-      <c r="D43" s="172"/>
+      <c r="D43" s="157"/>
       <c r="E43" s="122"/>
       <c r="F43" s="122"/>
       <c r="G43" s="122"/>
       <c r="H43" s="122"/>
       <c r="I43" s="122"/>
-      <c r="J43" s="185" t="s">
+      <c r="J43" s="150" t="s">
         <v>132</v>
       </c>
-      <c r="K43" s="156"/>
-      <c r="L43" s="156"/>
-      <c r="M43" s="156"/>
-      <c r="N43" s="156"/>
-      <c r="O43" s="156"/>
-      <c r="P43" s="157"/>
+      <c r="K43" s="128"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="128"/>
+      <c r="N43" s="128"/>
+      <c r="O43" s="128"/>
+      <c r="P43" s="129"/>
     </row>
     <row r="44" spans="1:16" ht="26.25" customHeight="1">
       <c r="A44" s="122"/>
@@ -6483,10 +6479,10 @@
       <c r="L44" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="M44" s="178"/>
+      <c r="M44" s="143"/>
       <c r="N44" s="122"/>
       <c r="O44" s="122"/>
-      <c r="P44" s="154"/>
+      <c r="P44" s="138"/>
     </row>
     <row r="45" spans="1:16" ht="26.25" customHeight="1">
       <c r="A45" s="122"/>
@@ -6508,7 +6504,7 @@
       <c r="M45" s="122"/>
       <c r="N45" s="122"/>
       <c r="O45" s="122"/>
-      <c r="P45" s="154"/>
+      <c r="P45" s="138"/>
     </row>
     <row r="46" spans="1:16" ht="26.25" customHeight="1">
       <c r="A46" s="122"/>
@@ -6530,7 +6526,7 @@
       <c r="M46" s="122"/>
       <c r="N46" s="122"/>
       <c r="O46" s="122"/>
-      <c r="P46" s="154"/>
+      <c r="P46" s="138"/>
     </row>
     <row r="47" spans="1:16" ht="26.25" customHeight="1">
       <c r="A47" s="122"/>
@@ -6549,10 +6545,10 @@
       <c r="L47" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="M47" s="138"/>
-      <c r="N47" s="138"/>
-      <c r="O47" s="138"/>
-      <c r="P47" s="142"/>
+      <c r="M47" s="140"/>
+      <c r="N47" s="140"/>
+      <c r="O47" s="140"/>
+      <c r="P47" s="141"/>
     </row>
     <row r="48" spans="1:16" ht="26.25" customHeight="1">
       <c r="A48" s="122"/>
@@ -6564,15 +6560,15 @@
       <c r="G48" s="122"/>
       <c r="H48" s="122"/>
       <c r="I48" s="122"/>
-      <c r="J48" s="189" t="s">
+      <c r="J48" s="154" t="s">
         <v>139</v>
       </c>
-      <c r="K48" s="156"/>
-      <c r="L48" s="156"/>
-      <c r="M48" s="156"/>
-      <c r="N48" s="156"/>
-      <c r="O48" s="156"/>
-      <c r="P48" s="157"/>
+      <c r="K48" s="128"/>
+      <c r="L48" s="128"/>
+      <c r="M48" s="128"/>
+      <c r="N48" s="128"/>
+      <c r="O48" s="128"/>
+      <c r="P48" s="129"/>
     </row>
     <row r="49" spans="1:16" ht="26.25" customHeight="1">
       <c r="A49" s="122"/>
@@ -6591,10 +6587,10 @@
       <c r="L49" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="M49" s="178"/>
+      <c r="M49" s="143"/>
       <c r="N49" s="122"/>
       <c r="O49" s="122"/>
-      <c r="P49" s="154"/>
+      <c r="P49" s="138"/>
     </row>
     <row r="50" spans="1:16" ht="26.25" customHeight="1">
       <c r="A50" s="122"/>
@@ -6616,7 +6612,7 @@
       <c r="M50" s="122"/>
       <c r="N50" s="122"/>
       <c r="O50" s="122"/>
-      <c r="P50" s="154"/>
+      <c r="P50" s="138"/>
     </row>
     <row r="51" spans="1:16" ht="26.25" customHeight="1">
       <c r="A51" s="122"/>
@@ -6638,7 +6634,7 @@
       <c r="M51" s="122"/>
       <c r="N51" s="122"/>
       <c r="O51" s="122"/>
-      <c r="P51" s="154"/>
+      <c r="P51" s="138"/>
     </row>
     <row r="52" spans="1:16" ht="26.25" customHeight="1">
       <c r="A52" s="122"/>
@@ -6660,7 +6656,7 @@
       <c r="M52" s="122"/>
       <c r="N52" s="122"/>
       <c r="O52" s="122"/>
-      <c r="P52" s="154"/>
+      <c r="P52" s="138"/>
     </row>
     <row r="53" spans="1:16" ht="26.25" customHeight="1">
       <c r="A53" s="122"/>
@@ -6682,7 +6678,7 @@
       <c r="M53" s="122"/>
       <c r="N53" s="122"/>
       <c r="O53" s="122"/>
-      <c r="P53" s="154"/>
+      <c r="P53" s="138"/>
     </row>
     <row r="54" spans="1:16" ht="26.25" customHeight="1">
       <c r="A54" s="122"/>
@@ -6704,7 +6700,7 @@
       <c r="M54" s="122"/>
       <c r="N54" s="122"/>
       <c r="O54" s="122"/>
-      <c r="P54" s="154"/>
+      <c r="P54" s="138"/>
     </row>
     <row r="55" spans="1:16" ht="26.25" customHeight="1">
       <c r="A55" s="122"/>
@@ -6726,7 +6722,7 @@
       <c r="M55" s="122"/>
       <c r="N55" s="122"/>
       <c r="O55" s="122"/>
-      <c r="P55" s="154"/>
+      <c r="P55" s="138"/>
     </row>
     <row r="56" spans="1:16" ht="26.25" customHeight="1">
       <c r="A56" s="122"/>
@@ -6738,15 +6734,15 @@
       <c r="G56" s="122"/>
       <c r="H56" s="122"/>
       <c r="I56" s="122"/>
-      <c r="J56" s="190" t="s">
+      <c r="J56" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="K56" s="156"/>
-      <c r="L56" s="156"/>
-      <c r="M56" s="156"/>
-      <c r="N56" s="156"/>
-      <c r="O56" s="156"/>
-      <c r="P56" s="157"/>
+      <c r="K56" s="128"/>
+      <c r="L56" s="128"/>
+      <c r="M56" s="128"/>
+      <c r="N56" s="128"/>
+      <c r="O56" s="128"/>
+      <c r="P56" s="129"/>
     </row>
     <row r="57" spans="1:16" ht="26.25" customHeight="1">
       <c r="A57" s="122"/>
@@ -6765,10 +6761,10 @@
       <c r="L57" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="M57" s="178"/>
+      <c r="M57" s="143"/>
       <c r="N57" s="122"/>
       <c r="O57" s="122"/>
-      <c r="P57" s="154"/>
+      <c r="P57" s="138"/>
     </row>
     <row r="58" spans="1:16" ht="26.25" customHeight="1">
       <c r="A58" s="122"/>
@@ -6790,7 +6786,7 @@
       <c r="M58" s="122"/>
       <c r="N58" s="122"/>
       <c r="O58" s="122"/>
-      <c r="P58" s="154"/>
+      <c r="P58" s="138"/>
     </row>
     <row r="59" spans="1:16" ht="26.25" customHeight="1">
       <c r="A59" s="122"/>
@@ -6812,7 +6808,7 @@
       <c r="M59" s="122"/>
       <c r="N59" s="122"/>
       <c r="O59" s="122"/>
-      <c r="P59" s="154"/>
+      <c r="P59" s="138"/>
     </row>
     <row r="60" spans="1:16" ht="26.25" customHeight="1">
       <c r="A60" s="122"/>
@@ -6834,7 +6830,7 @@
       <c r="M60" s="122"/>
       <c r="N60" s="122"/>
       <c r="O60" s="122"/>
-      <c r="P60" s="154"/>
+      <c r="P60" s="138"/>
     </row>
     <row r="61" spans="1:16" ht="26.25" customHeight="1">
       <c r="A61" s="122"/>
@@ -6856,7 +6852,7 @@
       <c r="M61" s="122"/>
       <c r="N61" s="122"/>
       <c r="O61" s="122"/>
-      <c r="P61" s="154"/>
+      <c r="P61" s="138"/>
     </row>
     <row r="62" spans="1:16" ht="26.25" customHeight="1">
       <c r="A62" s="122"/>
@@ -6878,7 +6874,7 @@
       <c r="M62" s="122"/>
       <c r="N62" s="122"/>
       <c r="O62" s="122"/>
-      <c r="P62" s="154"/>
+      <c r="P62" s="138"/>
     </row>
     <row r="63" spans="1:16" ht="26.25" customHeight="1">
       <c r="A63" s="122"/>
@@ -6900,7 +6896,7 @@
       <c r="M63" s="122"/>
       <c r="N63" s="122"/>
       <c r="O63" s="122"/>
-      <c r="P63" s="154"/>
+      <c r="P63" s="138"/>
     </row>
     <row r="64" spans="1:16" ht="26.25" customHeight="1">
       <c r="A64" s="122"/>
@@ -6919,10 +6915,10 @@
       <c r="L64" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="M64" s="178"/>
+      <c r="M64" s="143"/>
       <c r="N64" s="122"/>
       <c r="O64" s="122"/>
-      <c r="P64" s="154"/>
+      <c r="P64" s="138"/>
     </row>
     <row r="65" spans="1:16" ht="26.25" customHeight="1">
       <c r="A65" s="122"/>
@@ -6944,7 +6940,7 @@
       <c r="M65" s="122"/>
       <c r="N65" s="122"/>
       <c r="O65" s="122"/>
-      <c r="P65" s="154"/>
+      <c r="P65" s="138"/>
     </row>
     <row r="66" spans="1:16" ht="26.25" customHeight="1">
       <c r="A66" s="122"/>
@@ -6966,7 +6962,7 @@
       <c r="M66" s="122"/>
       <c r="N66" s="122"/>
       <c r="O66" s="122"/>
-      <c r="P66" s="154"/>
+      <c r="P66" s="138"/>
     </row>
     <row r="67" spans="1:16" ht="26.25" customHeight="1">
       <c r="A67" s="122"/>
@@ -6988,7 +6984,7 @@
       <c r="M67" s="122"/>
       <c r="N67" s="122"/>
       <c r="O67" s="122"/>
-      <c r="P67" s="154"/>
+      <c r="P67" s="138"/>
     </row>
     <row r="68" spans="1:16" ht="26.25" customHeight="1">
       <c r="A68" s="122"/>
@@ -7010,7 +7006,7 @@
       <c r="M68" s="122"/>
       <c r="N68" s="122"/>
       <c r="O68" s="122"/>
-      <c r="P68" s="154"/>
+      <c r="P68" s="138"/>
     </row>
     <row r="69" spans="1:16" ht="26.25" customHeight="1">
       <c r="A69" s="122"/>
@@ -7032,7 +7028,7 @@
       <c r="M69" s="122"/>
       <c r="N69" s="122"/>
       <c r="O69" s="122"/>
-      <c r="P69" s="154"/>
+      <c r="P69" s="138"/>
     </row>
     <row r="70" spans="1:16" ht="26.25" customHeight="1">
       <c r="A70" s="122"/>
@@ -7051,10 +7047,10 @@
       <c r="L70" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="M70" s="131"/>
-      <c r="N70" s="131"/>
-      <c r="O70" s="131"/>
-      <c r="P70" s="132"/>
+      <c r="M70" s="144"/>
+      <c r="N70" s="144"/>
+      <c r="O70" s="144"/>
+      <c r="P70" s="145"/>
     </row>
     <row r="71" spans="1:16" ht="26.25" customHeight="1">
       <c r="A71" s="122"/>
@@ -7076,12 +7072,72 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="J56:P56"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="M13:P16"/>
-    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="D23:I24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E22"/>
+    <mergeCell ref="F18:G22"/>
+    <mergeCell ref="H18:I22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="F12:G16"/>
+    <mergeCell ref="H12:I16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A4:B7"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:I10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D12:E16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="J8:P10"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:L3"/>
+    <mergeCell ref="M1:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="D41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D43:I71"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="D35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="D37:G38"/>
+    <mergeCell ref="D31:G32"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:C71"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="M57:P63"/>
     <mergeCell ref="M64:P70"/>
     <mergeCell ref="J71:P71"/>
@@ -7098,72 +7154,12 @@
     <mergeCell ref="M44:P47"/>
     <mergeCell ref="J48:P48"/>
     <mergeCell ref="M49:P55"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:C71"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="D31:G32"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D43:I71"/>
-    <mergeCell ref="D33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="D35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="D37:G38"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:L3"/>
-    <mergeCell ref="M1:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="F12:G16"/>
-    <mergeCell ref="H12:I16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A4:B7"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:I10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D12:E16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="J8:P10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E22"/>
-    <mergeCell ref="F18:G22"/>
-    <mergeCell ref="H18:I22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D23:I24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J56:P56"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="M13:P16"/>
+    <mergeCell ref="J17:P17"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C7">
     <cfRule type="expression" dxfId="28" priority="4">
@@ -7307,8 +7303,8 @@
   </sheetPr>
   <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7353,12 +7349,12 @@
     </row>
     <row r="2" spans="1:24" ht="27" customHeight="1">
       <c r="A2" s="30"/>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="197" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="147"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="181"/>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
@@ -7381,55 +7377,55 @@
     </row>
     <row r="3" spans="1:24" ht="27" customHeight="1">
       <c r="A3" s="30"/>
-      <c r="B3" s="159"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="167"/>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
-      <c r="I3" s="195" t="s">
+      <c r="I3" s="196" t="s">
         <v>169</v>
       </c>
-      <c r="J3" s="197" t="s">
+      <c r="J3" s="198" t="s">
         <v>170</v>
       </c>
-      <c r="K3" s="147"/>
-      <c r="L3" s="195" t="s">
+      <c r="K3" s="181"/>
+      <c r="L3" s="196" t="s">
         <v>171</v>
       </c>
-      <c r="M3" s="195" t="s">
+      <c r="M3" s="196" t="s">
         <v>172</v>
       </c>
-      <c r="N3" s="195" t="s">
+      <c r="N3" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="195" t="s">
+      <c r="O3" s="196" t="s">
         <v>173</v>
       </c>
-      <c r="P3" s="195" t="s">
+      <c r="P3" s="196" t="s">
         <v>174</v>
       </c>
-      <c r="Q3" s="200" t="s">
+      <c r="Q3" s="194" t="s">
         <v>175</v>
       </c>
-      <c r="R3" s="200" t="s">
+      <c r="R3" s="194" t="s">
         <v>176</v>
       </c>
-      <c r="S3" s="200" t="s">
+      <c r="S3" s="194" t="s">
         <v>177</v>
       </c>
-      <c r="T3" s="200" t="s">
+      <c r="T3" s="194" t="s">
         <v>178</v>
       </c>
-      <c r="U3" s="200" t="s">
+      <c r="U3" s="194" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="200"/>
-      <c r="W3" s="200" t="s">
+      <c r="V3" s="194"/>
+      <c r="W3" s="194" t="s">
         <v>173</v>
       </c>
-      <c r="X3" s="200" t="s">
+      <c r="X3" s="194" t="s">
         <v>180</v>
       </c>
     </row>
@@ -7442,22 +7438,22 @@
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
       <c r="H4" s="30"/>
-      <c r="I4" s="196"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="196"/>
-      <c r="M4" s="196"/>
-      <c r="N4" s="196"/>
-      <c r="O4" s="196"/>
-      <c r="P4" s="196"/>
-      <c r="Q4" s="196"/>
-      <c r="R4" s="196"/>
-      <c r="S4" s="196"/>
-      <c r="T4" s="196"/>
-      <c r="U4" s="196"/>
-      <c r="V4" s="196"/>
-      <c r="W4" s="196"/>
-      <c r="X4" s="196"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="P4" s="195"/>
+      <c r="Q4" s="195"/>
+      <c r="R4" s="195"/>
+      <c r="S4" s="195"/>
+      <c r="T4" s="195"/>
+      <c r="U4" s="195"/>
+      <c r="V4" s="195"/>
+      <c r="W4" s="195"/>
+      <c r="X4" s="195"/>
     </row>
     <row r="5" spans="1:24" ht="21">
       <c r="A5" s="30"/>
@@ -7536,21 +7532,21 @@
     </row>
     <row r="6" spans="1:24" ht="21">
       <c r="A6" s="30"/>
-      <c r="B6" s="150" t="e">
+      <c r="B6" s="180" t="e">
         <f ca="1">_xludf.image("http://play.pokemonshowdown.com/sprites/gen5/"&amp;LOWER(B5)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C6" s="147"/>
-      <c r="D6" s="150" t="e">
+      <c r="C6" s="181"/>
+      <c r="D6" s="180" t="e">
         <f ca="1">_xludf.image("http://play.pokemonshowdown.com/sprites/gen5/"&amp;LOWER(D5)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E6" s="147"/>
-      <c r="F6" s="150" t="e">
+      <c r="E6" s="181"/>
+      <c r="F6" s="180" t="e">
         <f ca="1">_xludf.image("http://play.pokemonshowdown.com/sprites/gen5/"&amp;LOWER(F5)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G6" s="147"/>
+      <c r="G6" s="181"/>
       <c r="H6" s="51"/>
       <c r="I6" s="42" t="s">
         <v>135</v>
@@ -7600,12 +7596,12 @@
     </row>
     <row r="7" spans="1:24" ht="21">
       <c r="A7" s="30"/>
-      <c r="B7" s="151"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="136"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="165"/>
       <c r="H7" s="51"/>
       <c r="I7" s="42" t="s">
         <v>183</v>
@@ -7655,12 +7651,12 @@
     </row>
     <row r="8" spans="1:24" ht="21">
       <c r="A8" s="30"/>
-      <c r="B8" s="151"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="136"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="165"/>
       <c r="H8" s="51"/>
       <c r="I8" s="42" t="s">
         <v>46</v>
@@ -7710,12 +7706,12 @@
     </row>
     <row r="9" spans="1:24" ht="21">
       <c r="A9" s="30"/>
-      <c r="B9" s="151"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="165"/>
       <c r="H9" s="51"/>
       <c r="I9" s="42" t="s">
         <v>184</v>
@@ -7765,12 +7761,12 @@
     </row>
     <row r="10" spans="1:24" ht="21">
       <c r="A10" s="30"/>
-      <c r="B10" s="151"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="136"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="165"/>
       <c r="H10" s="51"/>
       <c r="I10" s="42" t="s">
         <v>49</v>
@@ -7820,12 +7816,12 @@
     </row>
     <row r="11" spans="1:24" ht="21">
       <c r="A11" s="30"/>
-      <c r="B11" s="151"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="136"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="165"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="165"/>
       <c r="H11" s="51"/>
       <c r="I11" s="42" t="s">
         <v>185</v>
@@ -7948,21 +7944,21 @@
     </row>
     <row r="13" spans="1:24" ht="21">
       <c r="A13" s="30"/>
-      <c r="B13" s="150" t="e">
+      <c r="B13" s="180" t="e">
         <f ca="1">_xludf.image("http://play.pokemonshowdown.com/sprites/gen5/"&amp;LOWER(B12)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C13" s="147"/>
-      <c r="D13" s="150" t="e">
+      <c r="C13" s="181"/>
+      <c r="D13" s="180" t="e">
         <f ca="1">_xludf.image("http://play.pokemonshowdown.com/sprites/gen5/"&amp;LOWER(D12)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="147"/>
-      <c r="F13" s="150" t="e">
+      <c r="E13" s="181"/>
+      <c r="F13" s="180" t="e">
         <f ca="1">_xludf.image("http://play.pokemonshowdown.com/sprites/gen5/"&amp;LOWER(F12)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G13" s="147"/>
+      <c r="G13" s="181"/>
       <c r="H13" s="51"/>
       <c r="I13" s="42" t="s">
         <v>186</v>
@@ -8012,12 +8008,12 @@
     </row>
     <row r="14" spans="1:24" ht="21">
       <c r="A14" s="30"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="136"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="165"/>
       <c r="H14" s="51"/>
       <c r="I14" s="53" t="s">
         <v>55</v>
@@ -8071,12 +8067,12 @@
     </row>
     <row r="15" spans="1:24" ht="21">
       <c r="A15" s="30"/>
-      <c r="B15" s="151"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="136"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="165"/>
       <c r="H15" s="51"/>
       <c r="I15" s="42" t="s">
         <v>82</v>
@@ -8126,12 +8122,12 @@
     </row>
     <row r="16" spans="1:24" ht="21">
       <c r="A16" s="30"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="136"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="165"/>
       <c r="H16" s="51"/>
       <c r="I16" s="42" t="s">
         <v>189</v>
@@ -8181,15 +8177,15 @@
     </row>
     <row r="17" spans="1:24" ht="21">
       <c r="A17" s="30"/>
-      <c r="B17" s="151"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="136"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="165"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="165"/>
       <c r="H17" s="51"/>
       <c r="I17" s="42" t="s">
-        <v>190</v>
+        <v>478</v>
       </c>
       <c r="J17" s="43"/>
       <c r="K17" s="44" t="e">
@@ -8236,12 +8232,12 @@
     </row>
     <row r="18" spans="1:24" ht="21">
       <c r="A18" s="30"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="136"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="165"/>
       <c r="H18" s="51"/>
       <c r="I18" s="42" t="s">
         <v>62</v>
@@ -8346,17 +8342,17 @@
     </row>
     <row r="20" spans="1:24" ht="21">
       <c r="A20" s="30"/>
-      <c r="B20" s="198" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="134"/>
+      <c r="B20" s="199" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="160"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="51"/>
       <c r="I20" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J20" s="43"/>
       <c r="K20" s="44" t="e">
@@ -8404,14 +8400,14 @@
     <row r="21" spans="1:24" ht="21">
       <c r="A21" s="30"/>
       <c r="B21" s="61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" s="62">
         <f>COUNTIF($G$25:$G67, "B")</f>
         <v>0</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E21" s="62">
         <f>COUNTIF($D$25:$D67, "H")</f>
@@ -8421,7 +8417,7 @@
       <c r="G21" s="30"/>
       <c r="H21" s="51"/>
       <c r="I21" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J21" s="43"/>
       <c r="K21" s="44" t="e">
@@ -8469,14 +8465,14 @@
     <row r="22" spans="1:24" ht="21">
       <c r="A22" s="30"/>
       <c r="B22" s="61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" s="62">
         <f>COUNTIF($G$25:$G67, "M")</f>
         <v>0</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E22" s="62">
         <f>COUNTIF($D$25:$D67, "S")</f>
@@ -8486,7 +8482,7 @@
       <c r="G22" s="30"/>
       <c r="H22" s="51"/>
       <c r="I22" s="53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J22" s="54"/>
       <c r="K22" s="55" t="e">
@@ -8538,14 +8534,14 @@
     <row r="23" spans="1:24" ht="21">
       <c r="A23" s="30"/>
       <c r="B23" s="61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23" s="63">
         <f>COUNTIF($G$25:$G67, "F/S")</f>
         <v>0</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E23" s="62">
         <f>COUNTIF($D$25:$D67, "L")</f>
@@ -8555,7 +8551,7 @@
       <c r="G23" s="30"/>
       <c r="H23" s="51"/>
       <c r="I23" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J23" s="43"/>
       <c r="K23" s="44" t="e">
@@ -8602,23 +8598,23 @@
     </row>
     <row r="24" spans="1:24" ht="21">
       <c r="A24" s="30"/>
-      <c r="B24" s="198" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" s="134"/>
+      <c r="B24" s="199" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="160"/>
       <c r="D24" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="E24" s="198" t="s">
+      <c r="E24" s="199" t="s">
         <v>173</v>
       </c>
-      <c r="F24" s="134"/>
+      <c r="F24" s="160"/>
       <c r="G24" s="64" t="s">
         <v>179</v>
       </c>
       <c r="H24" s="51"/>
       <c r="I24" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J24" s="43"/>
       <c r="K24" s="44" t="e">
@@ -8669,20 +8665,20 @@
         <f>IFERROR(VLOOKUP("D1",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C25" s="194" t="e">
+      <c r="C25" s="200" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B25)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D25" s="195" t="str">
+      <c r="D25" s="196" t="str">
         <f>IFERROR(VLOOKUP("D1",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E25" s="197" t="str">
+      <c r="E25" s="198" t="str">
         <f>IFERROR(VLOOKUP("D1",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F25" s="147"/>
-      <c r="G25" s="195" t="str">
+      <c r="F25" s="181"/>
+      <c r="G25" s="196" t="str">
         <f>IFERROR(VLOOKUP("D1",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -8739,14 +8735,14 @@
         <f>IFERROR(VLOOKUP("D1",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C26" s="139"/>
-      <c r="D26" s="196"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="196"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="195"/>
       <c r="H26" s="51"/>
       <c r="I26" s="53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J26" s="54"/>
       <c r="K26" s="55" t="e">
@@ -8801,26 +8797,26 @@
         <f>IFERROR(VLOOKUP("D2",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C27" s="194" t="e">
+      <c r="C27" s="200" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B27)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D27" s="195" t="str">
+      <c r="D27" s="196" t="str">
         <f>IFERROR(VLOOKUP("D2",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="197" t="str">
+      <c r="E27" s="198" t="str">
         <f>IFERROR(VLOOKUP("D2",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F27" s="147"/>
-      <c r="G27" s="195" t="str">
+      <c r="F27" s="181"/>
+      <c r="G27" s="196" t="str">
         <f>IFERROR(VLOOKUP("D2",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
       <c r="H27" s="51"/>
       <c r="I27" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J27" s="43"/>
       <c r="K27" s="44" t="e">
@@ -8871,14 +8867,14 @@
         <f>IFERROR(VLOOKUP("D2",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C28" s="139"/>
-      <c r="D28" s="196"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="196"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="195"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="195"/>
       <c r="H28" s="51"/>
       <c r="I28" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J28" s="43"/>
       <c r="K28" s="44" t="e">
@@ -8929,20 +8925,20 @@
         <f>IFERROR(VLOOKUP("D3",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C29" s="194" t="e">
+      <c r="C29" s="200" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B29)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D29" s="195" t="str">
+      <c r="D29" s="196" t="str">
         <f>IFERROR(VLOOKUP("D3",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="197" t="str">
+      <c r="E29" s="198" t="str">
         <f>IFERROR(VLOOKUP("D3",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F29" s="147"/>
-      <c r="G29" s="195" t="str">
+      <c r="F29" s="181"/>
+      <c r="G29" s="196" t="str">
         <f>IFERROR(VLOOKUP("D3",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -8999,14 +8995,14 @@
         <f>IFERROR(VLOOKUP("D3",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C30" s="139"/>
-      <c r="D30" s="196"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="196"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="195"/>
       <c r="H30" s="51"/>
       <c r="I30" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J30" s="43"/>
       <c r="K30" s="44" t="e">
@@ -9057,20 +9053,20 @@
         <f>IFERROR(VLOOKUP("D4",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C31" s="194" t="e">
+      <c r="C31" s="200" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B31)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D31" s="195" t="str">
+      <c r="D31" s="196" t="str">
         <f>IFERROR(VLOOKUP("D4",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E31" s="197" t="str">
+      <c r="E31" s="198" t="str">
         <f>IFERROR(VLOOKUP("D4",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F31" s="147"/>
-      <c r="G31" s="195" t="str">
+      <c r="F31" s="181"/>
+      <c r="G31" s="196" t="str">
         <f>IFERROR(VLOOKUP("D4",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -9127,14 +9123,14 @@
         <f>IFERROR(VLOOKUP("D4",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C32" s="139"/>
-      <c r="D32" s="196"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="196"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="195"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="195"/>
       <c r="H32" s="51"/>
       <c r="I32" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J32" s="43"/>
       <c r="K32" s="44" t="e">
@@ -9185,26 +9181,26 @@
         <f>IFERROR(VLOOKUP("D5",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C33" s="194" t="e">
+      <c r="C33" s="200" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B33)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D33" s="195" t="str">
+      <c r="D33" s="196" t="str">
         <f>IFERROR(VLOOKUP("D5",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E33" s="197" t="str">
+      <c r="E33" s="198" t="str">
         <f>IFERROR(VLOOKUP("D5",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F33" s="147"/>
-      <c r="G33" s="195" t="str">
+      <c r="F33" s="181"/>
+      <c r="G33" s="196" t="str">
         <f>IFERROR(VLOOKUP("D5",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
       <c r="H33" s="51"/>
       <c r="I33" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J33" s="43"/>
       <c r="K33" s="44" t="e">
@@ -9255,11 +9251,11 @@
         <f>IFERROR(VLOOKUP("D5",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C34" s="139"/>
-      <c r="D34" s="196"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="196"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="195"/>
       <c r="H34" s="51"/>
       <c r="I34" s="42" t="s">
         <v>103</v>
@@ -9313,26 +9309,26 @@
         <f>IFERROR(VLOOKUP("D6",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C35" s="194" t="e">
+      <c r="C35" s="200" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B35)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D35" s="195" t="str">
+      <c r="D35" s="196" t="str">
         <f>IFERROR(VLOOKUP("D6",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E35" s="197" t="str">
+      <c r="E35" s="198" t="str">
         <f>IFERROR(VLOOKUP("D6",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F35" s="147"/>
-      <c r="G35" s="195" t="str">
+      <c r="F35" s="181"/>
+      <c r="G35" s="196" t="str">
         <f>IFERROR(VLOOKUP("D6",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
       <c r="H35" s="51"/>
       <c r="I35" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J35" s="54"/>
       <c r="K35" s="55" t="e">
@@ -9387,11 +9383,11 @@
         <f>IFERROR(VLOOKUP("D6",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C36" s="139"/>
-      <c r="D36" s="196"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="196"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="139"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="195"/>
       <c r="H36" s="51"/>
       <c r="I36" s="42" t="s">
         <v>108</v>
@@ -9445,26 +9441,26 @@
         <f>IFERROR(VLOOKUP("D7",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C37" s="194" t="e">
+      <c r="C37" s="200" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B37)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D37" s="195" t="str">
+      <c r="D37" s="196" t="str">
         <f>IFERROR(VLOOKUP("D7",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E37" s="197" t="str">
+      <c r="E37" s="198" t="str">
         <f>IFERROR(VLOOKUP("D7",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F37" s="147"/>
-      <c r="G37" s="195" t="str">
+      <c r="F37" s="181"/>
+      <c r="G37" s="196" t="str">
         <f>IFERROR(VLOOKUP("D7",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
       <c r="H37" s="51"/>
       <c r="I37" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J37" s="54"/>
       <c r="K37" s="55" t="e">
@@ -9519,11 +9515,11 @@
         <f>IFERROR(VLOOKUP("D7",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C38" s="139"/>
-      <c r="D38" s="196"/>
-      <c r="E38" s="159"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="196"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="195"/>
+      <c r="E38" s="139"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="195"/>
       <c r="H38" s="51"/>
       <c r="I38" s="42" t="s">
         <v>123</v>
@@ -9577,20 +9573,20 @@
         <f>IFERROR(VLOOKUP("D8",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C39" s="194" t="e">
+      <c r="C39" s="200" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B39)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D39" s="195" t="str">
+      <c r="D39" s="196" t="str">
         <f>IFERROR(VLOOKUP("D8",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E39" s="197" t="str">
+      <c r="E39" s="198" t="str">
         <f>IFERROR(VLOOKUP("D8",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F39" s="147"/>
-      <c r="G39" s="195" t="str">
+      <c r="F39" s="181"/>
+      <c r="G39" s="196" t="str">
         <f>IFERROR(VLOOKUP("D8",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -9647,14 +9643,14 @@
         <f>IFERROR(VLOOKUP("D8",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C40" s="139"/>
-      <c r="D40" s="196"/>
-      <c r="E40" s="159"/>
-      <c r="F40" s="139"/>
-      <c r="G40" s="196"/>
+      <c r="C40" s="167"/>
+      <c r="D40" s="195"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="167"/>
+      <c r="G40" s="195"/>
       <c r="H40" s="51"/>
       <c r="I40" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J40" s="43"/>
       <c r="K40" s="44" t="e">
@@ -9705,26 +9701,26 @@
         <f>IFERROR(VLOOKUP("D9",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C41" s="194" t="e">
+      <c r="C41" s="200" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B41)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D41" s="195" t="str">
+      <c r="D41" s="196" t="str">
         <f>IFERROR(VLOOKUP("D9",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E41" s="197" t="str">
+      <c r="E41" s="198" t="str">
         <f>IFERROR(VLOOKUP("D9",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F41" s="147"/>
-      <c r="G41" s="195" t="str">
+      <c r="F41" s="181"/>
+      <c r="G41" s="196" t="str">
         <f>IFERROR(VLOOKUP("D9",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
       <c r="H41" s="51"/>
       <c r="I41" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J41" s="43"/>
       <c r="K41" s="44" t="e">
@@ -9775,14 +9771,14 @@
         <f>IFERROR(VLOOKUP("D9",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C42" s="139"/>
-      <c r="D42" s="196"/>
-      <c r="E42" s="159"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="196"/>
+      <c r="C42" s="167"/>
+      <c r="D42" s="195"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="167"/>
+      <c r="G42" s="195"/>
       <c r="H42" s="51"/>
       <c r="I42" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J42" s="43"/>
       <c r="K42" s="44" t="e">
@@ -9833,26 +9829,26 @@
         <f>IFERROR(VLOOKUP("D10",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C43" s="194" t="e">
+      <c r="C43" s="200" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B43)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D43" s="195" t="str">
+      <c r="D43" s="196" t="str">
         <f>IFERROR(VLOOKUP("D10",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E43" s="197" t="str">
+      <c r="E43" s="198" t="str">
         <f>IFERROR(VLOOKUP("D10",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F43" s="147"/>
-      <c r="G43" s="195" t="str">
+      <c r="F43" s="181"/>
+      <c r="G43" s="196" t="str">
         <f>IFERROR(VLOOKUP("D10",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
       <c r="H43" s="51"/>
       <c r="I43" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J43" s="43"/>
       <c r="K43" s="44" t="e">
@@ -9903,14 +9899,14 @@
         <f>IFERROR(VLOOKUP("D10",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C44" s="139"/>
-      <c r="D44" s="196"/>
-      <c r="E44" s="159"/>
-      <c r="F44" s="139"/>
-      <c r="G44" s="196"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="195"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="167"/>
+      <c r="G44" s="195"/>
       <c r="H44" s="51"/>
       <c r="I44" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J44" s="43"/>
       <c r="K44" s="44" t="e">
@@ -9961,26 +9957,26 @@
         <f>IFERROR(VLOOKUP("D11",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C45" s="194" t="e">
+      <c r="C45" s="200" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B45)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D45" s="195" t="str">
+      <c r="D45" s="196" t="str">
         <f>IFERROR(VLOOKUP("D11",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E45" s="197" t="str">
+      <c r="E45" s="198" t="str">
         <f>IFERROR(VLOOKUP("D11",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F45" s="147"/>
-      <c r="G45" s="195" t="str">
+      <c r="F45" s="181"/>
+      <c r="G45" s="196" t="str">
         <f>IFERROR(VLOOKUP("D11",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
       <c r="H45" s="51"/>
       <c r="I45" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J45" s="43"/>
       <c r="K45" s="44" t="e">
@@ -10031,14 +10027,14 @@
         <f>IFERROR(VLOOKUP("D11",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C46" s="139"/>
-      <c r="D46" s="196"/>
-      <c r="E46" s="159"/>
-      <c r="F46" s="139"/>
-      <c r="G46" s="196"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="195"/>
+      <c r="E46" s="139"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="195"/>
       <c r="H46" s="51"/>
       <c r="I46" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J46" s="43"/>
       <c r="K46" s="44" t="e">
@@ -10089,20 +10085,20 @@
         <f>IFERROR(VLOOKUP("D12",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C47" s="194" t="e">
+      <c r="C47" s="200" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B47)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D47" s="195" t="str">
+      <c r="D47" s="196" t="str">
         <f>IFERROR(VLOOKUP("D12",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E47" s="197" t="str">
+      <c r="E47" s="198" t="str">
         <f>IFERROR(VLOOKUP("D12",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F47" s="147"/>
-      <c r="G47" s="195" t="str">
+      <c r="F47" s="181"/>
+      <c r="G47" s="196" t="str">
         <f>IFERROR(VLOOKUP("D12",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -10159,14 +10155,14 @@
         <f>IFERROR(VLOOKUP("D12",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C48" s="139"/>
-      <c r="D48" s="196"/>
-      <c r="E48" s="159"/>
-      <c r="F48" s="139"/>
-      <c r="G48" s="196"/>
+      <c r="C48" s="167"/>
+      <c r="D48" s="195"/>
+      <c r="E48" s="139"/>
+      <c r="F48" s="167"/>
+      <c r="G48" s="195"/>
       <c r="H48" s="51"/>
       <c r="I48" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J48" s="43"/>
       <c r="K48" s="44" t="e">
@@ -10217,26 +10213,26 @@
         <f>IFERROR(VLOOKUP("D13",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C49" s="194" t="e">
+      <c r="C49" s="200" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B49)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D49" s="195" t="str">
+      <c r="D49" s="196" t="str">
         <f>IFERROR(VLOOKUP("D13",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E49" s="197" t="str">
+      <c r="E49" s="198" t="str">
         <f>IFERROR(VLOOKUP("D13",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F49" s="147"/>
-      <c r="G49" s="195" t="str">
+      <c r="F49" s="181"/>
+      <c r="G49" s="196" t="str">
         <f>IFERROR(VLOOKUP("D13",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
       <c r="H49" s="51"/>
       <c r="I49" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J49" s="43"/>
       <c r="K49" s="44" t="e">
@@ -10287,14 +10283,14 @@
         <f>IFERROR(VLOOKUP("D13",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C50" s="139"/>
-      <c r="D50" s="196"/>
-      <c r="E50" s="159"/>
-      <c r="F50" s="139"/>
-      <c r="G50" s="196"/>
+      <c r="C50" s="167"/>
+      <c r="D50" s="195"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="167"/>
+      <c r="G50" s="195"/>
       <c r="H50" s="51"/>
       <c r="I50" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J50" s="43"/>
       <c r="K50" s="44" t="e">
@@ -10345,26 +10341,26 @@
         <f>IFERROR(VLOOKUP("D14",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C51" s="194" t="e">
+      <c r="C51" s="200" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B51)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D51" s="195" t="str">
+      <c r="D51" s="196" t="str">
         <f>IFERROR(VLOOKUP("D14",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E51" s="197" t="str">
+      <c r="E51" s="198" t="str">
         <f>IFERROR(VLOOKUP("D14",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F51" s="147"/>
-      <c r="G51" s="195" t="str">
+      <c r="F51" s="181"/>
+      <c r="G51" s="196" t="str">
         <f>IFERROR(VLOOKUP("D14",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
       <c r="H51" s="51"/>
       <c r="I51" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J51" s="43"/>
       <c r="K51" s="44" t="e">
@@ -10415,14 +10411,14 @@
         <f>IFERROR(VLOOKUP("D14",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C52" s="139"/>
-      <c r="D52" s="196"/>
-      <c r="E52" s="159"/>
-      <c r="F52" s="139"/>
-      <c r="G52" s="196"/>
+      <c r="C52" s="167"/>
+      <c r="D52" s="195"/>
+      <c r="E52" s="139"/>
+      <c r="F52" s="167"/>
+      <c r="G52" s="195"/>
       <c r="H52" s="51"/>
       <c r="I52" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J52" s="43"/>
       <c r="K52" s="44" t="e">
@@ -10473,26 +10469,26 @@
         <f>IFERROR(VLOOKUP("D15",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C53" s="194" t="e">
+      <c r="C53" s="200" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B53)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D53" s="195" t="str">
+      <c r="D53" s="196" t="str">
         <f>IFERROR(VLOOKUP("D15",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E53" s="197" t="str">
+      <c r="E53" s="198" t="str">
         <f>IFERROR(VLOOKUP("D15",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F53" s="147"/>
-      <c r="G53" s="195" t="str">
+      <c r="F53" s="181"/>
+      <c r="G53" s="196" t="str">
         <f>IFERROR(VLOOKUP("D15",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
       <c r="H53" s="51"/>
       <c r="I53" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J53" s="43"/>
       <c r="K53" s="44" t="e">
@@ -10543,11 +10539,11 @@
         <f>IFERROR(VLOOKUP("D15",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C54" s="139"/>
-      <c r="D54" s="196"/>
-      <c r="E54" s="159"/>
-      <c r="F54" s="139"/>
-      <c r="G54" s="196"/>
+      <c r="C54" s="167"/>
+      <c r="D54" s="195"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="167"/>
+      <c r="G54" s="195"/>
       <c r="H54" s="51"/>
       <c r="I54" s="42" t="s">
         <v>137</v>
@@ -10601,26 +10597,26 @@
         <f>IFERROR(VLOOKUP("D16",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C55" s="194" t="e">
+      <c r="C55" s="200" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B55)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D55" s="195" t="str">
+      <c r="D55" s="196" t="str">
         <f>IFERROR(VLOOKUP("D16",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E55" s="197" t="str">
+      <c r="E55" s="198" t="str">
         <f>IFERROR(VLOOKUP("D16",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F55" s="147"/>
-      <c r="G55" s="195" t="str">
+      <c r="F55" s="181"/>
+      <c r="G55" s="196" t="str">
         <f>IFERROR(VLOOKUP("D16",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
       <c r="H55" s="51"/>
       <c r="I55" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J55" s="43"/>
       <c r="K55" s="44" t="e">
@@ -10671,14 +10667,14 @@
         <f>IFERROR(VLOOKUP("D16",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C56" s="139"/>
-      <c r="D56" s="196"/>
-      <c r="E56" s="159"/>
-      <c r="F56" s="139"/>
-      <c r="G56" s="196"/>
+      <c r="C56" s="167"/>
+      <c r="D56" s="195"/>
+      <c r="E56" s="139"/>
+      <c r="F56" s="167"/>
+      <c r="G56" s="195"/>
       <c r="H56" s="51"/>
       <c r="I56" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J56" s="43"/>
       <c r="K56" s="44" t="e">
@@ -10729,26 +10725,26 @@
         <f>IFERROR(VLOOKUP("D17",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C57" s="194" t="e">
+      <c r="C57" s="200" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B57)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D57" s="195" t="str">
+      <c r="D57" s="196" t="str">
         <f>IFERROR(VLOOKUP("D17",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E57" s="197" t="str">
+      <c r="E57" s="198" t="str">
         <f>IFERROR(VLOOKUP("D17",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F57" s="147"/>
-      <c r="G57" s="195" t="str">
+      <c r="F57" s="181"/>
+      <c r="G57" s="196" t="str">
         <f>IFERROR(VLOOKUP("D17",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
       <c r="H57" s="51"/>
       <c r="I57" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J57" s="43"/>
       <c r="K57" s="44" t="e">
@@ -10799,11 +10795,11 @@
         <f>IFERROR(VLOOKUP("D17",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C58" s="139"/>
-      <c r="D58" s="196"/>
-      <c r="E58" s="159"/>
-      <c r="F58" s="139"/>
-      <c r="G58" s="196"/>
+      <c r="C58" s="167"/>
+      <c r="D58" s="195"/>
+      <c r="E58" s="139"/>
+      <c r="F58" s="167"/>
+      <c r="G58" s="195"/>
       <c r="H58" s="51"/>
       <c r="I58" s="42" t="s">
         <v>134</v>
@@ -10857,26 +10853,26 @@
         <f>IFERROR(VLOOKUP("D18",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C59" s="194" t="e">
+      <c r="C59" s="200" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B59)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D59" s="195" t="str">
+      <c r="D59" s="196" t="str">
         <f>IFERROR(VLOOKUP("D18",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E59" s="197" t="str">
+      <c r="E59" s="198" t="str">
         <f>IFERROR(VLOOKUP("D18",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F59" s="147"/>
-      <c r="G59" s="195" t="str">
+      <c r="F59" s="181"/>
+      <c r="G59" s="196" t="str">
         <f>IFERROR(VLOOKUP("D18",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
       <c r="H59" s="51"/>
       <c r="I59" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J59" s="43"/>
       <c r="K59" s="44" t="e">
@@ -10927,11 +10923,11 @@
         <f>IFERROR(VLOOKUP("D18",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C60" s="139"/>
-      <c r="D60" s="196"/>
-      <c r="E60" s="159"/>
-      <c r="F60" s="139"/>
-      <c r="G60" s="196"/>
+      <c r="C60" s="167"/>
+      <c r="D60" s="195"/>
+      <c r="E60" s="139"/>
+      <c r="F60" s="167"/>
+      <c r="G60" s="195"/>
       <c r="H60" s="51"/>
       <c r="I60" s="42" t="s">
         <v>144</v>
@@ -10985,26 +10981,26 @@
         <f>IFERROR(VLOOKUP("D19",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C61" s="194" t="e">
+      <c r="C61" s="200" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B61)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D61" s="195" t="str">
+      <c r="D61" s="196" t="str">
         <f>IFERROR(VLOOKUP("D19",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E61" s="197" t="str">
+      <c r="E61" s="198" t="str">
         <f>IFERROR(VLOOKUP("D19",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F61" s="147"/>
-      <c r="G61" s="195" t="str">
+      <c r="F61" s="181"/>
+      <c r="G61" s="196" t="str">
         <f>IFERROR(VLOOKUP("D19",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
       <c r="H61" s="51"/>
       <c r="I61" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J61" s="43"/>
       <c r="K61" s="44" t="e">
@@ -11055,14 +11051,14 @@
         <f>IFERROR(VLOOKUP("D19",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C62" s="139"/>
-      <c r="D62" s="196"/>
-      <c r="E62" s="159"/>
-      <c r="F62" s="139"/>
-      <c r="G62" s="196"/>
+      <c r="C62" s="167"/>
+      <c r="D62" s="195"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="167"/>
+      <c r="G62" s="195"/>
       <c r="H62" s="51"/>
       <c r="I62" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J62" s="43"/>
       <c r="K62" s="44" t="e">
@@ -11113,20 +11109,20 @@
         <f>IFERROR(VLOOKUP("D20",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C63" s="194" t="e">
+      <c r="C63" s="200" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B63)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D63" s="195" t="str">
+      <c r="D63" s="196" t="str">
         <f>IFERROR(VLOOKUP("D20",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E63" s="197" t="str">
+      <c r="E63" s="198" t="str">
         <f>IFERROR(VLOOKUP("D20",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F63" s="147"/>
-      <c r="G63" s="195" t="str">
+      <c r="F63" s="181"/>
+      <c r="G63" s="196" t="str">
         <f>IFERROR(VLOOKUP("D20",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -11183,14 +11179,14 @@
         <f>IFERROR(VLOOKUP("D20",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C64" s="139"/>
-      <c r="D64" s="196"/>
-      <c r="E64" s="159"/>
-      <c r="F64" s="139"/>
-      <c r="G64" s="196"/>
+      <c r="C64" s="167"/>
+      <c r="D64" s="195"/>
+      <c r="E64" s="139"/>
+      <c r="F64" s="167"/>
+      <c r="G64" s="195"/>
       <c r="H64" s="51"/>
       <c r="I64" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J64" s="43"/>
       <c r="K64" s="44" t="e">
@@ -11363,63 +11359,30 @@
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="B6:C11"/>
-    <mergeCell ref="D6:E11"/>
-    <mergeCell ref="F6:G11"/>
-    <mergeCell ref="B13:C18"/>
-    <mergeCell ref="D13:E18"/>
-    <mergeCell ref="F13:G18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="E55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="E63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:F50"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:F52"/>
+    <mergeCell ref="G51:G52"/>
     <mergeCell ref="E33:F34"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="E35:F36"/>
@@ -11444,30 +11407,63 @@
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="E57:F58"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="E55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="E63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:F50"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:F52"/>
-    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B13:C18"/>
+    <mergeCell ref="D13:E18"/>
+    <mergeCell ref="F13:G18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="B6:C11"/>
+    <mergeCell ref="D6:E11"/>
+    <mergeCell ref="F6:G11"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <conditionalFormatting sqref="N5:N67">
     <cfRule type="expression" dxfId="3" priority="1">
@@ -11653,13 +11649,13 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="76" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="F2" s="76" t="s">
         <v>233</v>
-      </c>
-      <c r="F2" s="76" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="3" spans="2:11">
@@ -11667,1537 +11663,1537 @@
         <v>182</v>
       </c>
       <c r="C3" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="E3" s="76" t="s">
         <v>236</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="F3" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="G3" s="76" t="s">
         <v>238</v>
-      </c>
-      <c r="G3" s="76" t="s">
-        <v>239</v>
       </c>
       <c r="J3" s="76" t="s">
         <v>182</v>
       </c>
       <c r="K3" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="76" t="s">
+      <c r="E4" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="E4" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F4" s="76" t="s">
-        <v>242</v>
-      </c>
       <c r="G4" s="76" t="s">
+        <v>238</v>
+      </c>
+      <c r="J4" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="J4" s="76" t="s">
-        <v>240</v>
-      </c>
       <c r="K4" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="76" t="s">
+      <c r="E5" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F5" s="76" t="s">
-        <v>245</v>
-      </c>
       <c r="G5" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J5" s="76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K5" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" s="76" t="s">
+      <c r="E6" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="76" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F6" s="76" t="s">
-        <v>248</v>
-      </c>
       <c r="G6" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J6" s="76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K6" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="76" t="s">
         <v>249</v>
       </c>
-      <c r="C7" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" s="76" t="s">
+      <c r="E7" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" s="76" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F7" s="76" t="s">
-        <v>251</v>
-      </c>
       <c r="G7" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J7" s="76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K7" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="76" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D8" s="76" t="s">
+      <c r="E8" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="76" t="s">
         <v>253</v>
       </c>
-      <c r="E8" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>254</v>
-      </c>
       <c r="G8" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J8" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K8" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="76" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="76" t="s">
         <v>255</v>
       </c>
-      <c r="C9" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9" s="76" t="s">
+      <c r="E9" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F9" s="76" t="s">
         <v>256</v>
       </c>
-      <c r="E9" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F9" s="76" t="s">
-        <v>257</v>
-      </c>
       <c r="G9" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J9" s="76" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K9" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="76" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D10" s="76" t="s">
+      <c r="E10" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="76" t="s">
         <v>259</v>
       </c>
-      <c r="E10" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F10" s="76" t="s">
-        <v>260</v>
-      </c>
       <c r="G10" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J10" s="76" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K10" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="76" t="s">
         <v>261</v>
       </c>
-      <c r="C11" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="76" t="s">
+      <c r="E11" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="76" t="s">
         <v>262</v>
       </c>
-      <c r="E11" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F11" s="76" t="s">
-        <v>263</v>
-      </c>
       <c r="G11" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J11" s="76" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K11" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="76" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="76" t="s">
         <v>264</v>
       </c>
-      <c r="C12" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="76" t="s">
+      <c r="E12" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F12" s="76" t="s">
         <v>265</v>
       </c>
-      <c r="E12" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F12" s="76" t="s">
-        <v>266</v>
-      </c>
       <c r="G12" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J12" s="76" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K12" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="76" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="76" t="s">
+      <c r="E13" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="76" t="s">
         <v>268</v>
       </c>
-      <c r="E13" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F13" s="76" t="s">
-        <v>269</v>
-      </c>
       <c r="G13" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J13" s="76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K13" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="76" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="76" t="s">
         <v>270</v>
       </c>
-      <c r="C14" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="E14" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F14" s="76" t="s">
-        <v>271</v>
-      </c>
       <c r="G14" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J14" s="76" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K14" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="C15" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="76" t="s">
         <v>272</v>
       </c>
-      <c r="C15" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="E15" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F15" s="76" t="s">
-        <v>273</v>
-      </c>
       <c r="G15" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J15" s="76" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K15" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="76" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" s="76" t="s">
         <v>274</v>
       </c>
-      <c r="C16" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="E16" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F16" s="76" t="s">
-        <v>275</v>
-      </c>
       <c r="G16" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J16" s="76" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K16" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F17" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="C17" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="E17" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F17" s="76" t="s">
-        <v>277</v>
-      </c>
       <c r="G17" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J17" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K17" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F18" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="C18" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F18" s="76" t="s">
-        <v>279</v>
-      </c>
       <c r="G18" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J18" s="76" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K18" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="76" t="s">
         <v>280</v>
       </c>
-      <c r="C19" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F19" s="76" t="s">
-        <v>281</v>
-      </c>
       <c r="G19" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J19" s="76" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K19" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="76" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="C20" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F20" s="76" t="s">
-        <v>283</v>
-      </c>
       <c r="G20" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J20" s="76" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K20" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F21" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="C21" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F21" s="76" t="s">
-        <v>285</v>
-      </c>
       <c r="G21" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J21" s="76" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K21" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="76" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="C22" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F22" s="76" t="s">
-        <v>287</v>
-      </c>
       <c r="G22" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J22" s="76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K22" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F23" s="76" t="s">
         <v>288</v>
       </c>
-      <c r="C23" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F23" s="76" t="s">
-        <v>289</v>
-      </c>
       <c r="G23" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J23" s="76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K23" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="76" t="s">
         <v>290</v>
       </c>
-      <c r="C24" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F24" s="76" t="s">
-        <v>291</v>
-      </c>
       <c r="G24" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J24" s="76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K24" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="76" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="76" t="s">
         <v>292</v>
       </c>
-      <c r="C25" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F25" s="76" t="s">
-        <v>293</v>
-      </c>
       <c r="G25" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J25" s="76" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K25" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="76" t="s">
         <v>294</v>
       </c>
-      <c r="C26" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F26" s="76" t="s">
-        <v>295</v>
-      </c>
       <c r="G26" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J26" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K26" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="C27" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F27" s="76" t="s">
         <v>296</v>
       </c>
-      <c r="C27" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F27" s="76" t="s">
-        <v>297</v>
-      </c>
       <c r="G27" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J27" s="76" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K27" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="76" t="s">
+        <v>297</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F28" s="76" t="s">
         <v>298</v>
       </c>
-      <c r="C28" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F28" s="76" t="s">
-        <v>299</v>
-      </c>
       <c r="G28" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J28" s="76" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K28" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="76" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="76" t="s">
         <v>300</v>
       </c>
-      <c r="C29" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F29" s="76" t="s">
-        <v>301</v>
-      </c>
       <c r="G29" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J29" s="76" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K29" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F30" s="76" t="s">
         <v>302</v>
       </c>
-      <c r="C30" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F30" s="76" t="s">
-        <v>303</v>
-      </c>
       <c r="G30" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J30" s="76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K30" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="76" t="s">
+        <v>303</v>
+      </c>
+      <c r="C31" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="C31" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F31" s="76" t="s">
-        <v>305</v>
-      </c>
       <c r="G31" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J31" s="76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K31" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="76" t="s">
+        <v>305</v>
+      </c>
+      <c r="C32" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F32" s="76" t="s">
         <v>306</v>
       </c>
-      <c r="C32" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F32" s="76" t="s">
-        <v>307</v>
-      </c>
       <c r="G32" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J32" s="76" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K32" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="76" t="s">
+        <v>307</v>
+      </c>
+      <c r="C33" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" s="76" t="s">
         <v>308</v>
       </c>
-      <c r="C33" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F33" s="76" t="s">
-        <v>309</v>
-      </c>
       <c r="G33" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J33" s="76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K33" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="76" t="s">
+        <v>309</v>
+      </c>
+      <c r="C34" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F34" s="76" t="s">
         <v>310</v>
       </c>
-      <c r="C34" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F34" s="76" t="s">
-        <v>311</v>
-      </c>
       <c r="G34" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J34" s="76" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K34" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="76" t="s">
+        <v>311</v>
+      </c>
+      <c r="C35" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F35" s="76" t="s">
         <v>312</v>
       </c>
-      <c r="C35" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F35" s="76" t="s">
-        <v>313</v>
-      </c>
       <c r="G35" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J35" s="76" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K35" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="76" t="s">
+        <v>313</v>
+      </c>
+      <c r="C36" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F36" s="76" t="s">
         <v>314</v>
       </c>
-      <c r="C36" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F36" s="76" t="s">
-        <v>315</v>
-      </c>
       <c r="G36" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J36" s="76" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K36" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="76" t="s">
+        <v>315</v>
+      </c>
+      <c r="C37" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37" s="76" t="s">
         <v>316</v>
       </c>
-      <c r="C37" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F37" s="76" t="s">
-        <v>317</v>
-      </c>
       <c r="G37" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J37" s="76" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K37" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="76" t="s">
+        <v>317</v>
+      </c>
+      <c r="C38" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F38" s="76" t="s">
         <v>318</v>
       </c>
-      <c r="C38" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F38" s="76" t="s">
-        <v>319</v>
-      </c>
       <c r="G38" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J38" s="76" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K38" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="76" t="s">
+        <v>319</v>
+      </c>
+      <c r="C39" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F39" s="76" t="s">
         <v>320</v>
       </c>
-      <c r="C39" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F39" s="76" t="s">
-        <v>321</v>
-      </c>
       <c r="G39" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J39" s="76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K39" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="76" t="s">
+        <v>321</v>
+      </c>
+      <c r="C40" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F40" s="76" t="s">
         <v>322</v>
       </c>
-      <c r="C40" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F40" s="76" t="s">
-        <v>323</v>
-      </c>
       <c r="G40" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J40" s="76" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K40" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="76" t="s">
+        <v>323</v>
+      </c>
+      <c r="C41" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F41" s="76" t="s">
         <v>324</v>
       </c>
-      <c r="C41" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F41" s="76" t="s">
-        <v>325</v>
-      </c>
       <c r="G41" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J41" s="76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K41" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="C42" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="76" t="s">
         <v>326</v>
       </c>
-      <c r="C42" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F42" s="76" t="s">
-        <v>327</v>
-      </c>
       <c r="G42" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J42" s="76" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K42" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="76" t="s">
+        <v>327</v>
+      </c>
+      <c r="C43" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F43" s="76" t="s">
         <v>328</v>
       </c>
-      <c r="C43" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F43" s="76" t="s">
-        <v>329</v>
-      </c>
       <c r="G43" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J43" s="76" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K43" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="2:11">
       <c r="C44" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F44" s="76" t="s">
+        <v>329</v>
+      </c>
+      <c r="G44" s="76" t="s">
+        <v>238</v>
+      </c>
+      <c r="J44" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="F44" s="76" t="s">
-        <v>330</v>
-      </c>
-      <c r="G44" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="J44" s="76" t="s">
+      <c r="K44" s="76" t="s">
         <v>236</v>
-      </c>
-      <c r="K44" s="76" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="45" spans="2:11">
       <c r="C45" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F45" s="76" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G45" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J45" s="76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K45" s="76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="2:11">
       <c r="C46" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F46" s="76" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G46" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J46" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K46" s="76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="C47" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F47" s="76" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G47" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J47" s="76" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K47" s="76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="2:11">
       <c r="C48" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F48" s="76" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G48" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J48" s="76" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K48" s="76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F49" s="76" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G49" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J49" s="76" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K49" s="76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="3:11">
       <c r="C50" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F50" s="76" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G50" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J50" s="76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K50" s="76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="3:11">
       <c r="C51" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G51" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J51" s="76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K51" s="76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="3:11">
       <c r="C52" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G52" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J52" s="76" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K52" s="76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="3:11">
       <c r="C53" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G53" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J53" s="76" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K53" s="76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="3:11">
       <c r="C54" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G54" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J54" s="76" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K54" s="76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="3:11">
       <c r="C55" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G55" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J55" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="K55" s="76" t="s">
         <v>238</v>
-      </c>
-      <c r="K55" s="76" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="56" spans="3:11">
       <c r="C56" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G56" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J56" s="76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K56" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="3:11">
       <c r="G57" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J57" s="76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K57" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="3:11">
       <c r="G58" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J58" s="76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K58" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="3:11">
       <c r="G59" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J59" s="76" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K59" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="3:11">
       <c r="G60" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J60" s="76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K60" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="3:11">
       <c r="G61" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J61" s="76" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K61" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="3:11">
       <c r="G62" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J62" s="76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K62" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="3:11">
       <c r="G63" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J63" s="76" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K63" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="3:11">
       <c r="G64" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J64" s="76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K64" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="7:11">
       <c r="G65" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J65" s="76" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K65" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="7:11">
       <c r="G66" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J66" s="76" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K66" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="7:11">
       <c r="G67" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J67" s="76" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K67" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="7:11">
       <c r="G68" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J68" s="76" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K68" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="7:11">
       <c r="G69" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J69" s="76" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K69" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="7:11">
       <c r="G70" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J70" s="76" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K70" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="7:11">
       <c r="G71" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J71" s="76" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K71" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="7:11">
       <c r="G72" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J72" s="76" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K72" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="7:11">
       <c r="G73" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J73" s="76" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K73" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="7:11">
       <c r="G74" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J74" s="76" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K74" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="7:11">
       <c r="G75" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J75" s="76" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K75" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="7:11">
       <c r="G76" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J76" s="76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K76" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="7:11">
       <c r="G77" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J77" s="76" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K77" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="7:11">
       <c r="G78" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J78" s="76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K78" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="7:11">
       <c r="J79" s="76" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K79" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="7:11">
       <c r="J80" s="76" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K80" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="10:11">
       <c r="J81" s="76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K81" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="10:11">
       <c r="J82" s="76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K82" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="10:11">
       <c r="J83" s="76" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K83" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="10:11">
       <c r="J84" s="76" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K84" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="10:11">
       <c r="J85" s="76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K85" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="10:11">
       <c r="J86" s="76" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K86" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="10:11">
       <c r="J87" s="76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K87" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="10:11">
       <c r="J88" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K88" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="10:11">
       <c r="J89" s="76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K89" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="10:11">
       <c r="J90" s="76" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K90" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="10:11">
       <c r="J91" s="76" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K91" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="10:11">
       <c r="J92" s="76" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K92" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="10:11">
       <c r="J93" s="76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K93" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="10:11">
       <c r="J94" s="76" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K94" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="10:11">
       <c r="J95" s="76" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K95" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="10:11">
       <c r="J96" s="76" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K96" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97" spans="10:11">
       <c r="J97" s="76" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K97" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="10:11">
       <c r="J98" s="76" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K98" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="10:11">
       <c r="J99" s="76" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K99" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="10:11">
       <c r="J100" s="76" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K100" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="10:11">
       <c r="J101" s="76" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K101" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="10:11">
       <c r="J102" s="76" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K102" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -13223,35 +13219,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="201" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="174"/>
+      <c r="C1" s="202" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="213" t="s">
-        <v>338</v>
-      </c>
-      <c r="D1" s="221">
+      <c r="D1" s="205">
         <f>SUM(B6:B13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="148"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="217"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="206"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="148"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="214"/>
-      <c r="D3" s="217"/>
+      <c r="A3" s="175"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="206"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="130"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="218"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="207"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="77"/>
@@ -13261,101 +13257,101 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="79" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B6" s="80">
         <f>C56</f>
         <v>0</v>
       </c>
-      <c r="C6" s="213" t="s">
-        <v>340</v>
-      </c>
-      <c r="D6" s="221" t="str">
+      <c r="C6" s="202" t="s">
+        <v>339</v>
+      </c>
+      <c r="D6" s="205" t="str">
         <f>IF(B18="YES", "YES", "NO")</f>
         <v>NO</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="81" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B7" s="82">
         <f>C65</f>
         <v>0</v>
       </c>
-      <c r="C7" s="214"/>
-      <c r="D7" s="217"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="206"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="83" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B8" s="60">
         <f>C16</f>
         <v>0</v>
       </c>
-      <c r="C8" s="214"/>
-      <c r="D8" s="217"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="206"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="83" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B9" s="60">
         <f>C25</f>
         <v>0</v>
       </c>
-      <c r="C9" s="215"/>
-      <c r="D9" s="218"/>
+      <c r="C9" s="204"/>
+      <c r="D9" s="207"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="83" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B10" s="60">
         <f>C32</f>
         <v>0</v>
       </c>
-      <c r="C10" s="213" t="s">
-        <v>345</v>
-      </c>
-      <c r="D10" s="216">
+      <c r="C10" s="202" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="211">
         <f>IF(D6="YES",(D1*1.5),D1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="83" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B11" s="60">
         <f>C42</f>
         <v>0</v>
       </c>
-      <c r="C11" s="214"/>
-      <c r="D11" s="217"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="206"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="83" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B12" s="60">
         <f>C47</f>
         <v>0</v>
       </c>
-      <c r="C12" s="214"/>
-      <c r="D12" s="217"/>
+      <c r="C12" s="203"/>
+      <c r="D12" s="206"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="84" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B13" s="85">
         <f>C53</f>
         <v>0</v>
       </c>
-      <c r="C13" s="215"/>
-      <c r="D13" s="218"/>
+      <c r="C13" s="204"/>
+      <c r="D13" s="207"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="77"/>
@@ -13364,12 +13360,12 @@
       <c r="D14" s="78"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="201" t="s">
-        <v>349</v>
-      </c>
-      <c r="B15" s="202"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="203"/>
+      <c r="A15" s="208" t="s">
+        <v>348</v>
+      </c>
+      <c r="B15" s="209"/>
+      <c r="C15" s="209"/>
+      <c r="D15" s="210"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="86" t="s">
@@ -13379,11 +13375,11 @@
         <f>IF(Tracker!C12=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C16" s="219">
+      <c r="C16" s="212">
         <f>B16+B17+IF(OR(B19="YES",B20="YES",B21="YES",B22="YES"),100)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="129"/>
+      <c r="D16" s="174"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="86" t="s">
@@ -13393,63 +13389,63 @@
         <f>IF(Tracker!C13=TRUE, "200", "0")</f>
         <v>0</v>
       </c>
-      <c r="C17" s="148"/>
-      <c r="D17" s="154"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="138"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="88" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B18" s="89" t="str">
         <f>IF(Tracker!C14=TRUE, "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="C18" s="148"/>
-      <c r="D18" s="154"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="138"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="88" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B19" s="89" t="str">
         <f>IF(Tracker!C15=TRUE, "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="C19" s="148"/>
-      <c r="D19" s="154"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="138"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="88" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B20" s="89" t="str">
         <f>IF(Tracker!C16=TRUE, "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="154"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="138"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="88" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B21" s="89" t="str">
         <f>IF(Tracker!C17=TRUE, "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="C21" s="148"/>
-      <c r="D21" s="154"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="138"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="88" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B22" s="89" t="str">
         <f>IF(Tracker!C18=TRUE, "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="C22" s="130"/>
-      <c r="D22" s="132"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="145"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="77"/>
@@ -13458,70 +13454,70 @@
       <c r="D23" s="78"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="201" t="s">
+      <c r="A24" s="208" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="202"/>
-      <c r="C24" s="202"/>
-      <c r="D24" s="203"/>
+      <c r="B24" s="209"/>
+      <c r="C24" s="209"/>
+      <c r="D24" s="210"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="90" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B25" s="91" t="str">
         <f>IF(Tracker!C21=TRUE, "40", "0")</f>
         <v>0</v>
       </c>
-      <c r="C25" s="210">
+      <c r="C25" s="213">
         <f>B25+B26+B27+B28+B29</f>
         <v>0</v>
       </c>
-      <c r="D25" s="129"/>
+      <c r="D25" s="174"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="90" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B26" s="91" t="str">
         <f>IF(Tracker!C22=TRUE, "40", "0")</f>
         <v>0</v>
       </c>
-      <c r="C26" s="148"/>
-      <c r="D26" s="154"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="138"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="92" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B27" s="91" t="str">
         <f>IF(Tracker!C23=TRUE, "40", "0")</f>
         <v>0</v>
       </c>
-      <c r="C27" s="148"/>
-      <c r="D27" s="154"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="138"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="92" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B28" s="91" t="str">
         <f>IF(Tracker!C24=TRUE, "40", "0")</f>
         <v>0</v>
       </c>
-      <c r="C28" s="148"/>
-      <c r="D28" s="154"/>
+      <c r="C28" s="175"/>
+      <c r="D28" s="138"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="92" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B29" s="91" t="str">
         <f>IF(Tracker!C25=TRUE, "40", "0")</f>
         <v>0</v>
       </c>
-      <c r="C29" s="130"/>
-      <c r="D29" s="132"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="145"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="77"/>
@@ -13530,12 +13526,12 @@
       <c r="D30" s="78"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="201" t="s">
-        <v>360</v>
-      </c>
-      <c r="B31" s="202"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="203"/>
+      <c r="A31" s="208" t="s">
+        <v>359</v>
+      </c>
+      <c r="B31" s="209"/>
+      <c r="C31" s="209"/>
+      <c r="D31" s="210"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="93" t="s">
@@ -13545,11 +13541,11 @@
         <f>IF(Tracker!C7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C32" s="211">
+      <c r="C32" s="214">
         <f>B32+B33+B34+B35+B36+B37+B38+B39</f>
         <v>0</v>
       </c>
-      <c r="D32" s="129"/>
+      <c r="D32" s="174"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="95" t="s">
@@ -13559,8 +13555,8 @@
         <f>IF(Tracker!D7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C33" s="148"/>
-      <c r="D33" s="154"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="138"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="95" t="s">
@@ -13570,8 +13566,8 @@
         <f>IF(Tracker!E7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C34" s="148"/>
-      <c r="D34" s="154"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="138"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="95" t="s">
@@ -13581,19 +13577,19 @@
         <f>IF(Tracker!F7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C35" s="148"/>
-      <c r="D35" s="154"/>
+      <c r="C35" s="175"/>
+      <c r="D35" s="138"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="95" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B36" s="94" t="str">
         <f>IF(Tracker!G7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C36" s="148"/>
-      <c r="D36" s="154"/>
+      <c r="C36" s="175"/>
+      <c r="D36" s="138"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="95" t="s">
@@ -13603,8 +13599,8 @@
         <f>IF(Tracker!H7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C37" s="148"/>
-      <c r="D37" s="154"/>
+      <c r="C37" s="175"/>
+      <c r="D37" s="138"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="96" t="s">
@@ -13614,8 +13610,8 @@
         <f>IF(Tracker!I7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C38" s="148"/>
-      <c r="D38" s="154"/>
+      <c r="C38" s="175"/>
+      <c r="D38" s="138"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="97" t="s">
@@ -13625,8 +13621,8 @@
         <f>IF(Tracker!J7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C39" s="130"/>
-      <c r="D39" s="132"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="145"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="77"/>
@@ -13635,48 +13631,48 @@
       <c r="D40" s="78"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="201" t="s">
+      <c r="A41" s="208" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="202"/>
-      <c r="C41" s="202"/>
-      <c r="D41" s="203"/>
+      <c r="B41" s="209"/>
+      <c r="C41" s="209"/>
+      <c r="D41" s="210"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="98" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B42" s="99" t="str">
         <f>IF(Tracker!C28=TRUE, "20", "0")</f>
         <v>0</v>
       </c>
-      <c r="C42" s="206">
+      <c r="C42" s="218">
         <f>B42+B43+B44</f>
         <v>0</v>
       </c>
-      <c r="D42" s="129"/>
+      <c r="D42" s="174"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="98" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B43" s="99" t="str">
         <f>IF(Tracker!C29=TRUE, "20", "0")</f>
         <v>0</v>
       </c>
-      <c r="C43" s="148"/>
-      <c r="D43" s="154"/>
+      <c r="C43" s="175"/>
+      <c r="D43" s="138"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="100" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B44" s="99" t="str">
         <f>IF(Tracker!C30=TRUE, "20", "0")</f>
         <v>0</v>
       </c>
-      <c r="C44" s="130"/>
-      <c r="D44" s="132"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="145"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="77"/>
@@ -13685,12 +13681,12 @@
       <c r="D45" s="78"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="201" t="s">
-        <v>365</v>
-      </c>
-      <c r="B46" s="202"/>
-      <c r="C46" s="202"/>
-      <c r="D46" s="203"/>
+      <c r="A46" s="208" t="s">
+        <v>364</v>
+      </c>
+      <c r="B46" s="209"/>
+      <c r="C46" s="209"/>
+      <c r="D46" s="210"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="101" t="s">
@@ -13700,11 +13696,11 @@
         <f>IF(Tracker!K7=TRUE, "80", "0")</f>
         <v>0</v>
       </c>
-      <c r="C47" s="207">
+      <c r="C47" s="219">
         <f>B47+B48+B49+B50</f>
         <v>0</v>
       </c>
-      <c r="D47" s="129"/>
+      <c r="D47" s="174"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="103" t="s">
@@ -13714,8 +13710,8 @@
         <f>IF(Tracker!L7=TRUE, "80", "0")</f>
         <v>0</v>
       </c>
-      <c r="C48" s="148"/>
-      <c r="D48" s="154"/>
+      <c r="C48" s="175"/>
+      <c r="D48" s="138"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="103" t="s">
@@ -13725,8 +13721,8 @@
         <f>IF(Tracker!M7=TRUE, "80", "0")</f>
         <v>0</v>
       </c>
-      <c r="C49" s="148"/>
-      <c r="D49" s="154"/>
+      <c r="C49" s="175"/>
+      <c r="D49" s="138"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="103" t="s">
@@ -13736,8 +13732,8 @@
         <f>IF(Tracker!N7=TRUE, "80", "0")</f>
         <v>0</v>
       </c>
-      <c r="C50" s="130"/>
-      <c r="D50" s="132"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="145"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="77"/>
@@ -13746,12 +13742,12 @@
       <c r="D51" s="78"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="201" t="s">
-        <v>366</v>
-      </c>
-      <c r="B52" s="202"/>
-      <c r="C52" s="202"/>
-      <c r="D52" s="203"/>
+      <c r="A52" s="208" t="s">
+        <v>365</v>
+      </c>
+      <c r="B52" s="209"/>
+      <c r="C52" s="209"/>
+      <c r="D52" s="210"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="105" t="s">
@@ -13761,11 +13757,11 @@
         <f>IF(Tracker!O7=TRUE,100,0)</f>
         <v>0</v>
       </c>
-      <c r="C53" s="208">
+      <c r="C53" s="220">
         <f>B53</f>
         <v>0</v>
       </c>
-      <c r="D53" s="203"/>
+      <c r="D53" s="210"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="77"/>
@@ -13774,89 +13770,89 @@
       <c r="D54" s="78"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="201" t="s">
+      <c r="A55" s="208" t="s">
+        <v>366</v>
+      </c>
+      <c r="B55" s="209"/>
+      <c r="C55" s="209"/>
+      <c r="D55" s="210"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="221" t="s">
         <v>367</v>
       </c>
-      <c r="B55" s="202"/>
-      <c r="C55" s="202"/>
-      <c r="D55" s="203"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="209" t="s">
-        <v>368</v>
-      </c>
-      <c r="B56" s="139"/>
-      <c r="C56" s="212">
+      <c r="B56" s="167"/>
+      <c r="C56" s="215">
         <f>(B57*-5)+(B58*-10)+(B59*-15)+(B60*-5)+(B61*-10)+(B62*-15)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="129"/>
+      <c r="D56" s="174"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="107" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B57" s="108">
         <f>'Team &amp; Encounters'!C21</f>
         <v>0</v>
       </c>
-      <c r="C57" s="148"/>
-      <c r="D57" s="154"/>
+      <c r="C57" s="175"/>
+      <c r="D57" s="138"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="107" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B58" s="108">
         <f>'Team &amp; Encounters'!C22</f>
         <v>0</v>
       </c>
-      <c r="C58" s="148"/>
-      <c r="D58" s="154"/>
+      <c r="C58" s="175"/>
+      <c r="D58" s="138"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="107" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B59" s="108">
         <f>'Team &amp; Encounters'!C23</f>
         <v>0</v>
       </c>
-      <c r="C59" s="148"/>
-      <c r="D59" s="154"/>
+      <c r="C59" s="175"/>
+      <c r="D59" s="138"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="107" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B60" s="108">
         <f>'Team &amp; Encounters'!E21</f>
         <v>0</v>
       </c>
-      <c r="C60" s="148"/>
-      <c r="D60" s="154"/>
+      <c r="C60" s="175"/>
+      <c r="D60" s="138"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="107" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B61" s="108">
         <f>'Team &amp; Encounters'!E22</f>
         <v>0</v>
       </c>
-      <c r="C61" s="148"/>
-      <c r="D61" s="154"/>
+      <c r="C61" s="175"/>
+      <c r="D61" s="138"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="107" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B62" s="108">
         <f>'Team &amp; Encounters'!E23</f>
         <v>0</v>
       </c>
-      <c r="C62" s="130"/>
-      <c r="D62" s="132"/>
+      <c r="C62" s="170"/>
+      <c r="D62" s="145"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="77"/>
@@ -13865,63 +13861,48 @@
       <c r="D63" s="78"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="201" t="s">
+      <c r="A64" s="208" t="s">
+        <v>374</v>
+      </c>
+      <c r="B64" s="209"/>
+      <c r="C64" s="209"/>
+      <c r="D64" s="210"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="216" t="s">
         <v>375</v>
       </c>
-      <c r="B64" s="202"/>
-      <c r="C64" s="202"/>
-      <c r="D64" s="203"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="204" t="s">
-        <v>376</v>
-      </c>
-      <c r="B65" s="139"/>
-      <c r="C65" s="205">
+      <c r="B65" s="167"/>
+      <c r="C65" s="217">
         <f>(B66*10)+(B67*5)</f>
         <v>0</v>
       </c>
-      <c r="D65" s="129"/>
+      <c r="D65" s="174"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="109" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B66" s="110">
         <f>COUNTIF(Tracker!J13:J70, "F")</f>
         <v>0</v>
       </c>
-      <c r="C66" s="148"/>
-      <c r="D66" s="154"/>
+      <c r="C66" s="175"/>
+      <c r="D66" s="138"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="109" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B67" s="110">
         <f>COUNTIF(Tracker!J13:J70, "P")</f>
         <v>0</v>
       </c>
-      <c r="C67" s="130"/>
-      <c r="D67" s="132"/>
+      <c r="C67" s="170"/>
+      <c r="D67" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C16:D22"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="C25:D29"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="C32:D39"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="C56:D62"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="C65:D67"/>
@@ -13932,6 +13913,21 @@
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C25:D29"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="C32:D39"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="C56:D62"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C16:D22"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13974,30 +13970,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.15">
-      <c r="A1" s="232" t="s">
-        <v>379</v>
-      </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="156"/>
-      <c r="J1" s="156"/>
-      <c r="K1" s="156"/>
-      <c r="L1" s="156"/>
-      <c r="M1" s="156"/>
-      <c r="N1" s="156"/>
-      <c r="O1" s="156"/>
-      <c r="P1" s="156"/>
-      <c r="Q1" s="156"/>
-      <c r="R1" s="156"/>
-      <c r="S1" s="156"/>
-      <c r="T1" s="156"/>
-      <c r="U1" s="156"/>
-      <c r="V1" s="134"/>
+      <c r="A1" s="222" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="160"/>
     </row>
     <row r="2" spans="1:22" ht="75" customHeight="1">
       <c r="A2" s="111" t="e">
@@ -14005,7 +14001,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C2" s="42" t="s">
         <v>45</v>
@@ -14018,7 +14014,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G2" s="114">
         <v>5</v>
@@ -14051,7 +14047,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>48</v>
@@ -14064,7 +14060,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F3" s="64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G3" s="114">
         <v>8</v>
@@ -14097,7 +14093,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>51</v>
@@ -14110,7 +14106,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G4" s="114">
         <v>7</v>
@@ -14120,7 +14116,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J4" s="114">
         <v>7</v>
@@ -14147,7 +14143,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>54</v>
@@ -14160,7 +14156,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G5" s="114">
         <v>6</v>
@@ -14170,7 +14166,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I5" s="64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J5" s="114">
         <v>8</v>
@@ -14190,55 +14186,55 @@
     </row>
     <row r="6" spans="1:22" ht="72.75" customHeight="1">
       <c r="A6" s="223" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="128"/>
+      <c r="R6" s="128"/>
+      <c r="S6" s="128"/>
+      <c r="T6" s="128"/>
+      <c r="U6" s="128"/>
+      <c r="V6" s="160"/>
+    </row>
+    <row r="7" spans="1:22" ht="13.15">
+      <c r="A7" s="225" t="s">
         <v>386</v>
       </c>
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="156"/>
-      <c r="S6" s="156"/>
-      <c r="T6" s="156"/>
-      <c r="U6" s="156"/>
-      <c r="V6" s="134"/>
-    </row>
-    <row r="7" spans="1:22" ht="13.15">
-      <c r="A7" s="233" t="s">
-        <v>387</v>
-      </c>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="156"/>
-      <c r="M7" s="156"/>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="156"/>
-      <c r="S7" s="156"/>
-      <c r="T7" s="156"/>
-      <c r="U7" s="156"/>
-      <c r="V7" s="134"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="128"/>
+      <c r="R7" s="128"/>
+      <c r="S7" s="128"/>
+      <c r="T7" s="128"/>
+      <c r="U7" s="128"/>
+      <c r="V7" s="160"/>
     </row>
     <row r="8" spans="1:22" ht="75" customHeight="1">
       <c r="A8" s="111" t="e">
@@ -14246,20 +14242,20 @@
         <v>#NAME?</v>
       </c>
       <c r="B8" s="115" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C8" s="115" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="116" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E8" s="113" t="e">
         <f t="shared" ref="E8:E11" ca="1" si="5">_xludf.image("http://play.pokemonshowdown.com/sprites/gen5/"&amp;LOWER(F8)&amp;".png", 3)</f>
         <v>#NAME?</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G8" s="114">
         <v>11</v>
@@ -14269,7 +14265,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I8" s="64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J8" s="114">
         <v>11</v>
@@ -14293,7 +14289,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>61</v>
@@ -14306,7 +14302,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G9" s="114">
         <v>15</v>
@@ -14316,7 +14312,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J9" s="114">
         <v>17</v>
@@ -14343,7 +14339,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B10" s="115" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C10" s="115" t="s">
         <v>64</v>
@@ -14356,7 +14352,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G10" s="114">
         <v>8</v>
@@ -14366,7 +14362,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I10" s="64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J10" s="114">
         <v>10</v>
@@ -14376,7 +14372,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L10" s="64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M10" s="114">
         <v>12</v>
@@ -14386,7 +14382,7 @@
         <v>#NAME?</v>
       </c>
       <c r="O10" s="64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P10" s="114">
         <v>12</v>
@@ -14396,7 +14392,7 @@
         <v>#NAME?</v>
       </c>
       <c r="R10" s="64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S10" s="114">
         <v>14</v>
@@ -14406,7 +14402,7 @@
         <v>#NAME?</v>
       </c>
       <c r="U10" s="64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V10" s="114">
         <v>16</v>
@@ -14418,7 +14414,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B11" s="115" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C11" s="115" t="s">
         <v>67</v>
@@ -14431,7 +14427,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G11" s="114">
         <v>19</v>
@@ -14454,55 +14450,55 @@
     </row>
     <row r="12" spans="1:22" ht="75" customHeight="1">
       <c r="A12" s="223" t="s">
+        <v>396</v>
+      </c>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
+      <c r="M12" s="128"/>
+      <c r="N12" s="128"/>
+      <c r="O12" s="128"/>
+      <c r="P12" s="128"/>
+      <c r="Q12" s="128"/>
+      <c r="R12" s="128"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="128"/>
+      <c r="V12" s="160"/>
+    </row>
+    <row r="13" spans="1:22" ht="12.75">
+      <c r="A13" s="226" t="s">
         <v>397</v>
       </c>
-      <c r="B12" s="156"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="224"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="156"/>
-      <c r="O12" s="156"/>
-      <c r="P12" s="156"/>
-      <c r="Q12" s="156"/>
-      <c r="R12" s="156"/>
-      <c r="S12" s="156"/>
-      <c r="T12" s="156"/>
-      <c r="U12" s="156"/>
-      <c r="V12" s="134"/>
-    </row>
-    <row r="13" spans="1:22" ht="12.75">
-      <c r="A13" s="230" t="s">
-        <v>398</v>
-      </c>
-      <c r="B13" s="156"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="156"/>
-      <c r="O13" s="156"/>
-      <c r="P13" s="156"/>
-      <c r="Q13" s="156"/>
-      <c r="R13" s="156"/>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="156"/>
-      <c r="V13" s="134"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="128"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="160"/>
     </row>
     <row r="14" spans="1:22" ht="75" customHeight="1">
       <c r="A14" s="117" t="e">
@@ -14510,7 +14506,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C14" s="42" t="s">
         <v>73</v>
@@ -14523,7 +14519,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G14" s="114">
         <v>21</v>
@@ -14533,7 +14529,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I14" s="64" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J14" s="114">
         <v>23</v>
@@ -14560,7 +14556,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C15" s="42" t="s">
         <v>76</v>
@@ -14573,7 +14569,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G15" s="114">
         <v>21</v>
@@ -14606,7 +14602,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>81</v>
@@ -14619,7 +14615,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G16" s="114">
         <v>18</v>
@@ -14629,7 +14625,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I16" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J16" s="114">
         <v>18</v>
@@ -14639,7 +14635,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L16" s="64" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M16" s="114">
         <v>21</v>
@@ -14656,33 +14652,33 @@
     </row>
     <row r="17" spans="1:22" ht="75" customHeight="1">
       <c r="A17" s="223" t="s">
+        <v>404</v>
+      </c>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="160"/>
+      <c r="E17" s="224"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="128"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="128"/>
+      <c r="V17" s="160"/>
+    </row>
+    <row r="18" spans="1:22" ht="12.75">
+      <c r="A18" s="227" t="s">
         <v>405</v>
-      </c>
-      <c r="B17" s="156"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="224"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="156"/>
-      <c r="L17" s="156"/>
-      <c r="M17" s="156"/>
-      <c r="N17" s="156"/>
-      <c r="O17" s="156"/>
-      <c r="P17" s="156"/>
-      <c r="Q17" s="156"/>
-      <c r="R17" s="156"/>
-      <c r="S17" s="156"/>
-      <c r="T17" s="156"/>
-      <c r="U17" s="156"/>
-      <c r="V17" s="134"/>
-    </row>
-    <row r="18" spans="1:22" ht="12.75">
-      <c r="A18" s="231" t="s">
-        <v>406</v>
       </c>
       <c r="B18" s="122"/>
       <c r="C18" s="122"/>
@@ -14712,7 +14708,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C19" s="42" t="s">
         <v>87</v>
@@ -14725,7 +14721,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F19" s="64" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G19" s="114">
         <v>20</v>
@@ -14735,7 +14731,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I19" s="64" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J19" s="114">
         <v>20</v>
@@ -14745,7 +14741,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L19" s="64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M19" s="114">
         <v>20</v>
@@ -14755,7 +14751,7 @@
         <v>#NAME?</v>
       </c>
       <c r="O19" s="64" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P19" s="114">
         <v>20</v>
@@ -14779,20 +14775,20 @@
         <v>#NAME?</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>90</v>
       </c>
       <c r="D20" s="112" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E20" s="64" t="e">
         <f t="shared" ca="1" si="13"/>
         <v>#NAME?</v>
       </c>
       <c r="F20" s="64" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G20" s="114">
         <v>23</v>
@@ -14802,7 +14798,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I20" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J20" s="114">
         <v>23</v>
@@ -14838,7 +14834,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C21" s="42" t="s">
         <v>95</v>
@@ -14851,7 +14847,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F21" s="64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G21" s="114">
         <v>19</v>
@@ -14861,7 +14857,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J21" s="114">
         <v>21</v>
@@ -14871,7 +14867,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L21" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M21" s="114">
         <v>23</v>
@@ -14892,20 +14888,20 @@
         <v>#NAME?</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C22" s="42" t="s">
         <v>98</v>
       </c>
       <c r="D22" s="112" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E22" s="64" t="e">
         <f t="shared" ca="1" si="13"/>
         <v>#NAME?</v>
       </c>
       <c r="F22" s="64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G22" s="114">
         <v>24</v>
@@ -14915,7 +14911,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I22" s="64" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J22" s="114">
         <v>24</v>
@@ -14942,7 +14938,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>102</v>
@@ -14955,7 +14951,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F23" s="64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G23" s="114">
         <v>21</v>
@@ -14965,7 +14961,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J23" s="114">
         <v>24</v>
@@ -14975,7 +14971,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L23" s="64" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M23" s="114">
         <v>24</v>
@@ -14992,55 +14988,55 @@
     </row>
     <row r="24" spans="1:22" ht="75" customHeight="1">
       <c r="A24" s="223" t="s">
+        <v>418</v>
+      </c>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="224"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="128"/>
+      <c r="N24" s="128"/>
+      <c r="O24" s="128"/>
+      <c r="P24" s="128"/>
+      <c r="Q24" s="128"/>
+      <c r="R24" s="128"/>
+      <c r="S24" s="128"/>
+      <c r="T24" s="128"/>
+      <c r="U24" s="128"/>
+      <c r="V24" s="160"/>
+    </row>
+    <row r="25" spans="1:22" ht="12.75">
+      <c r="A25" s="228" t="s">
         <v>419</v>
       </c>
-      <c r="B24" s="156"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="224"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="156"/>
-      <c r="O24" s="156"/>
-      <c r="P24" s="156"/>
-      <c r="Q24" s="156"/>
-      <c r="R24" s="156"/>
-      <c r="S24" s="156"/>
-      <c r="T24" s="156"/>
-      <c r="U24" s="156"/>
-      <c r="V24" s="134"/>
-    </row>
-    <row r="25" spans="1:22" ht="12.75">
-      <c r="A25" s="222" t="s">
-        <v>420</v>
-      </c>
-      <c r="B25" s="156"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="156"/>
-      <c r="P25" s="156"/>
-      <c r="Q25" s="156"/>
-      <c r="R25" s="156"/>
-      <c r="S25" s="156"/>
-      <c r="T25" s="156"/>
-      <c r="U25" s="156"/>
-      <c r="V25" s="134"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="128"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="128"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="128"/>
+      <c r="U25" s="128"/>
+      <c r="V25" s="160"/>
     </row>
     <row r="26" spans="1:22" ht="75" customHeight="1">
       <c r="A26" s="117" t="e">
@@ -15048,7 +15044,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C26" s="42" t="s">
         <v>107</v>
@@ -15061,7 +15057,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F26" s="64" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G26" s="114">
         <v>26</v>
@@ -15071,7 +15067,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I26" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J26" s="114">
         <v>26</v>
@@ -15098,7 +15094,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>109</v>
@@ -15111,7 +15107,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F27" s="64" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G27" s="114">
         <v>24</v>
@@ -15121,7 +15117,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I27" s="64" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J27" s="114">
         <v>24</v>
@@ -15131,7 +15127,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L27" s="64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M27" s="114">
         <v>24</v>
@@ -15152,7 +15148,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C28" s="42" t="s">
         <v>112</v>
@@ -15165,7 +15161,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F28" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G28" s="114">
         <v>25</v>
@@ -15175,7 +15171,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I28" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J28" s="114">
         <v>25</v>
@@ -15185,7 +15181,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L28" s="64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M28" s="114">
         <v>28</v>
@@ -15206,7 +15202,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C29" s="42" t="s">
         <v>114</v>
@@ -15219,7 +15215,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F29" s="64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G29" s="114">
         <v>27</v>
@@ -15229,7 +15225,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I29" s="64" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J29" s="114">
         <v>27</v>
@@ -15253,7 +15249,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C30" s="42" t="s">
         <v>118</v>
@@ -15266,7 +15262,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F30" s="64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G30" s="114">
         <v>28</v>
@@ -15276,7 +15272,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J30" s="114">
         <v>30</v>
@@ -15296,55 +15292,55 @@
     </row>
     <row r="31" spans="1:22" ht="75" customHeight="1">
       <c r="A31" s="223" t="s">
+        <v>424</v>
+      </c>
+      <c r="B31" s="128"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="224"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="128"/>
+      <c r="M31" s="128"/>
+      <c r="N31" s="128"/>
+      <c r="O31" s="128"/>
+      <c r="P31" s="128"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="128"/>
+      <c r="T31" s="128"/>
+      <c r="U31" s="128"/>
+      <c r="V31" s="160"/>
+    </row>
+    <row r="32" spans="1:22" ht="12.75">
+      <c r="A32" s="231" t="s">
         <v>425</v>
       </c>
-      <c r="B31" s="156"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="224"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="156"/>
-      <c r="O31" s="156"/>
-      <c r="P31" s="156"/>
-      <c r="Q31" s="156"/>
-      <c r="R31" s="156"/>
-      <c r="S31" s="156"/>
-      <c r="T31" s="156"/>
-      <c r="U31" s="156"/>
-      <c r="V31" s="134"/>
-    </row>
-    <row r="32" spans="1:22" ht="12.75">
-      <c r="A32" s="227" t="s">
-        <v>426</v>
-      </c>
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="156"/>
-      <c r="O32" s="156"/>
-      <c r="P32" s="156"/>
-      <c r="Q32" s="156"/>
-      <c r="R32" s="156"/>
-      <c r="S32" s="156"/>
-      <c r="T32" s="156"/>
-      <c r="U32" s="156"/>
-      <c r="V32" s="134"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="128"/>
+      <c r="M32" s="128"/>
+      <c r="N32" s="128"/>
+      <c r="O32" s="128"/>
+      <c r="P32" s="128"/>
+      <c r="Q32" s="128"/>
+      <c r="R32" s="128"/>
+      <c r="S32" s="128"/>
+      <c r="T32" s="128"/>
+      <c r="U32" s="128"/>
+      <c r="V32" s="160"/>
     </row>
     <row r="33" spans="1:22" ht="75" customHeight="1">
       <c r="A33" s="117" t="e">
@@ -15352,7 +15348,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>122</v>
@@ -15365,7 +15361,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F33" s="64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G33" s="114">
         <v>31</v>
@@ -15395,20 +15391,20 @@
         <v>#NAME?</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C34" s="42" t="s">
         <v>124</v>
       </c>
       <c r="D34" s="112" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E34" s="64" t="e">
         <f t="shared" ca="1" si="24"/>
         <v>#NAME?</v>
       </c>
       <c r="F34" s="64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G34" s="114">
         <v>36</v>
@@ -15418,7 +15414,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I34" s="64" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J34" s="114">
         <v>36</v>
@@ -15445,7 +15441,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C35" s="119" t="s">
         <v>128</v>
@@ -15458,7 +15454,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F35" s="64" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G35" s="114">
         <v>32</v>
@@ -15468,7 +15464,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I35" s="64" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J35" s="114">
         <v>31</v>
@@ -15478,7 +15474,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L35" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M35" s="114">
         <v>34</v>
@@ -15499,7 +15495,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C36" s="119" t="s">
         <v>130</v>
@@ -15512,7 +15508,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F36" s="64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G36" s="114">
         <v>33</v>
@@ -15522,7 +15518,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I36" s="64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J36" s="114">
         <v>33</v>
@@ -15545,55 +15541,55 @@
     </row>
     <row r="37" spans="1:22" ht="75" customHeight="1">
       <c r="A37" s="223" t="s">
+        <v>432</v>
+      </c>
+      <c r="B37" s="128"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="224"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="128"/>
+      <c r="K37" s="128"/>
+      <c r="L37" s="128"/>
+      <c r="M37" s="128"/>
+      <c r="N37" s="128"/>
+      <c r="O37" s="128"/>
+      <c r="P37" s="128"/>
+      <c r="Q37" s="128"/>
+      <c r="R37" s="128"/>
+      <c r="S37" s="128"/>
+      <c r="T37" s="128"/>
+      <c r="U37" s="128"/>
+      <c r="V37" s="160"/>
+    </row>
+    <row r="38" spans="1:22" ht="12.75">
+      <c r="A38" s="232" t="s">
         <v>433</v>
       </c>
-      <c r="B37" s="156"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="224"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="156"/>
-      <c r="H37" s="156"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="156"/>
-      <c r="K37" s="156"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="156"/>
-      <c r="N37" s="156"/>
-      <c r="O37" s="156"/>
-      <c r="P37" s="156"/>
-      <c r="Q37" s="156"/>
-      <c r="R37" s="156"/>
-      <c r="S37" s="156"/>
-      <c r="T37" s="156"/>
-      <c r="U37" s="156"/>
-      <c r="V37" s="134"/>
-    </row>
-    <row r="38" spans="1:22" ht="12.75">
-      <c r="A38" s="228" t="s">
-        <v>434</v>
-      </c>
-      <c r="B38" s="156"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="156"/>
-      <c r="L38" s="156"/>
-      <c r="M38" s="156"/>
-      <c r="N38" s="156"/>
-      <c r="O38" s="156"/>
-      <c r="P38" s="156"/>
-      <c r="Q38" s="156"/>
-      <c r="R38" s="156"/>
-      <c r="S38" s="156"/>
-      <c r="T38" s="156"/>
-      <c r="U38" s="156"/>
-      <c r="V38" s="134"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
+      <c r="J38" s="128"/>
+      <c r="K38" s="128"/>
+      <c r="L38" s="128"/>
+      <c r="M38" s="128"/>
+      <c r="N38" s="128"/>
+      <c r="O38" s="128"/>
+      <c r="P38" s="128"/>
+      <c r="Q38" s="128"/>
+      <c r="R38" s="128"/>
+      <c r="S38" s="128"/>
+      <c r="T38" s="128"/>
+      <c r="U38" s="128"/>
+      <c r="V38" s="160"/>
     </row>
     <row r="39" spans="1:22" ht="75" customHeight="1">
       <c r="A39" s="117" t="e">
@@ -15601,7 +15597,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C39" s="42" t="s">
         <v>133</v>
@@ -15614,7 +15610,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F39" s="64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G39" s="114">
         <v>38</v>
@@ -15624,7 +15620,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I39" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J39" s="114">
         <v>38</v>
@@ -15634,7 +15630,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L39" s="64" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M39" s="114">
         <v>40</v>
@@ -15655,7 +15651,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C40" s="42" t="s">
         <v>61</v>
@@ -15668,7 +15664,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F40" s="64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G40" s="114">
         <v>38</v>
@@ -15678,7 +15674,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I40" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J40" s="114">
         <v>38</v>
@@ -15688,7 +15684,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L40" s="64" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M40" s="114">
         <v>40</v>
@@ -15709,7 +15705,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C41" s="42" t="s">
         <v>136</v>
@@ -15722,7 +15718,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F41" s="64" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G41" s="114">
         <v>39</v>
@@ -15732,7 +15728,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I41" s="64" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J41" s="114">
         <v>40</v>
@@ -15768,7 +15764,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C42" s="42" t="s">
         <v>138</v>
@@ -15781,7 +15777,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F42" s="64" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G42" s="114">
         <v>37</v>
@@ -15791,7 +15787,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I42" s="64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J42" s="114">
         <v>39</v>
@@ -15801,7 +15797,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L42" s="64" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M42" s="114">
         <v>39</v>
@@ -15818,55 +15814,55 @@
     </row>
     <row r="43" spans="1:22" ht="75" customHeight="1">
       <c r="A43" s="223" t="s">
+        <v>441</v>
+      </c>
+      <c r="B43" s="128"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="160"/>
+      <c r="E43" s="224"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="128"/>
+      <c r="K43" s="128"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="128"/>
+      <c r="N43" s="128"/>
+      <c r="O43" s="128"/>
+      <c r="P43" s="128"/>
+      <c r="Q43" s="128"/>
+      <c r="R43" s="128"/>
+      <c r="S43" s="128"/>
+      <c r="T43" s="128"/>
+      <c r="U43" s="128"/>
+      <c r="V43" s="160"/>
+    </row>
+    <row r="44" spans="1:22" ht="12.75">
+      <c r="A44" s="233" t="s">
         <v>442</v>
       </c>
-      <c r="B43" s="156"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="224"/>
-      <c r="F43" s="156"/>
-      <c r="G43" s="156"/>
-      <c r="H43" s="156"/>
-      <c r="I43" s="156"/>
-      <c r="J43" s="156"/>
-      <c r="K43" s="156"/>
-      <c r="L43" s="156"/>
-      <c r="M43" s="156"/>
-      <c r="N43" s="156"/>
-      <c r="O43" s="156"/>
-      <c r="P43" s="156"/>
-      <c r="Q43" s="156"/>
-      <c r="R43" s="156"/>
-      <c r="S43" s="156"/>
-      <c r="T43" s="156"/>
-      <c r="U43" s="156"/>
-      <c r="V43" s="134"/>
-    </row>
-    <row r="44" spans="1:22" ht="12.75">
-      <c r="A44" s="229" t="s">
-        <v>443</v>
-      </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
-      <c r="H44" s="156"/>
-      <c r="I44" s="156"/>
-      <c r="J44" s="156"/>
-      <c r="K44" s="156"/>
-      <c r="L44" s="156"/>
-      <c r="M44" s="156"/>
-      <c r="N44" s="156"/>
-      <c r="O44" s="156"/>
-      <c r="P44" s="156"/>
-      <c r="Q44" s="156"/>
-      <c r="R44" s="156"/>
-      <c r="S44" s="156"/>
-      <c r="T44" s="156"/>
-      <c r="U44" s="156"/>
-      <c r="V44" s="134"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="128"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
+      <c r="J44" s="128"/>
+      <c r="K44" s="128"/>
+      <c r="L44" s="128"/>
+      <c r="M44" s="128"/>
+      <c r="N44" s="128"/>
+      <c r="O44" s="128"/>
+      <c r="P44" s="128"/>
+      <c r="Q44" s="128"/>
+      <c r="R44" s="128"/>
+      <c r="S44" s="128"/>
+      <c r="T44" s="128"/>
+      <c r="U44" s="128"/>
+      <c r="V44" s="160"/>
     </row>
     <row r="45" spans="1:22" ht="75" customHeight="1">
       <c r="A45" s="117" t="e">
@@ -15874,7 +15870,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C45" s="119" t="s">
         <v>133</v>
@@ -15887,7 +15883,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F45" s="64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G45" s="114">
         <v>42</v>
@@ -15897,7 +15893,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I45" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J45" s="114">
         <v>42</v>
@@ -15907,7 +15903,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L45" s="64" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M45" s="114">
         <v>44</v>
@@ -15969,7 +15965,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C47" s="119" t="s">
         <v>143</v>
@@ -15982,7 +15978,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F47" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G47" s="114">
         <v>45</v>
@@ -16009,7 +16005,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C48" s="119" t="s">
         <v>145</v>
@@ -16022,7 +16018,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F48" s="64" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G48" s="114">
         <v>41</v>
@@ -16032,7 +16028,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I48" s="64" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J48" s="114">
         <v>43</v>
@@ -16042,7 +16038,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L48" s="64" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M48" s="114">
         <v>42</v>
@@ -16063,7 +16059,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C49" s="119" t="s">
         <v>146</v>
@@ -16076,7 +16072,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F49" s="64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G49" s="114">
         <v>41</v>
@@ -16086,7 +16082,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I49" s="64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J49" s="114">
         <v>42</v>
@@ -16096,7 +16092,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L49" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M49" s="114">
         <v>41</v>
@@ -16106,7 +16102,7 @@
         <v>#NAME?</v>
       </c>
       <c r="O49" s="64" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P49" s="114">
         <v>41</v>
@@ -16124,7 +16120,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C50" s="119" t="s">
         <v>147</v>
@@ -16137,7 +16133,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F50" s="64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G50" s="114">
         <v>43</v>
@@ -16147,7 +16143,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I50" s="64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J50" s="114">
         <v>43</v>
@@ -16157,7 +16153,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L50" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M50" s="114">
         <v>40</v>
@@ -16181,7 +16177,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C51" s="119" t="s">
         <v>148</v>
@@ -16194,7 +16190,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F51" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G51" s="114">
         <v>45</v>
@@ -16204,7 +16200,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I51" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J51" s="114">
         <v>45</v>
@@ -16230,55 +16226,55 @@
     </row>
     <row r="52" spans="1:22" ht="75" customHeight="1">
       <c r="A52" s="223" t="s">
+        <v>449</v>
+      </c>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="160"/>
+      <c r="E52" s="224"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="128"/>
+      <c r="H52" s="128"/>
+      <c r="I52" s="128"/>
+      <c r="J52" s="128"/>
+      <c r="K52" s="128"/>
+      <c r="L52" s="128"/>
+      <c r="M52" s="128"/>
+      <c r="N52" s="128"/>
+      <c r="O52" s="128"/>
+      <c r="P52" s="128"/>
+      <c r="Q52" s="128"/>
+      <c r="R52" s="128"/>
+      <c r="S52" s="128"/>
+      <c r="T52" s="128"/>
+      <c r="U52" s="128"/>
+      <c r="V52" s="160"/>
+    </row>
+    <row r="53" spans="1:22" ht="12.75">
+      <c r="A53" s="229" t="s">
         <v>450</v>
       </c>
-      <c r="B52" s="156"/>
-      <c r="C52" s="156"/>
-      <c r="D52" s="134"/>
-      <c r="E52" s="224"/>
-      <c r="F52" s="156"/>
-      <c r="G52" s="156"/>
-      <c r="H52" s="156"/>
-      <c r="I52" s="156"/>
-      <c r="J52" s="156"/>
-      <c r="K52" s="156"/>
-      <c r="L52" s="156"/>
-      <c r="M52" s="156"/>
-      <c r="N52" s="156"/>
-      <c r="O52" s="156"/>
-      <c r="P52" s="156"/>
-      <c r="Q52" s="156"/>
-      <c r="R52" s="156"/>
-      <c r="S52" s="156"/>
-      <c r="T52" s="156"/>
-      <c r="U52" s="156"/>
-      <c r="V52" s="134"/>
-    </row>
-    <row r="53" spans="1:22" ht="12.75">
-      <c r="A53" s="225" t="s">
-        <v>451</v>
-      </c>
-      <c r="B53" s="156"/>
-      <c r="C53" s="156"/>
-      <c r="D53" s="156"/>
-      <c r="E53" s="156"/>
-      <c r="F53" s="156"/>
-      <c r="G53" s="156"/>
-      <c r="H53" s="156"/>
-      <c r="I53" s="156"/>
-      <c r="J53" s="156"/>
-      <c r="K53" s="156"/>
-      <c r="L53" s="156"/>
-      <c r="M53" s="156"/>
-      <c r="N53" s="156"/>
-      <c r="O53" s="156"/>
-      <c r="P53" s="156"/>
-      <c r="Q53" s="156"/>
-      <c r="R53" s="156"/>
-      <c r="S53" s="156"/>
-      <c r="T53" s="156"/>
-      <c r="U53" s="156"/>
-      <c r="V53" s="134"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="128"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="128"/>
+      <c r="J53" s="128"/>
+      <c r="K53" s="128"/>
+      <c r="L53" s="128"/>
+      <c r="M53" s="128"/>
+      <c r="N53" s="128"/>
+      <c r="O53" s="128"/>
+      <c r="P53" s="128"/>
+      <c r="Q53" s="128"/>
+      <c r="R53" s="128"/>
+      <c r="S53" s="128"/>
+      <c r="T53" s="128"/>
+      <c r="U53" s="128"/>
+      <c r="V53" s="160"/>
     </row>
     <row r="54" spans="1:22" ht="75" customHeight="1">
       <c r="A54" s="117" t="e">
@@ -16286,7 +16282,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>151</v>
@@ -16299,7 +16295,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F54" s="64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G54" s="114">
         <v>43</v>
@@ -16309,7 +16305,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I54" s="64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J54" s="114">
         <v>46</v>
@@ -16319,7 +16315,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L54" s="64" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M54" s="114">
         <v>46</v>
@@ -16340,7 +16336,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C55" s="42" t="s">
         <v>153</v>
@@ -16353,7 +16349,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F55" s="64" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G55" s="114">
         <v>45</v>
@@ -16363,7 +16359,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I55" s="64" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J55" s="114">
         <v>47</v>
@@ -16393,7 +16389,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B56" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C56" s="42" t="s">
         <v>154</v>
@@ -16406,7 +16402,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F56" s="64" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G56" s="114">
         <v>45</v>
@@ -16416,7 +16412,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I56" s="64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J56" s="114">
         <v>46</v>
@@ -16426,7 +16422,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L56" s="64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M56" s="114">
         <v>48</v>
@@ -16450,7 +16446,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B57" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C57" s="42" t="s">
         <v>155</v>
@@ -16463,7 +16459,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F57" s="64" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G57" s="114">
         <v>45</v>
@@ -16473,7 +16469,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I57" s="64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J57" s="114">
         <v>46</v>
@@ -16483,7 +16479,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L57" s="64" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M57" s="114">
         <v>48</v>
@@ -16507,7 +16503,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C58" s="42" t="s">
         <v>156</v>
@@ -16520,7 +16516,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F58" s="64" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G58" s="114">
         <v>47</v>
@@ -16530,7 +16526,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I58" s="64" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J58" s="114">
         <v>48</v>
@@ -16554,7 +16550,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B59" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C59" s="42" t="s">
         <v>157</v>
@@ -16567,7 +16563,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F59" s="64" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G59" s="114">
         <v>47</v>
@@ -16577,7 +16573,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I59" s="64" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J59" s="114">
         <v>47</v>
@@ -16601,20 +16597,20 @@
         <v>#NAME?</v>
       </c>
       <c r="B60" s="42" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C60" s="42" t="s">
         <v>158</v>
       </c>
       <c r="D60" s="112" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E60" s="64" t="e">
         <f t="shared" ca="1" si="38"/>
         <v>#NAME?</v>
       </c>
       <c r="F60" s="64" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G60" s="114">
         <v>50</v>
@@ -16624,7 +16620,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I60" s="64" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J60" s="114">
         <v>50</v>
@@ -16651,7 +16647,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B61" s="42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C61" s="42" t="s">
         <v>160</v>
@@ -16664,7 +16660,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F61" s="120" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G61" s="114">
         <v>48</v>
@@ -16697,7 +16693,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C62" s="42" t="s">
         <v>161</v>
@@ -16710,7 +16706,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F62" s="120" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G62" s="114">
         <v>44</v>
@@ -16720,7 +16716,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I62" s="64" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J62" s="114">
         <v>45</v>
@@ -16730,7 +16726,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L62" s="64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M62" s="114">
         <v>46</v>
@@ -16751,20 +16747,20 @@
         <v>#NAME?</v>
       </c>
       <c r="B63" s="42" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C63" s="42" t="s">
         <v>162</v>
       </c>
       <c r="D63" s="112" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E63" s="64" t="e">
         <f t="shared" ca="1" si="38"/>
         <v>#NAME?</v>
       </c>
       <c r="F63" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G63" s="114">
         <v>50</v>
@@ -16774,7 +16770,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I63" s="64" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J63" s="114">
         <v>50</v>
@@ -16801,7 +16797,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B64" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C64" s="42" t="s">
         <v>164</v>
@@ -16814,7 +16810,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F64" s="120" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G64" s="114">
         <v>47</v>
@@ -16824,7 +16820,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I64" s="64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J64" s="114">
         <v>48</v>
@@ -16851,7 +16847,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C65" s="42" t="s">
         <v>165</v>
@@ -16864,7 +16860,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F65" s="120" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G65" s="114">
         <v>45</v>
@@ -16874,7 +16870,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I65" s="64" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J65" s="114">
         <v>47</v>
@@ -16901,7 +16897,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C66" s="42" t="s">
         <v>166</v>
@@ -16914,7 +16910,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F66" s="120" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G66" s="114">
         <v>46</v>
@@ -16924,7 +16920,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I66" s="64" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J66" s="114">
         <v>46</v>
@@ -16934,7 +16930,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L66" s="64" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M66" s="114">
         <v>46</v>
@@ -16955,7 +16951,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B67" s="42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C67" s="42" t="s">
         <v>167</v>
@@ -16968,7 +16964,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F67" s="120" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G67" s="114">
         <v>43</v>
@@ -16978,7 +16974,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I67" s="64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J67" s="114">
         <v>45</v>
@@ -16988,7 +16984,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L67" s="64" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M67" s="114">
         <v>47</v>
@@ -17005,46 +17001,34 @@
     </row>
     <row r="68" spans="1:22" ht="75" customHeight="1">
       <c r="A68" s="223" t="s">
+        <v>476</v>
+      </c>
+      <c r="B68" s="128"/>
+      <c r="C68" s="128"/>
+      <c r="D68" s="160"/>
+      <c r="E68" s="230" t="s">
         <v>477</v>
       </c>
-      <c r="B68" s="156"/>
-      <c r="C68" s="156"/>
-      <c r="D68" s="134"/>
-      <c r="E68" s="226" t="s">
-        <v>478</v>
-      </c>
-      <c r="F68" s="156"/>
-      <c r="G68" s="156"/>
-      <c r="H68" s="156"/>
-      <c r="I68" s="156"/>
-      <c r="J68" s="156"/>
-      <c r="K68" s="156"/>
-      <c r="L68" s="156"/>
-      <c r="M68" s="156"/>
-      <c r="N68" s="156"/>
-      <c r="O68" s="156"/>
-      <c r="P68" s="156"/>
-      <c r="Q68" s="156"/>
-      <c r="R68" s="156"/>
-      <c r="S68" s="156"/>
-      <c r="T68" s="156"/>
-      <c r="U68" s="156"/>
-      <c r="V68" s="134"/>
+      <c r="F68" s="128"/>
+      <c r="G68" s="128"/>
+      <c r="H68" s="128"/>
+      <c r="I68" s="128"/>
+      <c r="J68" s="128"/>
+      <c r="K68" s="128"/>
+      <c r="L68" s="128"/>
+      <c r="M68" s="128"/>
+      <c r="N68" s="128"/>
+      <c r="O68" s="128"/>
+      <c r="P68" s="128"/>
+      <c r="Q68" s="128"/>
+      <c r="R68" s="128"/>
+      <c r="S68" s="128"/>
+      <c r="T68" s="128"/>
+      <c r="U68" s="128"/>
+      <c r="V68" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:V6"/>
-    <mergeCell ref="A7:V7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:V12"/>
-    <mergeCell ref="A13:V13"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:V17"/>
-    <mergeCell ref="A18:V18"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:V24"/>
     <mergeCell ref="A25:V25"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A43:D43"/>
@@ -17060,6 +17044,18 @@
     <mergeCell ref="A38:V38"/>
     <mergeCell ref="E43:V43"/>
     <mergeCell ref="A44:V44"/>
+    <mergeCell ref="A13:V13"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:V17"/>
+    <mergeCell ref="A18:V18"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:V24"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:V6"/>
+    <mergeCell ref="A7:V7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:V12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/EncounterRoutingNRotM/NRotMAugust2024.xlsx
+++ b/EncounterRoutingNRotM/NRotMAugust2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f30cbaf81810b05/Documents/Programming/pokemonDataTools/EncounterRoutingNRotM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gil\OneDrive\Documents\Programming\pokemonDataTools\EncounterRoutingNRotM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{CBC81FE4-5CCE-4303-970D-0617F9213FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0FD1126-F756-4493-9B6E-9A21F352830E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EA599C-2551-4C49-BA17-9CD4EC78431C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54855" yWindow="795" windowWidth="25785" windowHeight="15405" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -3894,102 +3894,36 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="16" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3997,37 +3931,39 @@
     <xf numFmtId="0" fontId="24" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4042,120 +3978,184 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="39" fillId="27" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5013,7 +5013,7 @@
       <c r="G1" s="122"/>
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="126" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="122"/>
@@ -5024,7 +5024,7 @@
       <c r="G2" s="122"/>
     </row>
     <row r="3" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="123" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="122"/>
@@ -5046,7 +5046,7 @@
       <c r="G4" s="122"/>
     </row>
     <row r="5" spans="1:7" ht="27" customHeight="1">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="124" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="122"/>
@@ -5057,7 +5057,7 @@
       <c r="G5" s="122"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="123" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="122"/>
@@ -5068,7 +5068,7 @@
       <c r="G6" s="122"/>
     </row>
     <row r="7" spans="1:7" ht="27" customHeight="1">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="123" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="122"/>
@@ -5079,7 +5079,7 @@
       <c r="G7" s="122"/>
     </row>
     <row r="8" spans="1:7" ht="45" customHeight="1">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="123" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="122"/>
@@ -5101,7 +5101,7 @@
       <c r="G9" s="122"/>
     </row>
     <row r="10" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="123" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="122"/>
@@ -5112,7 +5112,7 @@
       <c r="G10" s="122"/>
     </row>
     <row r="11" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="123" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="122"/>
@@ -5134,7 +5134,7 @@
       <c r="G12" s="122"/>
     </row>
     <row r="13" spans="1:7" ht="27" customHeight="1">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="124" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="122"/>
@@ -5145,7 +5145,7 @@
       <c r="G13" s="122"/>
     </row>
     <row r="14" spans="1:7" ht="33" customHeight="1">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="123" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="122"/>
@@ -5156,7 +5156,7 @@
       <c r="G14" s="122"/>
     </row>
     <row r="15" spans="1:7" ht="54" customHeight="1">
-      <c r="A15" s="124" t="s">
+      <c r="A15" s="123" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="122"/>
@@ -5178,7 +5178,7 @@
       <c r="G16" s="122"/>
     </row>
     <row r="17" spans="1:7" ht="27" customHeight="1">
-      <c r="A17" s="126" t="s">
+      <c r="A17" s="125" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="122"/>
@@ -5200,7 +5200,7 @@
       <c r="G18" s="122"/>
     </row>
     <row r="19" spans="1:7" ht="27" customHeight="1">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="123" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="122"/>
@@ -5212,6 +5212,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A8:G8"/>
@@ -5221,16 +5231,6 @@
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5267,70 +5267,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="12.75">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="172" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="172" t="s">
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="174"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="129"/>
     </row>
     <row r="2" spans="1:16" ht="12.75">
-      <c r="A2" s="175"/>
+      <c r="A2" s="148"/>
       <c r="B2" s="122"/>
       <c r="C2" s="122"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="175"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="148"/>
       <c r="F2" s="122"/>
       <c r="G2" s="122"/>
       <c r="H2" s="122"/>
       <c r="I2" s="122"/>
       <c r="J2" s="122"/>
       <c r="K2" s="122"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="175"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="148"/>
       <c r="N2" s="122"/>
       <c r="O2" s="122"/>
-      <c r="P2" s="138"/>
+      <c r="P2" s="154"/>
     </row>
     <row r="3" spans="1:16" ht="12.75">
-      <c r="A3" s="170"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="145"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="132"/>
     </row>
     <row r="4" spans="1:16" ht="97.5" customHeight="1">
-      <c r="A4" s="183" t="s">
+      <c r="A4" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="136"/>
+      <c r="B4" s="153"/>
       <c r="C4" s="1" t="e">
         <f t="shared" ref="C4:O4" ca="1" si="0">_xludf.image("http://play.pokemonshowdown.com/sprites/trainers/"&amp;LOWER(C5)&amp;".png")</f>
         <v>#NAME?</v>
@@ -5379,15 +5379,15 @@
         <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
-      <c r="O4" s="176" t="e">
+      <c r="O4" s="170" t="e">
         <f t="shared" ca="1" si="0"/>
         <v>#NAME?</v>
       </c>
-      <c r="P4" s="141"/>
+      <c r="P4" s="142"/>
     </row>
     <row r="5" spans="1:16" ht="15.4">
-      <c r="A5" s="137"/>
-      <c r="B5" s="138"/>
+      <c r="A5" s="151"/>
+      <c r="B5" s="154"/>
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
@@ -5424,14 +5424,14 @@
       <c r="N5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="177" t="s">
+      <c r="O5" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="129"/>
+      <c r="P5" s="157"/>
     </row>
     <row r="6" spans="1:16" ht="15.4">
-      <c r="A6" s="137"/>
-      <c r="B6" s="138"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="154"/>
       <c r="C6" s="9">
         <v>14</v>
       </c>
@@ -5456,18 +5456,18 @@
       <c r="J6" s="11">
         <v>50</v>
       </c>
-      <c r="K6" s="178">
+      <c r="K6" s="155">
         <v>62</v>
       </c>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="129"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="157"/>
     </row>
     <row r="7" spans="1:16" ht="15.4">
-      <c r="A7" s="184"/>
-      <c r="B7" s="145"/>
+      <c r="A7" s="152"/>
+      <c r="B7" s="132"/>
       <c r="C7" s="12" t="b">
         <v>0</v>
       </c>
@@ -5504,80 +5504,80 @@
       <c r="N7" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="O7" s="179" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="136"/>
+      <c r="O7" s="158" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="153"/>
     </row>
     <row r="8" spans="1:16" ht="12.75">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="173"/>
-      <c r="C8" s="186">
+      <c r="B8" s="128"/>
+      <c r="C8" s="162">
         <f>('Points Calculation'!D10)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="189" t="s">
+      <c r="D8" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="185" t="s">
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="161" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="173"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="174"/>
+      <c r="K8" s="128"/>
+      <c r="L8" s="128"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="128"/>
+      <c r="P8" s="129"/>
     </row>
     <row r="9" spans="1:16" ht="12.75">
-      <c r="A9" s="175"/>
+      <c r="A9" s="148"/>
       <c r="B9" s="122"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="175"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="148"/>
       <c r="E9" s="122"/>
       <c r="F9" s="122"/>
       <c r="G9" s="122"/>
       <c r="H9" s="122"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="175"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="148"/>
       <c r="K9" s="122"/>
       <c r="L9" s="122"/>
       <c r="M9" s="122"/>
       <c r="N9" s="122"/>
       <c r="O9" s="122"/>
-      <c r="P9" s="138"/>
+      <c r="P9" s="154"/>
     </row>
     <row r="10" spans="1:16" ht="12.75">
-      <c r="A10" s="170"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="188"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144"/>
-      <c r="O10" s="144"/>
-      <c r="P10" s="145"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="131"/>
+      <c r="P10" s="132"/>
     </row>
     <row r="11" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A11" s="190" t="s">
+      <c r="A11" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="132"/>
+      <c r="B11" s="167"/>
+      <c r="C11" s="168"/>
       <c r="D11" s="14" t="str">
         <f>'Team &amp; Encounters'!B5</f>
         <v/>
@@ -5605,64 +5605,64 @@
       <c r="J11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="130" t="s">
+      <c r="K11" s="191" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="131"/>
-      <c r="M11" s="130" t="s">
+      <c r="L11" s="167"/>
+      <c r="M11" s="191" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
-      <c r="P11" s="132"/>
+      <c r="N11" s="167"/>
+      <c r="O11" s="167"/>
+      <c r="P11" s="168"/>
     </row>
     <row r="12" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="160"/>
+      <c r="B12" s="134"/>
       <c r="C12" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="D12" s="191" t="e">
+      <c r="D12" s="146" t="e">
         <f ca="1">'Team &amp; Encounters'!B6</f>
         <v>#NAME?</v>
       </c>
-      <c r="E12" s="181"/>
-      <c r="F12" s="180" t="e">
+      <c r="E12" s="147"/>
+      <c r="F12" s="150" t="e">
         <f ca="1">'Team &amp; Encounters'!D6</f>
         <v>#NAME?</v>
       </c>
-      <c r="G12" s="181"/>
-      <c r="H12" s="180" t="e">
+      <c r="G12" s="147"/>
+      <c r="H12" s="150" t="e">
         <f ca="1">'Team &amp; Encounters'!F6</f>
         <v>#NAME?</v>
       </c>
-      <c r="I12" s="136"/>
-      <c r="J12" s="133" t="s">
+      <c r="I12" s="153"/>
+      <c r="J12" s="192" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="128"/>
-      <c r="P12" s="129"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="157"/>
     </row>
     <row r="13" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A13" s="182" t="s">
+      <c r="A13" s="143" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="160"/>
+      <c r="B13" s="134"/>
       <c r="C13" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="D13" s="175"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="138"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="154"/>
       <c r="J13" s="20"/>
       <c r="K13" s="21" t="s">
         <v>45</v>
@@ -5670,25 +5670,25 @@
       <c r="L13" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="134"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="135"/>
-      <c r="P13" s="136"/>
+      <c r="M13" s="179"/>
+      <c r="N13" s="180"/>
+      <c r="O13" s="180"/>
+      <c r="P13" s="153"/>
     </row>
     <row r="14" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A14" s="182" t="s">
+      <c r="A14" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="160"/>
+      <c r="B14" s="134"/>
       <c r="C14" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="D14" s="175"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="138"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="154"/>
       <c r="J14" s="20"/>
       <c r="K14" s="21" t="s">
         <v>48</v>
@@ -5696,25 +5696,25 @@
       <c r="L14" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="M14" s="137"/>
+      <c r="M14" s="151"/>
       <c r="N14" s="122"/>
       <c r="O14" s="122"/>
-      <c r="P14" s="138"/>
+      <c r="P14" s="154"/>
     </row>
     <row r="15" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A15" s="182" t="s">
+      <c r="A15" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="160"/>
+      <c r="B15" s="134"/>
       <c r="C15" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="D15" s="175"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="138"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="154"/>
       <c r="J15" s="20"/>
       <c r="K15" s="21" t="s">
         <v>51</v>
@@ -5722,25 +5722,25 @@
       <c r="L15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="M15" s="137"/>
+      <c r="M15" s="151"/>
       <c r="N15" s="122"/>
       <c r="O15" s="122"/>
-      <c r="P15" s="138"/>
+      <c r="P15" s="154"/>
     </row>
     <row r="16" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A16" s="182" t="s">
+      <c r="A16" s="143" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="160"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="D16" s="166"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="141"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="142"/>
       <c r="J16" s="20"/>
       <c r="K16" s="21" t="s">
         <v>54</v>
@@ -5748,16 +5748,16 @@
       <c r="L16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="M16" s="139"/>
-      <c r="N16" s="140"/>
-      <c r="O16" s="140"/>
-      <c r="P16" s="141"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="142"/>
     </row>
     <row r="17" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A17" s="182" t="s">
+      <c r="A17" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="160"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="19" t="b">
         <v>0</v>
       </c>
@@ -5785,39 +5785,39 @@
         <f>'Team &amp; Encounters'!G12</f>
         <v/>
       </c>
-      <c r="J17" s="142" t="s">
+      <c r="J17" s="193" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="129"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="156"/>
+      <c r="N17" s="156"/>
+      <c r="O17" s="156"/>
+      <c r="P17" s="157"/>
     </row>
     <row r="18" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A18" s="192" t="s">
+      <c r="A18" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="156"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="27" t="b">
         <v>0</v>
       </c>
-      <c r="D18" s="191" t="e">
+      <c r="D18" s="146" t="e">
         <f ca="1">'Team &amp; Encounters'!B13</f>
         <v>#NAME?</v>
       </c>
-      <c r="E18" s="181"/>
-      <c r="F18" s="180" t="e">
+      <c r="E18" s="147"/>
+      <c r="F18" s="150" t="e">
         <f ca="1">'Team &amp; Encounters'!D13</f>
         <v>#NAME?</v>
       </c>
-      <c r="G18" s="181"/>
-      <c r="H18" s="180" t="e">
+      <c r="G18" s="147"/>
+      <c r="H18" s="150" t="e">
         <f ca="1">'Team &amp; Encounters'!F13</f>
         <v>#NAME?</v>
       </c>
-      <c r="I18" s="136"/>
+      <c r="I18" s="153"/>
       <c r="J18" s="20"/>
       <c r="K18" s="28" t="s">
         <v>59</v>
@@ -5825,21 +5825,21 @@
       <c r="L18" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="M18" s="134"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="136"/>
+      <c r="M18" s="179"/>
+      <c r="N18" s="180"/>
+      <c r="O18" s="180"/>
+      <c r="P18" s="153"/>
     </row>
     <row r="19" spans="1:16" ht="26.25" customHeight="1">
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="138"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="154"/>
       <c r="J19" s="20"/>
       <c r="K19" s="21" t="s">
         <v>61</v>
@@ -5847,23 +5847,23 @@
       <c r="L19" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="M19" s="137"/>
+      <c r="M19" s="151"/>
       <c r="N19" s="122"/>
       <c r="O19" s="122"/>
-      <c r="P19" s="138"/>
+      <c r="P19" s="154"/>
     </row>
     <row r="20" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A20" s="158" t="s">
+      <c r="A20" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="137"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="138"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="154"/>
       <c r="J20" s="20"/>
       <c r="K20" s="28" t="s">
         <v>64</v>
@@ -5871,25 +5871,25 @@
       <c r="L20" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="M20" s="137"/>
+      <c r="M20" s="151"/>
       <c r="N20" s="122"/>
       <c r="O20" s="122"/>
-      <c r="P20" s="138"/>
+      <c r="P20" s="154"/>
     </row>
     <row r="21" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A21" s="159" t="s">
+      <c r="A21" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="160"/>
+      <c r="B21" s="134"/>
       <c r="C21" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D21" s="175"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="138"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="154"/>
       <c r="J21" s="20"/>
       <c r="K21" s="28" t="s">
         <v>67</v>
@@ -5897,51 +5897,51 @@
       <c r="L21" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="M21" s="137"/>
+      <c r="M21" s="151"/>
       <c r="N21" s="122"/>
       <c r="O21" s="122"/>
-      <c r="P21" s="138"/>
+      <c r="P21" s="154"/>
     </row>
     <row r="22" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A22" s="159" t="s">
+      <c r="A22" s="133" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="160"/>
+      <c r="B22" s="134"/>
       <c r="C22" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D22" s="170"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="184"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="153" t="s">
+      <c r="D22" s="130"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="188" t="s">
         <v>70</v>
       </c>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="128"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="128"/>
-      <c r="P22" s="129"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="156"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="156"/>
+      <c r="O22" s="156"/>
+      <c r="P22" s="157"/>
     </row>
     <row r="23" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A23" s="159" t="s">
+      <c r="A23" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="160"/>
+      <c r="B23" s="134"/>
       <c r="C23" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D23" s="193" t="s">
+      <c r="D23" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="173"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="174"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="129"/>
       <c r="J23" s="20"/>
       <c r="K23" s="21" t="s">
         <v>73</v>
@@ -5949,25 +5949,25 @@
       <c r="L23" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="M23" s="146"/>
-      <c r="N23" s="135"/>
-      <c r="O23" s="135"/>
-      <c r="P23" s="136"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="180"/>
+      <c r="O23" s="180"/>
+      <c r="P23" s="153"/>
     </row>
     <row r="24" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A24" s="159" t="s">
+      <c r="A24" s="133" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="160"/>
+      <c r="B24" s="134"/>
       <c r="C24" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="D24" s="170"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="145"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="132"/>
       <c r="J24" s="20"/>
       <c r="K24" s="21" t="s">
         <v>76</v>
@@ -5978,26 +5978,26 @@
       <c r="M24" s="122"/>
       <c r="N24" s="122"/>
       <c r="O24" s="122"/>
-      <c r="P24" s="138"/>
+      <c r="P24" s="154"/>
     </row>
     <row r="25" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A25" s="161" t="s">
+      <c r="A25" s="175" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="156"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="D25" s="164" t="s">
+      <c r="D25" s="135" t="s">
         <v>79</v>
       </c>
       <c r="E25" s="122"/>
       <c r="F25" s="122"/>
-      <c r="G25" s="165"/>
-      <c r="H25" s="168" t="s">
+      <c r="G25" s="136"/>
+      <c r="H25" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="I25" s="169" t="b">
+      <c r="I25" s="141" t="b">
         <v>0</v>
       </c>
       <c r="J25" s="20"/>
@@ -6007,47 +6007,47 @@
       <c r="L25" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="M25" s="140"/>
-      <c r="N25" s="140"/>
-      <c r="O25" s="140"/>
-      <c r="P25" s="141"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="142"/>
     </row>
     <row r="26" spans="1:16" ht="26.25" customHeight="1">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="33"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="151" t="s">
+      <c r="D26" s="137"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="186" t="s">
         <v>83</v>
       </c>
-      <c r="K26" s="128"/>
-      <c r="L26" s="128"/>
-      <c r="M26" s="128"/>
-      <c r="N26" s="128"/>
-      <c r="O26" s="128"/>
-      <c r="P26" s="129"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="156"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="156"/>
+      <c r="P26" s="157"/>
     </row>
     <row r="27" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A27" s="162" t="s">
+      <c r="A27" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="131"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="164" t="s">
+      <c r="B27" s="167"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="135" t="s">
         <v>85</v>
       </c>
       <c r="E27" s="122"/>
       <c r="F27" s="122"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="168" t="s">
+      <c r="G27" s="136"/>
+      <c r="H27" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="I27" s="169" t="b">
+      <c r="I27" s="141" t="b">
         <v>0</v>
       </c>
       <c r="J27" s="20"/>
@@ -6057,25 +6057,25 @@
       <c r="L27" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="M27" s="147"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="135"/>
-      <c r="P27" s="136"/>
+      <c r="M27" s="182"/>
+      <c r="N27" s="180"/>
+      <c r="O27" s="180"/>
+      <c r="P27" s="153"/>
     </row>
     <row r="28" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A28" s="163" t="s">
+      <c r="A28" s="177" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="160"/>
+      <c r="B28" s="134"/>
       <c r="C28" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D28" s="166"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="141"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="142"/>
       <c r="J28" s="20"/>
       <c r="K28" s="21" t="s">
         <v>90</v>
@@ -6086,26 +6086,26 @@
       <c r="M28" s="122"/>
       <c r="N28" s="122"/>
       <c r="O28" s="122"/>
-      <c r="P28" s="138"/>
+      <c r="P28" s="154"/>
     </row>
     <row r="29" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A29" s="163" t="s">
+      <c r="A29" s="177" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="160"/>
+      <c r="B29" s="134"/>
       <c r="C29" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="D29" s="164" t="s">
+      <c r="D29" s="135" t="s">
         <v>93</v>
       </c>
       <c r="E29" s="122"/>
       <c r="F29" s="122"/>
-      <c r="G29" s="165"/>
-      <c r="H29" s="168" t="s">
+      <c r="G29" s="136"/>
+      <c r="H29" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="I29" s="169" t="b">
+      <c r="I29" s="141" t="b">
         <v>0</v>
       </c>
       <c r="J29" s="20"/>
@@ -6118,22 +6118,22 @@
       <c r="M29" s="122"/>
       <c r="N29" s="122"/>
       <c r="O29" s="122"/>
-      <c r="P29" s="138"/>
+      <c r="P29" s="154"/>
     </row>
     <row r="30" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A30" s="155" t="s">
+      <c r="A30" s="173" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="156"/>
+      <c r="B30" s="145"/>
       <c r="C30" s="35" t="b">
         <v>0</v>
       </c>
-      <c r="D30" s="166"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="141"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="142"/>
       <c r="J30" s="20"/>
       <c r="K30" s="21" t="s">
         <v>98</v>
@@ -6144,22 +6144,22 @@
       <c r="M30" s="122"/>
       <c r="N30" s="122"/>
       <c r="O30" s="122"/>
-      <c r="P30" s="138"/>
+      <c r="P30" s="154"/>
     </row>
     <row r="31" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A31" s="157"/>
+      <c r="A31" s="172"/>
       <c r="B31" s="122"/>
       <c r="C31" s="122"/>
-      <c r="D31" s="164" t="s">
+      <c r="D31" s="135" t="s">
         <v>100</v>
       </c>
       <c r="E31" s="122"/>
       <c r="F31" s="122"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="168" t="s">
+      <c r="G31" s="136"/>
+      <c r="H31" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="I31" s="169" t="b">
+      <c r="I31" s="141" t="b">
         <v>0</v>
       </c>
       <c r="J31" s="20"/>
@@ -6169,45 +6169,45 @@
       <c r="L31" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="M31" s="140"/>
-      <c r="N31" s="140"/>
-      <c r="O31" s="140"/>
-      <c r="P31" s="141"/>
+      <c r="M31" s="138"/>
+      <c r="N31" s="138"/>
+      <c r="O31" s="138"/>
+      <c r="P31" s="142"/>
     </row>
     <row r="32" spans="1:16" ht="26.25" customHeight="1">
       <c r="A32" s="122"/>
       <c r="B32" s="122"/>
       <c r="C32" s="122"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="152" t="s">
+      <c r="D32" s="137"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="187" t="s">
         <v>104</v>
       </c>
-      <c r="K32" s="128"/>
-      <c r="L32" s="128"/>
-      <c r="M32" s="128"/>
-      <c r="N32" s="128"/>
-      <c r="O32" s="128"/>
-      <c r="P32" s="129"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="156"/>
+      <c r="N32" s="156"/>
+      <c r="O32" s="156"/>
+      <c r="P32" s="157"/>
     </row>
     <row r="33" spans="1:16" ht="26.25" customHeight="1">
       <c r="A33" s="122"/>
       <c r="B33" s="122"/>
       <c r="C33" s="122"/>
-      <c r="D33" s="164" t="s">
+      <c r="D33" s="135" t="s">
         <v>105</v>
       </c>
       <c r="E33" s="122"/>
       <c r="F33" s="122"/>
-      <c r="G33" s="165"/>
-      <c r="H33" s="168" t="s">
+      <c r="G33" s="136"/>
+      <c r="H33" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="I33" s="169" t="b">
+      <c r="I33" s="141" t="b">
         <v>0</v>
       </c>
       <c r="J33" s="20"/>
@@ -6217,21 +6217,21 @@
       <c r="L33" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="M33" s="146"/>
-      <c r="N33" s="135"/>
-      <c r="O33" s="135"/>
-      <c r="P33" s="136"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="180"/>
+      <c r="O33" s="180"/>
+      <c r="P33" s="153"/>
     </row>
     <row r="34" spans="1:16" ht="26.25" customHeight="1">
       <c r="A34" s="122"/>
       <c r="B34" s="122"/>
       <c r="C34" s="122"/>
-      <c r="D34" s="166"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="167"/>
-      <c r="H34" s="167"/>
-      <c r="I34" s="141"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="142"/>
       <c r="J34" s="20"/>
       <c r="K34" s="21" t="s">
         <v>109</v>
@@ -6242,22 +6242,22 @@
       <c r="M34" s="122"/>
       <c r="N34" s="122"/>
       <c r="O34" s="122"/>
-      <c r="P34" s="138"/>
+      <c r="P34" s="154"/>
     </row>
     <row r="35" spans="1:16" ht="26.25" customHeight="1">
       <c r="A35" s="122"/>
       <c r="B35" s="122"/>
       <c r="C35" s="122"/>
-      <c r="D35" s="164" t="s">
+      <c r="D35" s="135" t="s">
         <v>110</v>
       </c>
       <c r="E35" s="122"/>
       <c r="F35" s="122"/>
-      <c r="G35" s="165"/>
-      <c r="H35" s="168" t="s">
+      <c r="G35" s="136"/>
+      <c r="H35" s="140" t="s">
         <v>111</v>
       </c>
-      <c r="I35" s="169" t="b">
+      <c r="I35" s="141" t="b">
         <v>0</v>
       </c>
       <c r="J35" s="20"/>
@@ -6270,18 +6270,18 @@
       <c r="M35" s="122"/>
       <c r="N35" s="122"/>
       <c r="O35" s="122"/>
-      <c r="P35" s="138"/>
+      <c r="P35" s="154"/>
     </row>
     <row r="36" spans="1:16" ht="26.25" customHeight="1">
       <c r="A36" s="122"/>
       <c r="B36" s="122"/>
       <c r="C36" s="122"/>
-      <c r="D36" s="166"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="140"/>
-      <c r="G36" s="167"/>
-      <c r="H36" s="167"/>
-      <c r="I36" s="141"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="139"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="142"/>
       <c r="J36" s="20"/>
       <c r="K36" s="21" t="s">
         <v>114</v>
@@ -6292,22 +6292,22 @@
       <c r="M36" s="122"/>
       <c r="N36" s="122"/>
       <c r="O36" s="122"/>
-      <c r="P36" s="138"/>
+      <c r="P36" s="154"/>
     </row>
     <row r="37" spans="1:16" ht="26.25" customHeight="1">
       <c r="A37" s="122"/>
       <c r="B37" s="122"/>
       <c r="C37" s="122"/>
-      <c r="D37" s="164" t="s">
+      <c r="D37" s="135" t="s">
         <v>116</v>
       </c>
       <c r="E37" s="122"/>
       <c r="F37" s="122"/>
-      <c r="G37" s="165"/>
-      <c r="H37" s="168" t="s">
+      <c r="G37" s="136"/>
+      <c r="H37" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="I37" s="169" t="b">
+      <c r="I37" s="141" t="b">
         <v>0</v>
       </c>
       <c r="J37" s="20"/>
@@ -6320,42 +6320,42 @@
       <c r="M37" s="122"/>
       <c r="N37" s="122"/>
       <c r="O37" s="122"/>
-      <c r="P37" s="138"/>
+      <c r="P37" s="154"/>
     </row>
     <row r="38" spans="1:16" ht="26.25" customHeight="1">
       <c r="A38" s="122"/>
       <c r="B38" s="122"/>
       <c r="C38" s="122"/>
-      <c r="D38" s="166"/>
-      <c r="E38" s="140"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="167"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="141"/>
-      <c r="J38" s="148" t="s">
+      <c r="D38" s="137"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="142"/>
+      <c r="J38" s="183" t="s">
         <v>119</v>
       </c>
-      <c r="K38" s="128"/>
-      <c r="L38" s="128"/>
-      <c r="M38" s="128"/>
-      <c r="N38" s="128"/>
-      <c r="O38" s="128"/>
-      <c r="P38" s="129"/>
+      <c r="K38" s="156"/>
+      <c r="L38" s="156"/>
+      <c r="M38" s="156"/>
+      <c r="N38" s="156"/>
+      <c r="O38" s="156"/>
+      <c r="P38" s="157"/>
     </row>
     <row r="39" spans="1:16" ht="26.25" customHeight="1">
       <c r="A39" s="122"/>
       <c r="B39" s="122"/>
       <c r="C39" s="122"/>
-      <c r="D39" s="164" t="s">
+      <c r="D39" s="135" t="s">
         <v>120</v>
       </c>
       <c r="E39" s="122"/>
       <c r="F39" s="122"/>
-      <c r="G39" s="165"/>
-      <c r="H39" s="168" t="s">
+      <c r="G39" s="136"/>
+      <c r="H39" s="140" t="s">
         <v>121</v>
       </c>
-      <c r="I39" s="169" t="b">
+      <c r="I39" s="141" t="b">
         <v>0</v>
       </c>
       <c r="J39" s="20"/>
@@ -6365,21 +6365,21 @@
       <c r="L39" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="M39" s="149"/>
+      <c r="M39" s="184"/>
       <c r="N39" s="122"/>
       <c r="O39" s="122"/>
-      <c r="P39" s="138"/>
+      <c r="P39" s="154"/>
     </row>
     <row r="40" spans="1:16" ht="26.25" customHeight="1">
       <c r="A40" s="122"/>
       <c r="B40" s="122"/>
       <c r="C40" s="122"/>
-      <c r="D40" s="166"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="167"/>
-      <c r="I40" s="141"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="139"/>
+      <c r="H40" s="139"/>
+      <c r="I40" s="142"/>
       <c r="J40" s="20"/>
       <c r="K40" s="21" t="s">
         <v>124</v>
@@ -6390,22 +6390,22 @@
       <c r="M40" s="122"/>
       <c r="N40" s="122"/>
       <c r="O40" s="122"/>
-      <c r="P40" s="138"/>
+      <c r="P40" s="154"/>
     </row>
     <row r="41" spans="1:16" ht="26.25" customHeight="1">
       <c r="A41" s="122"/>
       <c r="B41" s="122"/>
       <c r="C41" s="122"/>
-      <c r="D41" s="164" t="s">
+      <c r="D41" s="135" t="s">
         <v>126</v>
       </c>
       <c r="E41" s="122"/>
       <c r="F41" s="122"/>
-      <c r="G41" s="165"/>
-      <c r="H41" s="168" t="s">
+      <c r="G41" s="136"/>
+      <c r="H41" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="I41" s="169" t="b">
+      <c r="I41" s="141" t="b">
         <v>0</v>
       </c>
       <c r="J41" s="20"/>
@@ -6418,18 +6418,18 @@
       <c r="M41" s="122"/>
       <c r="N41" s="122"/>
       <c r="O41" s="122"/>
-      <c r="P41" s="138"/>
+      <c r="P41" s="154"/>
     </row>
     <row r="42" spans="1:16" ht="26.25" customHeight="1">
       <c r="A42" s="122"/>
       <c r="B42" s="122"/>
       <c r="C42" s="122"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="171"/>
-      <c r="H42" s="171"/>
-      <c r="I42" s="145"/>
+      <c r="D42" s="130"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="132"/>
       <c r="J42" s="20"/>
       <c r="K42" s="21" t="s">
         <v>130</v>
@@ -6437,30 +6437,30 @@
       <c r="L42" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="M42" s="140"/>
-      <c r="N42" s="140"/>
-      <c r="O42" s="140"/>
-      <c r="P42" s="141"/>
+      <c r="M42" s="138"/>
+      <c r="N42" s="138"/>
+      <c r="O42" s="138"/>
+      <c r="P42" s="142"/>
     </row>
     <row r="43" spans="1:16" ht="26.25" customHeight="1">
       <c r="A43" s="122"/>
       <c r="B43" s="122"/>
       <c r="C43" s="122"/>
-      <c r="D43" s="157"/>
+      <c r="D43" s="172"/>
       <c r="E43" s="122"/>
       <c r="F43" s="122"/>
       <c r="G43" s="122"/>
       <c r="H43" s="122"/>
       <c r="I43" s="122"/>
-      <c r="J43" s="150" t="s">
+      <c r="J43" s="185" t="s">
         <v>132</v>
       </c>
-      <c r="K43" s="128"/>
-      <c r="L43" s="128"/>
-      <c r="M43" s="128"/>
-      <c r="N43" s="128"/>
-      <c r="O43" s="128"/>
-      <c r="P43" s="129"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="156"/>
+      <c r="M43" s="156"/>
+      <c r="N43" s="156"/>
+      <c r="O43" s="156"/>
+      <c r="P43" s="157"/>
     </row>
     <row r="44" spans="1:16" ht="26.25" customHeight="1">
       <c r="A44" s="122"/>
@@ -6479,10 +6479,10 @@
       <c r="L44" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="M44" s="143"/>
+      <c r="M44" s="178"/>
       <c r="N44" s="122"/>
       <c r="O44" s="122"/>
-      <c r="P44" s="138"/>
+      <c r="P44" s="154"/>
     </row>
     <row r="45" spans="1:16" ht="26.25" customHeight="1">
       <c r="A45" s="122"/>
@@ -6504,7 +6504,7 @@
       <c r="M45" s="122"/>
       <c r="N45" s="122"/>
       <c r="O45" s="122"/>
-      <c r="P45" s="138"/>
+      <c r="P45" s="154"/>
     </row>
     <row r="46" spans="1:16" ht="26.25" customHeight="1">
       <c r="A46" s="122"/>
@@ -6526,7 +6526,7 @@
       <c r="M46" s="122"/>
       <c r="N46" s="122"/>
       <c r="O46" s="122"/>
-      <c r="P46" s="138"/>
+      <c r="P46" s="154"/>
     </row>
     <row r="47" spans="1:16" ht="26.25" customHeight="1">
       <c r="A47" s="122"/>
@@ -6545,10 +6545,10 @@
       <c r="L47" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="M47" s="140"/>
-      <c r="N47" s="140"/>
-      <c r="O47" s="140"/>
-      <c r="P47" s="141"/>
+      <c r="M47" s="138"/>
+      <c r="N47" s="138"/>
+      <c r="O47" s="138"/>
+      <c r="P47" s="142"/>
     </row>
     <row r="48" spans="1:16" ht="26.25" customHeight="1">
       <c r="A48" s="122"/>
@@ -6560,15 +6560,15 @@
       <c r="G48" s="122"/>
       <c r="H48" s="122"/>
       <c r="I48" s="122"/>
-      <c r="J48" s="154" t="s">
+      <c r="J48" s="189" t="s">
         <v>139</v>
       </c>
-      <c r="K48" s="128"/>
-      <c r="L48" s="128"/>
-      <c r="M48" s="128"/>
-      <c r="N48" s="128"/>
-      <c r="O48" s="128"/>
-      <c r="P48" s="129"/>
+      <c r="K48" s="156"/>
+      <c r="L48" s="156"/>
+      <c r="M48" s="156"/>
+      <c r="N48" s="156"/>
+      <c r="O48" s="156"/>
+      <c r="P48" s="157"/>
     </row>
     <row r="49" spans="1:16" ht="26.25" customHeight="1">
       <c r="A49" s="122"/>
@@ -6587,10 +6587,10 @@
       <c r="L49" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="M49" s="143"/>
+      <c r="M49" s="178"/>
       <c r="N49" s="122"/>
       <c r="O49" s="122"/>
-      <c r="P49" s="138"/>
+      <c r="P49" s="154"/>
     </row>
     <row r="50" spans="1:16" ht="26.25" customHeight="1">
       <c r="A50" s="122"/>
@@ -6612,7 +6612,7 @@
       <c r="M50" s="122"/>
       <c r="N50" s="122"/>
       <c r="O50" s="122"/>
-      <c r="P50" s="138"/>
+      <c r="P50" s="154"/>
     </row>
     <row r="51" spans="1:16" ht="26.25" customHeight="1">
       <c r="A51" s="122"/>
@@ -6634,7 +6634,7 @@
       <c r="M51" s="122"/>
       <c r="N51" s="122"/>
       <c r="O51" s="122"/>
-      <c r="P51" s="138"/>
+      <c r="P51" s="154"/>
     </row>
     <row r="52" spans="1:16" ht="26.25" customHeight="1">
       <c r="A52" s="122"/>
@@ -6656,7 +6656,7 @@
       <c r="M52" s="122"/>
       <c r="N52" s="122"/>
       <c r="O52" s="122"/>
-      <c r="P52" s="138"/>
+      <c r="P52" s="154"/>
     </row>
     <row r="53" spans="1:16" ht="26.25" customHeight="1">
       <c r="A53" s="122"/>
@@ -6678,7 +6678,7 @@
       <c r="M53" s="122"/>
       <c r="N53" s="122"/>
       <c r="O53" s="122"/>
-      <c r="P53" s="138"/>
+      <c r="P53" s="154"/>
     </row>
     <row r="54" spans="1:16" ht="26.25" customHeight="1">
       <c r="A54" s="122"/>
@@ -6700,7 +6700,7 @@
       <c r="M54" s="122"/>
       <c r="N54" s="122"/>
       <c r="O54" s="122"/>
-      <c r="P54" s="138"/>
+      <c r="P54" s="154"/>
     </row>
     <row r="55" spans="1:16" ht="26.25" customHeight="1">
       <c r="A55" s="122"/>
@@ -6722,7 +6722,7 @@
       <c r="M55" s="122"/>
       <c r="N55" s="122"/>
       <c r="O55" s="122"/>
-      <c r="P55" s="138"/>
+      <c r="P55" s="154"/>
     </row>
     <row r="56" spans="1:16" ht="26.25" customHeight="1">
       <c r="A56" s="122"/>
@@ -6734,15 +6734,15 @@
       <c r="G56" s="122"/>
       <c r="H56" s="122"/>
       <c r="I56" s="122"/>
-      <c r="J56" s="127" t="s">
+      <c r="J56" s="190" t="s">
         <v>150</v>
       </c>
-      <c r="K56" s="128"/>
-      <c r="L56" s="128"/>
-      <c r="M56" s="128"/>
-      <c r="N56" s="128"/>
-      <c r="O56" s="128"/>
-      <c r="P56" s="129"/>
+      <c r="K56" s="156"/>
+      <c r="L56" s="156"/>
+      <c r="M56" s="156"/>
+      <c r="N56" s="156"/>
+      <c r="O56" s="156"/>
+      <c r="P56" s="157"/>
     </row>
     <row r="57" spans="1:16" ht="26.25" customHeight="1">
       <c r="A57" s="122"/>
@@ -6761,10 +6761,10 @@
       <c r="L57" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="M57" s="143"/>
+      <c r="M57" s="178"/>
       <c r="N57" s="122"/>
       <c r="O57" s="122"/>
-      <c r="P57" s="138"/>
+      <c r="P57" s="154"/>
     </row>
     <row r="58" spans="1:16" ht="26.25" customHeight="1">
       <c r="A58" s="122"/>
@@ -6786,7 +6786,7 @@
       <c r="M58" s="122"/>
       <c r="N58" s="122"/>
       <c r="O58" s="122"/>
-      <c r="P58" s="138"/>
+      <c r="P58" s="154"/>
     </row>
     <row r="59" spans="1:16" ht="26.25" customHeight="1">
       <c r="A59" s="122"/>
@@ -6808,7 +6808,7 @@
       <c r="M59" s="122"/>
       <c r="N59" s="122"/>
       <c r="O59" s="122"/>
-      <c r="P59" s="138"/>
+      <c r="P59" s="154"/>
     </row>
     <row r="60" spans="1:16" ht="26.25" customHeight="1">
       <c r="A60" s="122"/>
@@ -6830,7 +6830,7 @@
       <c r="M60" s="122"/>
       <c r="N60" s="122"/>
       <c r="O60" s="122"/>
-      <c r="P60" s="138"/>
+      <c r="P60" s="154"/>
     </row>
     <row r="61" spans="1:16" ht="26.25" customHeight="1">
       <c r="A61" s="122"/>
@@ -6852,7 +6852,7 @@
       <c r="M61" s="122"/>
       <c r="N61" s="122"/>
       <c r="O61" s="122"/>
-      <c r="P61" s="138"/>
+      <c r="P61" s="154"/>
     </row>
     <row r="62" spans="1:16" ht="26.25" customHeight="1">
       <c r="A62" s="122"/>
@@ -6874,7 +6874,7 @@
       <c r="M62" s="122"/>
       <c r="N62" s="122"/>
       <c r="O62" s="122"/>
-      <c r="P62" s="138"/>
+      <c r="P62" s="154"/>
     </row>
     <row r="63" spans="1:16" ht="26.25" customHeight="1">
       <c r="A63" s="122"/>
@@ -6896,7 +6896,7 @@
       <c r="M63" s="122"/>
       <c r="N63" s="122"/>
       <c r="O63" s="122"/>
-      <c r="P63" s="138"/>
+      <c r="P63" s="154"/>
     </row>
     <row r="64" spans="1:16" ht="26.25" customHeight="1">
       <c r="A64" s="122"/>
@@ -6915,10 +6915,10 @@
       <c r="L64" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="M64" s="143"/>
+      <c r="M64" s="178"/>
       <c r="N64" s="122"/>
       <c r="O64" s="122"/>
-      <c r="P64" s="138"/>
+      <c r="P64" s="154"/>
     </row>
     <row r="65" spans="1:16" ht="26.25" customHeight="1">
       <c r="A65" s="122"/>
@@ -6940,7 +6940,7 @@
       <c r="M65" s="122"/>
       <c r="N65" s="122"/>
       <c r="O65" s="122"/>
-      <c r="P65" s="138"/>
+      <c r="P65" s="154"/>
     </row>
     <row r="66" spans="1:16" ht="26.25" customHeight="1">
       <c r="A66" s="122"/>
@@ -6962,7 +6962,7 @@
       <c r="M66" s="122"/>
       <c r="N66" s="122"/>
       <c r="O66" s="122"/>
-      <c r="P66" s="138"/>
+      <c r="P66" s="154"/>
     </row>
     <row r="67" spans="1:16" ht="26.25" customHeight="1">
       <c r="A67" s="122"/>
@@ -6984,7 +6984,7 @@
       <c r="M67" s="122"/>
       <c r="N67" s="122"/>
       <c r="O67" s="122"/>
-      <c r="P67" s="138"/>
+      <c r="P67" s="154"/>
     </row>
     <row r="68" spans="1:16" ht="26.25" customHeight="1">
       <c r="A68" s="122"/>
@@ -7006,7 +7006,7 @@
       <c r="M68" s="122"/>
       <c r="N68" s="122"/>
       <c r="O68" s="122"/>
-      <c r="P68" s="138"/>
+      <c r="P68" s="154"/>
     </row>
     <row r="69" spans="1:16" ht="26.25" customHeight="1">
       <c r="A69" s="122"/>
@@ -7028,7 +7028,7 @@
       <c r="M69" s="122"/>
       <c r="N69" s="122"/>
       <c r="O69" s="122"/>
-      <c r="P69" s="138"/>
+      <c r="P69" s="154"/>
     </row>
     <row r="70" spans="1:16" ht="26.25" customHeight="1">
       <c r="A70" s="122"/>
@@ -7047,10 +7047,10 @@
       <c r="L70" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="M70" s="144"/>
-      <c r="N70" s="144"/>
-      <c r="O70" s="144"/>
-      <c r="P70" s="145"/>
+      <c r="M70" s="131"/>
+      <c r="N70" s="131"/>
+      <c r="O70" s="131"/>
+      <c r="P70" s="132"/>
     </row>
     <row r="71" spans="1:16" ht="26.25" customHeight="1">
       <c r="A71" s="122"/>
@@ -7072,17 +7072,67 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="D23:I24"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:E22"/>
-    <mergeCell ref="F18:G22"/>
-    <mergeCell ref="H18:I22"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="J56:P56"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="M13:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="M57:P63"/>
+    <mergeCell ref="M64:P70"/>
+    <mergeCell ref="J71:P71"/>
+    <mergeCell ref="M18:P21"/>
+    <mergeCell ref="M23:P25"/>
+    <mergeCell ref="M27:P31"/>
+    <mergeCell ref="M33:P37"/>
+    <mergeCell ref="J38:P38"/>
+    <mergeCell ref="M39:P42"/>
+    <mergeCell ref="J43:P43"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="M44:P47"/>
+    <mergeCell ref="J48:P48"/>
+    <mergeCell ref="M49:P55"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:C71"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="D31:G32"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="D39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="D41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="D43:I71"/>
+    <mergeCell ref="D33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="D35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="D37:G38"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:L3"/>
+    <mergeCell ref="M1:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
     <mergeCell ref="K6:P6"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="F12:G16"/>
@@ -7099,67 +7149,17 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="J8:P10"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:L3"/>
-    <mergeCell ref="M1:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="D41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="D43:I71"/>
-    <mergeCell ref="D33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="D35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="D37:G38"/>
-    <mergeCell ref="D31:G32"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="D39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="D27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:C71"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="M57:P63"/>
-    <mergeCell ref="M64:P70"/>
-    <mergeCell ref="J71:P71"/>
-    <mergeCell ref="M18:P21"/>
-    <mergeCell ref="M23:P25"/>
-    <mergeCell ref="M27:P31"/>
-    <mergeCell ref="M33:P37"/>
-    <mergeCell ref="J38:P38"/>
-    <mergeCell ref="M39:P42"/>
-    <mergeCell ref="J43:P43"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="M44:P47"/>
-    <mergeCell ref="J48:P48"/>
-    <mergeCell ref="M49:P55"/>
-    <mergeCell ref="J56:P56"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="M13:P16"/>
-    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="D18:E22"/>
+    <mergeCell ref="F18:G22"/>
+    <mergeCell ref="H18:I22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D23:I24"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C7">
     <cfRule type="expression" dxfId="28" priority="4">
@@ -7303,8 +7303,8 @@
   </sheetPr>
   <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7349,12 +7349,12 @@
     </row>
     <row r="2" spans="1:24" ht="27" customHeight="1">
       <c r="A2" s="30"/>
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="199" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="181"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="147"/>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
       <c r="H2" s="30"/>
@@ -7377,55 +7377,55 @@
     </row>
     <row r="3" spans="1:24" ht="27" customHeight="1">
       <c r="A3" s="30"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="167"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
-      <c r="I3" s="196" t="s">
+      <c r="I3" s="195" t="s">
         <v>169</v>
       </c>
-      <c r="J3" s="198" t="s">
+      <c r="J3" s="197" t="s">
         <v>170</v>
       </c>
-      <c r="K3" s="181"/>
-      <c r="L3" s="196" t="s">
+      <c r="K3" s="147"/>
+      <c r="L3" s="195" t="s">
         <v>171</v>
       </c>
-      <c r="M3" s="196" t="s">
+      <c r="M3" s="195" t="s">
         <v>172</v>
       </c>
-      <c r="N3" s="196" t="s">
+      <c r="N3" s="195" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="196" t="s">
+      <c r="O3" s="195" t="s">
         <v>173</v>
       </c>
-      <c r="P3" s="196" t="s">
+      <c r="P3" s="195" t="s">
         <v>174</v>
       </c>
-      <c r="Q3" s="194" t="s">
+      <c r="Q3" s="200" t="s">
         <v>175</v>
       </c>
-      <c r="R3" s="194" t="s">
+      <c r="R3" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="S3" s="194" t="s">
+      <c r="S3" s="200" t="s">
         <v>177</v>
       </c>
-      <c r="T3" s="194" t="s">
+      <c r="T3" s="200" t="s">
         <v>178</v>
       </c>
-      <c r="U3" s="194" t="s">
+      <c r="U3" s="200" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="194"/>
-      <c r="W3" s="194" t="s">
+      <c r="V3" s="200"/>
+      <c r="W3" s="200" t="s">
         <v>173</v>
       </c>
-      <c r="X3" s="194" t="s">
+      <c r="X3" s="200" t="s">
         <v>180</v>
       </c>
     </row>
@@ -7438,22 +7438,22 @@
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
       <c r="H4" s="30"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="195"/>
-      <c r="M4" s="195"/>
-      <c r="N4" s="195"/>
-      <c r="O4" s="195"/>
-      <c r="P4" s="195"/>
-      <c r="Q4" s="195"/>
-      <c r="R4" s="195"/>
-      <c r="S4" s="195"/>
-      <c r="T4" s="195"/>
-      <c r="U4" s="195"/>
-      <c r="V4" s="195"/>
-      <c r="W4" s="195"/>
-      <c r="X4" s="195"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="196"/>
+      <c r="M4" s="196"/>
+      <c r="N4" s="196"/>
+      <c r="O4" s="196"/>
+      <c r="P4" s="196"/>
+      <c r="Q4" s="196"/>
+      <c r="R4" s="196"/>
+      <c r="S4" s="196"/>
+      <c r="T4" s="196"/>
+      <c r="U4" s="196"/>
+      <c r="V4" s="196"/>
+      <c r="W4" s="196"/>
+      <c r="X4" s="196"/>
     </row>
     <row r="5" spans="1:24" ht="21">
       <c r="A5" s="30"/>
@@ -7532,21 +7532,21 @@
     </row>
     <row r="6" spans="1:24" ht="21">
       <c r="A6" s="30"/>
-      <c r="B6" s="180" t="e">
+      <c r="B6" s="150" t="e">
         <f ca="1">_xludf.image("http://play.pokemonshowdown.com/sprites/gen5/"&amp;LOWER(B5)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C6" s="181"/>
-      <c r="D6" s="180" t="e">
+      <c r="C6" s="147"/>
+      <c r="D6" s="150" t="e">
         <f ca="1">_xludf.image("http://play.pokemonshowdown.com/sprites/gen5/"&amp;LOWER(D5)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E6" s="181"/>
-      <c r="F6" s="180" t="e">
+      <c r="E6" s="147"/>
+      <c r="F6" s="150" t="e">
         <f ca="1">_xludf.image("http://play.pokemonshowdown.com/sprites/gen5/"&amp;LOWER(F5)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G6" s="181"/>
+      <c r="G6" s="147"/>
       <c r="H6" s="51"/>
       <c r="I6" s="42" t="s">
         <v>135</v>
@@ -7596,12 +7596,12 @@
     </row>
     <row r="7" spans="1:24" ht="21">
       <c r="A7" s="30"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="165"/>
+      <c r="B7" s="151"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="136"/>
       <c r="H7" s="51"/>
       <c r="I7" s="42" t="s">
         <v>183</v>
@@ -7651,12 +7651,12 @@
     </row>
     <row r="8" spans="1:24" ht="21">
       <c r="A8" s="30"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="165"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="136"/>
       <c r="H8" s="51"/>
       <c r="I8" s="42" t="s">
         <v>46</v>
@@ -7706,12 +7706,12 @@
     </row>
     <row r="9" spans="1:24" ht="21">
       <c r="A9" s="30"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="165"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="136"/>
       <c r="H9" s="51"/>
       <c r="I9" s="42" t="s">
         <v>184</v>
@@ -7761,12 +7761,12 @@
     </row>
     <row r="10" spans="1:24" ht="21">
       <c r="A10" s="30"/>
-      <c r="B10" s="137"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="165"/>
+      <c r="B10" s="151"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="136"/>
       <c r="H10" s="51"/>
       <c r="I10" s="42" t="s">
         <v>49</v>
@@ -7816,12 +7816,12 @@
     </row>
     <row r="11" spans="1:24" ht="21">
       <c r="A11" s="30"/>
-      <c r="B11" s="137"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="165"/>
+      <c r="B11" s="151"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="136"/>
       <c r="H11" s="51"/>
       <c r="I11" s="42" t="s">
         <v>185</v>
@@ -7944,21 +7944,21 @@
     </row>
     <row r="13" spans="1:24" ht="21">
       <c r="A13" s="30"/>
-      <c r="B13" s="180" t="e">
+      <c r="B13" s="150" t="e">
         <f ca="1">_xludf.image("http://play.pokemonshowdown.com/sprites/gen5/"&amp;LOWER(B12)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="C13" s="181"/>
-      <c r="D13" s="180" t="e">
+      <c r="C13" s="147"/>
+      <c r="D13" s="150" t="e">
         <f ca="1">_xludf.image("http://play.pokemonshowdown.com/sprites/gen5/"&amp;LOWER(D12)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E13" s="181"/>
-      <c r="F13" s="180" t="e">
+      <c r="E13" s="147"/>
+      <c r="F13" s="150" t="e">
         <f ca="1">_xludf.image("http://play.pokemonshowdown.com/sprites/gen5/"&amp;LOWER(F12)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="G13" s="181"/>
+      <c r="G13" s="147"/>
       <c r="H13" s="51"/>
       <c r="I13" s="42" t="s">
         <v>186</v>
@@ -8008,12 +8008,12 @@
     </row>
     <row r="14" spans="1:24" ht="21">
       <c r="A14" s="30"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="165"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="136"/>
       <c r="H14" s="51"/>
       <c r="I14" s="53" t="s">
         <v>55</v>
@@ -8067,12 +8067,12 @@
     </row>
     <row r="15" spans="1:24" ht="21">
       <c r="A15" s="30"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="165"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="136"/>
       <c r="H15" s="51"/>
       <c r="I15" s="42" t="s">
         <v>82</v>
@@ -8122,12 +8122,12 @@
     </row>
     <row r="16" spans="1:24" ht="21">
       <c r="A16" s="30"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="165"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="136"/>
       <c r="H16" s="51"/>
       <c r="I16" s="42" t="s">
         <v>189</v>
@@ -8177,12 +8177,12 @@
     </row>
     <row r="17" spans="1:24" ht="21">
       <c r="A17" s="30"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="165"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="165"/>
+      <c r="B17" s="151"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="136"/>
       <c r="H17" s="51"/>
       <c r="I17" s="42" t="s">
         <v>478</v>
@@ -8232,12 +8232,12 @@
     </row>
     <row r="18" spans="1:24" ht="21">
       <c r="A18" s="30"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="165"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="136"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="136"/>
       <c r="H18" s="51"/>
       <c r="I18" s="42" t="s">
         <v>62</v>
@@ -8342,10 +8342,10 @@
     </row>
     <row r="20" spans="1:24" ht="21">
       <c r="A20" s="30"/>
-      <c r="B20" s="199" t="s">
+      <c r="B20" s="198" t="s">
         <v>190</v>
       </c>
-      <c r="C20" s="160"/>
+      <c r="C20" s="134"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
@@ -8598,17 +8598,17 @@
     </row>
     <row r="24" spans="1:24" ht="21">
       <c r="A24" s="30"/>
-      <c r="B24" s="199" t="s">
+      <c r="B24" s="198" t="s">
         <v>201</v>
       </c>
-      <c r="C24" s="160"/>
+      <c r="C24" s="134"/>
       <c r="D24" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="E24" s="199" t="s">
+      <c r="E24" s="198" t="s">
         <v>173</v>
       </c>
-      <c r="F24" s="160"/>
+      <c r="F24" s="134"/>
       <c r="G24" s="64" t="s">
         <v>179</v>
       </c>
@@ -8665,20 +8665,20 @@
         <f>IFERROR(VLOOKUP("D1",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C25" s="200" t="e">
+      <c r="C25" s="194" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B25)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D25" s="196" t="str">
+      <c r="D25" s="195" t="str">
         <f>IFERROR(VLOOKUP("D1",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E25" s="198" t="str">
+      <c r="E25" s="197" t="str">
         <f>IFERROR(VLOOKUP("D1",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F25" s="181"/>
-      <c r="G25" s="196" t="str">
+      <c r="F25" s="147"/>
+      <c r="G25" s="195" t="str">
         <f>IFERROR(VLOOKUP("D1",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -8735,11 +8735,11 @@
         <f>IFERROR(VLOOKUP("D1",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C26" s="167"/>
-      <c r="D26" s="195"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="195"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="196"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="196"/>
       <c r="H26" s="51"/>
       <c r="I26" s="53" t="s">
         <v>203</v>
@@ -8797,20 +8797,20 @@
         <f>IFERROR(VLOOKUP("D2",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C27" s="200" t="e">
+      <c r="C27" s="194" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B27)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D27" s="196" t="str">
+      <c r="D27" s="195" t="str">
         <f>IFERROR(VLOOKUP("D2",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="198" t="str">
+      <c r="E27" s="197" t="str">
         <f>IFERROR(VLOOKUP("D2",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F27" s="181"/>
-      <c r="G27" s="196" t="str">
+      <c r="F27" s="147"/>
+      <c r="G27" s="195" t="str">
         <f>IFERROR(VLOOKUP("D2",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -8867,11 +8867,11 @@
         <f>IFERROR(VLOOKUP("D2",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C28" s="167"/>
-      <c r="D28" s="195"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="195"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="196"/>
       <c r="H28" s="51"/>
       <c r="I28" s="42" t="s">
         <v>205</v>
@@ -8925,20 +8925,20 @@
         <f>IFERROR(VLOOKUP("D3",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C29" s="200" t="e">
+      <c r="C29" s="194" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B29)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D29" s="196" t="str">
+      <c r="D29" s="195" t="str">
         <f>IFERROR(VLOOKUP("D3",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="197" t="str">
         <f>IFERROR(VLOOKUP("D3",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F29" s="181"/>
-      <c r="G29" s="196" t="str">
+      <c r="F29" s="147"/>
+      <c r="G29" s="195" t="str">
         <f>IFERROR(VLOOKUP("D3",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -8995,11 +8995,11 @@
         <f>IFERROR(VLOOKUP("D3",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C30" s="167"/>
-      <c r="D30" s="195"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="195"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="196"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="196"/>
       <c r="H30" s="51"/>
       <c r="I30" s="42" t="s">
         <v>206</v>
@@ -9053,20 +9053,20 @@
         <f>IFERROR(VLOOKUP("D4",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C31" s="200" t="e">
+      <c r="C31" s="194" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B31)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D31" s="196" t="str">
+      <c r="D31" s="195" t="str">
         <f>IFERROR(VLOOKUP("D4",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="197" t="str">
         <f>IFERROR(VLOOKUP("D4",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F31" s="181"/>
-      <c r="G31" s="196" t="str">
+      <c r="F31" s="147"/>
+      <c r="G31" s="195" t="str">
         <f>IFERROR(VLOOKUP("D4",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -9123,11 +9123,11 @@
         <f>IFERROR(VLOOKUP("D4",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C32" s="167"/>
-      <c r="D32" s="195"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="195"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="196"/>
       <c r="H32" s="51"/>
       <c r="I32" s="42" t="s">
         <v>207</v>
@@ -9181,20 +9181,20 @@
         <f>IFERROR(VLOOKUP("D5",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C33" s="200" t="e">
+      <c r="C33" s="194" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B33)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D33" s="196" t="str">
+      <c r="D33" s="195" t="str">
         <f>IFERROR(VLOOKUP("D5",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E33" s="198" t="str">
+      <c r="E33" s="197" t="str">
         <f>IFERROR(VLOOKUP("D5",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F33" s="181"/>
-      <c r="G33" s="196" t="str">
+      <c r="F33" s="147"/>
+      <c r="G33" s="195" t="str">
         <f>IFERROR(VLOOKUP("D5",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -9251,11 +9251,11 @@
         <f>IFERROR(VLOOKUP("D5",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C34" s="167"/>
-      <c r="D34" s="195"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="195"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="196"/>
       <c r="H34" s="51"/>
       <c r="I34" s="42" t="s">
         <v>103</v>
@@ -9309,20 +9309,20 @@
         <f>IFERROR(VLOOKUP("D6",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C35" s="200" t="e">
+      <c r="C35" s="194" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B35)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D35" s="196" t="str">
+      <c r="D35" s="195" t="str">
         <f>IFERROR(VLOOKUP("D6",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="197" t="str">
         <f>IFERROR(VLOOKUP("D6",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F35" s="181"/>
-      <c r="G35" s="196" t="str">
+      <c r="F35" s="147"/>
+      <c r="G35" s="195" t="str">
         <f>IFERROR(VLOOKUP("D6",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -9383,11 +9383,11 @@
         <f>IFERROR(VLOOKUP("D6",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C36" s="167"/>
-      <c r="D36" s="195"/>
-      <c r="E36" s="139"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="195"/>
+      <c r="C36" s="139"/>
+      <c r="D36" s="196"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="196"/>
       <c r="H36" s="51"/>
       <c r="I36" s="42" t="s">
         <v>108</v>
@@ -9441,20 +9441,20 @@
         <f>IFERROR(VLOOKUP("D7",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C37" s="200" t="e">
+      <c r="C37" s="194" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B37)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D37" s="196" t="str">
+      <c r="D37" s="195" t="str">
         <f>IFERROR(VLOOKUP("D7",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E37" s="198" t="str">
+      <c r="E37" s="197" t="str">
         <f>IFERROR(VLOOKUP("D7",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F37" s="181"/>
-      <c r="G37" s="196" t="str">
+      <c r="F37" s="147"/>
+      <c r="G37" s="195" t="str">
         <f>IFERROR(VLOOKUP("D7",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -9515,11 +9515,11 @@
         <f>IFERROR(VLOOKUP("D7",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="195"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="195"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="139"/>
+      <c r="G38" s="196"/>
       <c r="H38" s="51"/>
       <c r="I38" s="42" t="s">
         <v>123</v>
@@ -9573,20 +9573,20 @@
         <f>IFERROR(VLOOKUP("D8",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C39" s="200" t="e">
+      <c r="C39" s="194" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B39)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D39" s="196" t="str">
+      <c r="D39" s="195" t="str">
         <f>IFERROR(VLOOKUP("D8",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E39" s="198" t="str">
+      <c r="E39" s="197" t="str">
         <f>IFERROR(VLOOKUP("D8",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F39" s="181"/>
-      <c r="G39" s="196" t="str">
+      <c r="F39" s="147"/>
+      <c r="G39" s="195" t="str">
         <f>IFERROR(VLOOKUP("D8",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -9643,11 +9643,11 @@
         <f>IFERROR(VLOOKUP("D8",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C40" s="167"/>
-      <c r="D40" s="195"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="195"/>
+      <c r="C40" s="139"/>
+      <c r="D40" s="196"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="139"/>
+      <c r="G40" s="196"/>
       <c r="H40" s="51"/>
       <c r="I40" s="42" t="s">
         <v>211</v>
@@ -9701,20 +9701,20 @@
         <f>IFERROR(VLOOKUP("D9",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C41" s="200" t="e">
+      <c r="C41" s="194" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B41)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D41" s="196" t="str">
+      <c r="D41" s="195" t="str">
         <f>IFERROR(VLOOKUP("D9",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E41" s="198" t="str">
+      <c r="E41" s="197" t="str">
         <f>IFERROR(VLOOKUP("D9",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F41" s="181"/>
-      <c r="G41" s="196" t="str">
+      <c r="F41" s="147"/>
+      <c r="G41" s="195" t="str">
         <f>IFERROR(VLOOKUP("D9",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -9771,11 +9771,11 @@
         <f>IFERROR(VLOOKUP("D9",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C42" s="167"/>
-      <c r="D42" s="195"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="167"/>
-      <c r="G42" s="195"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="196"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="196"/>
       <c r="H42" s="51"/>
       <c r="I42" s="42" t="s">
         <v>213</v>
@@ -9829,20 +9829,20 @@
         <f>IFERROR(VLOOKUP("D10",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C43" s="200" t="e">
+      <c r="C43" s="194" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B43)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D43" s="196" t="str">
+      <c r="D43" s="195" t="str">
         <f>IFERROR(VLOOKUP("D10",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E43" s="198" t="str">
+      <c r="E43" s="197" t="str">
         <f>IFERROR(VLOOKUP("D10",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F43" s="181"/>
-      <c r="G43" s="196" t="str">
+      <c r="F43" s="147"/>
+      <c r="G43" s="195" t="str">
         <f>IFERROR(VLOOKUP("D10",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -9899,11 +9899,11 @@
         <f>IFERROR(VLOOKUP("D10",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C44" s="167"/>
-      <c r="D44" s="195"/>
-      <c r="E44" s="139"/>
-      <c r="F44" s="167"/>
-      <c r="G44" s="195"/>
+      <c r="C44" s="139"/>
+      <c r="D44" s="196"/>
+      <c r="E44" s="159"/>
+      <c r="F44" s="139"/>
+      <c r="G44" s="196"/>
       <c r="H44" s="51"/>
       <c r="I44" s="42" t="s">
         <v>215</v>
@@ -9957,20 +9957,20 @@
         <f>IFERROR(VLOOKUP("D11",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C45" s="200" t="e">
+      <c r="C45" s="194" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B45)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D45" s="196" t="str">
+      <c r="D45" s="195" t="str">
         <f>IFERROR(VLOOKUP("D11",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E45" s="198" t="str">
+      <c r="E45" s="197" t="str">
         <f>IFERROR(VLOOKUP("D11",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F45" s="181"/>
-      <c r="G45" s="196" t="str">
+      <c r="F45" s="147"/>
+      <c r="G45" s="195" t="str">
         <f>IFERROR(VLOOKUP("D11",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -10027,11 +10027,11 @@
         <f>IFERROR(VLOOKUP("D11",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C46" s="167"/>
-      <c r="D46" s="195"/>
-      <c r="E46" s="139"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="195"/>
+      <c r="C46" s="139"/>
+      <c r="D46" s="196"/>
+      <c r="E46" s="159"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="196"/>
       <c r="H46" s="51"/>
       <c r="I46" s="42" t="s">
         <v>217</v>
@@ -10085,20 +10085,20 @@
         <f>IFERROR(VLOOKUP("D12",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C47" s="200" t="e">
+      <c r="C47" s="194" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B47)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D47" s="196" t="str">
+      <c r="D47" s="195" t="str">
         <f>IFERROR(VLOOKUP("D12",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E47" s="198" t="str">
+      <c r="E47" s="197" t="str">
         <f>IFERROR(VLOOKUP("D12",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F47" s="181"/>
-      <c r="G47" s="196" t="str">
+      <c r="F47" s="147"/>
+      <c r="G47" s="195" t="str">
         <f>IFERROR(VLOOKUP("D12",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -10155,11 +10155,11 @@
         <f>IFERROR(VLOOKUP("D12",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C48" s="167"/>
-      <c r="D48" s="195"/>
-      <c r="E48" s="139"/>
-      <c r="F48" s="167"/>
-      <c r="G48" s="195"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="196"/>
+      <c r="E48" s="159"/>
+      <c r="F48" s="139"/>
+      <c r="G48" s="196"/>
       <c r="H48" s="51"/>
       <c r="I48" s="42" t="s">
         <v>218</v>
@@ -10213,20 +10213,20 @@
         <f>IFERROR(VLOOKUP("D13",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C49" s="200" t="e">
+      <c r="C49" s="194" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B49)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D49" s="196" t="str">
+      <c r="D49" s="195" t="str">
         <f>IFERROR(VLOOKUP("D13",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E49" s="198" t="str">
+      <c r="E49" s="197" t="str">
         <f>IFERROR(VLOOKUP("D13",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F49" s="181"/>
-      <c r="G49" s="196" t="str">
+      <c r="F49" s="147"/>
+      <c r="G49" s="195" t="str">
         <f>IFERROR(VLOOKUP("D13",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -10283,11 +10283,11 @@
         <f>IFERROR(VLOOKUP("D13",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C50" s="167"/>
-      <c r="D50" s="195"/>
-      <c r="E50" s="139"/>
-      <c r="F50" s="167"/>
-      <c r="G50" s="195"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="196"/>
+      <c r="E50" s="159"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="196"/>
       <c r="H50" s="51"/>
       <c r="I50" s="42" t="s">
         <v>220</v>
@@ -10341,20 +10341,20 @@
         <f>IFERROR(VLOOKUP("D14",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C51" s="200" t="e">
+      <c r="C51" s="194" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B51)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D51" s="196" t="str">
+      <c r="D51" s="195" t="str">
         <f>IFERROR(VLOOKUP("D14",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E51" s="198" t="str">
+      <c r="E51" s="197" t="str">
         <f>IFERROR(VLOOKUP("D14",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F51" s="181"/>
-      <c r="G51" s="196" t="str">
+      <c r="F51" s="147"/>
+      <c r="G51" s="195" t="str">
         <f>IFERROR(VLOOKUP("D14",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -10411,11 +10411,11 @@
         <f>IFERROR(VLOOKUP("D14",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C52" s="167"/>
-      <c r="D52" s="195"/>
-      <c r="E52" s="139"/>
-      <c r="F52" s="167"/>
-      <c r="G52" s="195"/>
+      <c r="C52" s="139"/>
+      <c r="D52" s="196"/>
+      <c r="E52" s="159"/>
+      <c r="F52" s="139"/>
+      <c r="G52" s="196"/>
       <c r="H52" s="51"/>
       <c r="I52" s="42" t="s">
         <v>222</v>
@@ -10469,20 +10469,20 @@
         <f>IFERROR(VLOOKUP("D15",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C53" s="200" t="e">
+      <c r="C53" s="194" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B53)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D53" s="196" t="str">
+      <c r="D53" s="195" t="str">
         <f>IFERROR(VLOOKUP("D15",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E53" s="198" t="str">
+      <c r="E53" s="197" t="str">
         <f>IFERROR(VLOOKUP("D15",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F53" s="181"/>
-      <c r="G53" s="196" t="str">
+      <c r="F53" s="147"/>
+      <c r="G53" s="195" t="str">
         <f>IFERROR(VLOOKUP("D15",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -10539,11 +10539,11 @@
         <f>IFERROR(VLOOKUP("D15",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C54" s="167"/>
-      <c r="D54" s="195"/>
-      <c r="E54" s="139"/>
-      <c r="F54" s="167"/>
-      <c r="G54" s="195"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="196"/>
+      <c r="E54" s="159"/>
+      <c r="F54" s="139"/>
+      <c r="G54" s="196"/>
       <c r="H54" s="51"/>
       <c r="I54" s="42" t="s">
         <v>137</v>
@@ -10597,20 +10597,20 @@
         <f>IFERROR(VLOOKUP("D16",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C55" s="200" t="e">
+      <c r="C55" s="194" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B55)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D55" s="196" t="str">
+      <c r="D55" s="195" t="str">
         <f>IFERROR(VLOOKUP("D16",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E55" s="198" t="str">
+      <c r="E55" s="197" t="str">
         <f>IFERROR(VLOOKUP("D16",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F55" s="181"/>
-      <c r="G55" s="196" t="str">
+      <c r="F55" s="147"/>
+      <c r="G55" s="195" t="str">
         <f>IFERROR(VLOOKUP("D16",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -10667,11 +10667,11 @@
         <f>IFERROR(VLOOKUP("D16",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C56" s="167"/>
-      <c r="D56" s="195"/>
-      <c r="E56" s="139"/>
-      <c r="F56" s="167"/>
-      <c r="G56" s="195"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="196"/>
+      <c r="E56" s="159"/>
+      <c r="F56" s="139"/>
+      <c r="G56" s="196"/>
       <c r="H56" s="51"/>
       <c r="I56" s="42" t="s">
         <v>225</v>
@@ -10725,20 +10725,20 @@
         <f>IFERROR(VLOOKUP("D17",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C57" s="200" t="e">
+      <c r="C57" s="194" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B57)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D57" s="196" t="str">
+      <c r="D57" s="195" t="str">
         <f>IFERROR(VLOOKUP("D17",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E57" s="198" t="str">
+      <c r="E57" s="197" t="str">
         <f>IFERROR(VLOOKUP("D17",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F57" s="181"/>
-      <c r="G57" s="196" t="str">
+      <c r="F57" s="147"/>
+      <c r="G57" s="195" t="str">
         <f>IFERROR(VLOOKUP("D17",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -10795,11 +10795,11 @@
         <f>IFERROR(VLOOKUP("D17",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C58" s="167"/>
-      <c r="D58" s="195"/>
-      <c r="E58" s="139"/>
-      <c r="F58" s="167"/>
-      <c r="G58" s="195"/>
+      <c r="C58" s="139"/>
+      <c r="D58" s="196"/>
+      <c r="E58" s="159"/>
+      <c r="F58" s="139"/>
+      <c r="G58" s="196"/>
       <c r="H58" s="51"/>
       <c r="I58" s="42" t="s">
         <v>134</v>
@@ -10853,20 +10853,20 @@
         <f>IFERROR(VLOOKUP("D18",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C59" s="200" t="e">
+      <c r="C59" s="194" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B59)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D59" s="196" t="str">
+      <c r="D59" s="195" t="str">
         <f>IFERROR(VLOOKUP("D18",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E59" s="198" t="str">
+      <c r="E59" s="197" t="str">
         <f>IFERROR(VLOOKUP("D18",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F59" s="181"/>
-      <c r="G59" s="196" t="str">
+      <c r="F59" s="147"/>
+      <c r="G59" s="195" t="str">
         <f>IFERROR(VLOOKUP("D18",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -10923,11 +10923,11 @@
         <f>IFERROR(VLOOKUP("D18",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C60" s="167"/>
-      <c r="D60" s="195"/>
-      <c r="E60" s="139"/>
-      <c r="F60" s="167"/>
-      <c r="G60" s="195"/>
+      <c r="C60" s="139"/>
+      <c r="D60" s="196"/>
+      <c r="E60" s="159"/>
+      <c r="F60" s="139"/>
+      <c r="G60" s="196"/>
       <c r="H60" s="51"/>
       <c r="I60" s="42" t="s">
         <v>144</v>
@@ -10981,20 +10981,20 @@
         <f>IFERROR(VLOOKUP("D19",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C61" s="200" t="e">
+      <c r="C61" s="194" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B61)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D61" s="196" t="str">
+      <c r="D61" s="195" t="str">
         <f>IFERROR(VLOOKUP("D19",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E61" s="198" t="str">
+      <c r="E61" s="197" t="str">
         <f>IFERROR(VLOOKUP("D19",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F61" s="181"/>
-      <c r="G61" s="196" t="str">
+      <c r="F61" s="147"/>
+      <c r="G61" s="195" t="str">
         <f>IFERROR(VLOOKUP("D19",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -11051,11 +11051,11 @@
         <f>IFERROR(VLOOKUP("D19",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C62" s="167"/>
-      <c r="D62" s="195"/>
-      <c r="E62" s="139"/>
-      <c r="F62" s="167"/>
-      <c r="G62" s="195"/>
+      <c r="C62" s="139"/>
+      <c r="D62" s="196"/>
+      <c r="E62" s="159"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="196"/>
       <c r="H62" s="51"/>
       <c r="I62" s="42" t="s">
         <v>229</v>
@@ -11109,20 +11109,20 @@
         <f>IFERROR(VLOOKUP("D20",$Q$5:$X$66,4,0),"")</f>
         <v/>
       </c>
-      <c r="C63" s="200" t="e">
+      <c r="C63" s="194" t="e">
         <f ca="1">_xludf.image("https://img.pokemondb.net/sprites/sun-moon/icon/"&amp;LOWER(B63)&amp;".png", 1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D63" s="196" t="str">
+      <c r="D63" s="195" t="str">
         <f>IFERROR(VLOOKUP("D20",$Q$5:$X$66,8,0),"")</f>
         <v/>
       </c>
-      <c r="E63" s="198" t="str">
+      <c r="E63" s="197" t="str">
         <f>IFERROR(VLOOKUP("D20",$Q$5:$X$66,7,0),"")</f>
         <v/>
       </c>
-      <c r="F63" s="181"/>
-      <c r="G63" s="196" t="str">
+      <c r="F63" s="147"/>
+      <c r="G63" s="195" t="str">
         <f>IFERROR(VLOOKUP("D20",$Q$5:$X$66,5,0),"")</f>
         <v/>
       </c>
@@ -11179,11 +11179,11 @@
         <f>IFERROR(VLOOKUP("D20",$Q$5:$X$66,3,0),"")</f>
         <v/>
       </c>
-      <c r="C64" s="167"/>
-      <c r="D64" s="195"/>
-      <c r="E64" s="139"/>
-      <c r="F64" s="167"/>
-      <c r="G64" s="195"/>
+      <c r="C64" s="139"/>
+      <c r="D64" s="196"/>
+      <c r="E64" s="159"/>
+      <c r="F64" s="139"/>
+      <c r="G64" s="196"/>
       <c r="H64" s="51"/>
       <c r="I64" s="42" t="s">
         <v>230</v>
@@ -11359,6 +11359,87 @@
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="B6:C11"/>
+    <mergeCell ref="D6:E11"/>
+    <mergeCell ref="F6:G11"/>
+    <mergeCell ref="B13:C18"/>
+    <mergeCell ref="D13:E18"/>
+    <mergeCell ref="F13:G18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:F60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:F54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:F58"/>
     <mergeCell ref="C61:C62"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="E61:F62"/>
@@ -11383,87 +11464,6 @@
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="E51:F52"/>
     <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:F60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:F54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:F58"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B13:C18"/>
-    <mergeCell ref="D13:E18"/>
-    <mergeCell ref="F13:G18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="B6:C11"/>
-    <mergeCell ref="D6:E11"/>
-    <mergeCell ref="F6:G11"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <conditionalFormatting sqref="N5:N67">
     <cfRule type="expression" dxfId="3" priority="1">
@@ -11529,7 +11529,7 @@
       <formula1>"Turtwig,Chimchar,Piplup"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J47" xr:uid="{00000000-0002-0000-0200-000010000000}">
-      <formula1>"Mr. Mime,Floatzel,Shellos,Magikarp,Finneon,Heracross,Wurmple,Burmy,Combee,Cherubi"</formula1>
+      <formula1>"Mr-Mime,Floatzel,Shellos,Magikarp,Finneon,Heracross,Wurmple,Burmy,Combee,Cherubi"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J28" xr:uid="{00000000-0002-0000-0200-000011000000}">
       <formula1>"Eevee"</formula1>
@@ -13219,35 +13219,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="201" t="s">
+      <c r="A1" s="220" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="202" t="s">
+      <c r="B1" s="129"/>
+      <c r="C1" s="213" t="s">
         <v>337</v>
       </c>
-      <c r="D1" s="205">
+      <c r="D1" s="221">
         <f>SUM(B6:B13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="175"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="206"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="217"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="175"/>
-      <c r="B3" s="138"/>
-      <c r="C3" s="203"/>
-      <c r="D3" s="206"/>
+      <c r="A3" s="148"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="217"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="170"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="207"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="218"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="77"/>
@@ -13263,10 +13263,10 @@
         <f>C56</f>
         <v>0</v>
       </c>
-      <c r="C6" s="202" t="s">
+      <c r="C6" s="213" t="s">
         <v>339</v>
       </c>
-      <c r="D6" s="205" t="str">
+      <c r="D6" s="221" t="str">
         <f>IF(B18="YES", "YES", "NO")</f>
         <v>NO</v>
       </c>
@@ -13279,8 +13279,8 @@
         <f>C65</f>
         <v>0</v>
       </c>
-      <c r="C7" s="203"/>
-      <c r="D7" s="206"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="217"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="83" t="s">
@@ -13290,8 +13290,8 @@
         <f>C16</f>
         <v>0</v>
       </c>
-      <c r="C8" s="203"/>
-      <c r="D8" s="206"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="217"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="83" t="s">
@@ -13301,8 +13301,8 @@
         <f>C25</f>
         <v>0</v>
       </c>
-      <c r="C9" s="204"/>
-      <c r="D9" s="207"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="218"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="83" t="s">
@@ -13312,10 +13312,10 @@
         <f>C32</f>
         <v>0</v>
       </c>
-      <c r="C10" s="202" t="s">
+      <c r="C10" s="213" t="s">
         <v>344</v>
       </c>
-      <c r="D10" s="211">
+      <c r="D10" s="216">
         <f>IF(D6="YES",(D1*1.5),D1)</f>
         <v>0</v>
       </c>
@@ -13328,8 +13328,8 @@
         <f>C42</f>
         <v>0</v>
       </c>
-      <c r="C11" s="203"/>
-      <c r="D11" s="206"/>
+      <c r="C11" s="214"/>
+      <c r="D11" s="217"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="83" t="s">
@@ -13339,8 +13339,8 @@
         <f>C47</f>
         <v>0</v>
       </c>
-      <c r="C12" s="203"/>
-      <c r="D12" s="206"/>
+      <c r="C12" s="214"/>
+      <c r="D12" s="217"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="84" t="s">
@@ -13350,8 +13350,8 @@
         <f>C53</f>
         <v>0</v>
       </c>
-      <c r="C13" s="204"/>
-      <c r="D13" s="207"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="218"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="77"/>
@@ -13360,12 +13360,12 @@
       <c r="D14" s="78"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="208" t="s">
+      <c r="A15" s="201" t="s">
         <v>348</v>
       </c>
-      <c r="B15" s="209"/>
-      <c r="C15" s="209"/>
-      <c r="D15" s="210"/>
+      <c r="B15" s="202"/>
+      <c r="C15" s="202"/>
+      <c r="D15" s="203"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="86" t="s">
@@ -13375,11 +13375,11 @@
         <f>IF(Tracker!C12=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C16" s="212">
+      <c r="C16" s="219">
         <f>B16+B17+IF(OR(B19="YES",B20="YES",B21="YES",B22="YES"),100)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="174"/>
+      <c r="D16" s="129"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="86" t="s">
@@ -13389,8 +13389,8 @@
         <f>IF(Tracker!C13=TRUE, "200", "0")</f>
         <v>0</v>
       </c>
-      <c r="C17" s="175"/>
-      <c r="D17" s="138"/>
+      <c r="C17" s="148"/>
+      <c r="D17" s="154"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="88" t="s">
@@ -13400,8 +13400,8 @@
         <f>IF(Tracker!C14=TRUE, "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="C18" s="175"/>
-      <c r="D18" s="138"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="154"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="88" t="s">
@@ -13411,8 +13411,8 @@
         <f>IF(Tracker!C15=TRUE, "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="C19" s="175"/>
-      <c r="D19" s="138"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="154"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="88" t="s">
@@ -13422,8 +13422,8 @@
         <f>IF(Tracker!C16=TRUE, "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="C20" s="175"/>
-      <c r="D20" s="138"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="154"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="88" t="s">
@@ -13433,8 +13433,8 @@
         <f>IF(Tracker!C17=TRUE, "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="C21" s="175"/>
-      <c r="D21" s="138"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="154"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="88" t="s">
@@ -13444,8 +13444,8 @@
         <f>IF(Tracker!C18=TRUE, "YES", "NO")</f>
         <v>NO</v>
       </c>
-      <c r="C22" s="170"/>
-      <c r="D22" s="145"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="132"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="77"/>
@@ -13454,12 +13454,12 @@
       <c r="D23" s="78"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="208" t="s">
+      <c r="A24" s="201" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="209"/>
-      <c r="C24" s="209"/>
-      <c r="D24" s="210"/>
+      <c r="B24" s="202"/>
+      <c r="C24" s="202"/>
+      <c r="D24" s="203"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="90" t="s">
@@ -13469,11 +13469,11 @@
         <f>IF(Tracker!C21=TRUE, "40", "0")</f>
         <v>0</v>
       </c>
-      <c r="C25" s="213">
+      <c r="C25" s="210">
         <f>B25+B26+B27+B28+B29</f>
         <v>0</v>
       </c>
-      <c r="D25" s="174"/>
+      <c r="D25" s="129"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="90" t="s">
@@ -13483,8 +13483,8 @@
         <f>IF(Tracker!C22=TRUE, "40", "0")</f>
         <v>0</v>
       </c>
-      <c r="C26" s="175"/>
-      <c r="D26" s="138"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="154"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="92" t="s">
@@ -13494,8 +13494,8 @@
         <f>IF(Tracker!C23=TRUE, "40", "0")</f>
         <v>0</v>
       </c>
-      <c r="C27" s="175"/>
-      <c r="D27" s="138"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="154"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="92" t="s">
@@ -13505,8 +13505,8 @@
         <f>IF(Tracker!C24=TRUE, "40", "0")</f>
         <v>0</v>
       </c>
-      <c r="C28" s="175"/>
-      <c r="D28" s="138"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="154"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="92" t="s">
@@ -13516,8 +13516,8 @@
         <f>IF(Tracker!C25=TRUE, "40", "0")</f>
         <v>0</v>
       </c>
-      <c r="C29" s="170"/>
-      <c r="D29" s="145"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="132"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="77"/>
@@ -13526,12 +13526,12 @@
       <c r="D30" s="78"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="208" t="s">
+      <c r="A31" s="201" t="s">
         <v>359</v>
       </c>
-      <c r="B31" s="209"/>
-      <c r="C31" s="209"/>
-      <c r="D31" s="210"/>
+      <c r="B31" s="202"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="203"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="93" t="s">
@@ -13541,11 +13541,11 @@
         <f>IF(Tracker!C7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C32" s="214">
+      <c r="C32" s="211">
         <f>B32+B33+B34+B35+B36+B37+B38+B39</f>
         <v>0</v>
       </c>
-      <c r="D32" s="174"/>
+      <c r="D32" s="129"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="95" t="s">
@@ -13555,8 +13555,8 @@
         <f>IF(Tracker!D7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C33" s="175"/>
-      <c r="D33" s="138"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="154"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="95" t="s">
@@ -13566,8 +13566,8 @@
         <f>IF(Tracker!E7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C34" s="175"/>
-      <c r="D34" s="138"/>
+      <c r="C34" s="148"/>
+      <c r="D34" s="154"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="95" t="s">
@@ -13577,8 +13577,8 @@
         <f>IF(Tracker!F7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C35" s="175"/>
-      <c r="D35" s="138"/>
+      <c r="C35" s="148"/>
+      <c r="D35" s="154"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="95" t="s">
@@ -13588,8 +13588,8 @@
         <f>IF(Tracker!G7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C36" s="175"/>
-      <c r="D36" s="138"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="154"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="95" t="s">
@@ -13599,8 +13599,8 @@
         <f>IF(Tracker!H7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C37" s="175"/>
-      <c r="D37" s="138"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="154"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="96" t="s">
@@ -13610,8 +13610,8 @@
         <f>IF(Tracker!I7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C38" s="175"/>
-      <c r="D38" s="138"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="154"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="97" t="s">
@@ -13621,8 +13621,8 @@
         <f>IF(Tracker!J7=TRUE, "60", "0")</f>
         <v>0</v>
       </c>
-      <c r="C39" s="170"/>
-      <c r="D39" s="145"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="132"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="77"/>
@@ -13631,12 +13631,12 @@
       <c r="D40" s="78"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="208" t="s">
+      <c r="A41" s="201" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="209"/>
-      <c r="C41" s="209"/>
-      <c r="D41" s="210"/>
+      <c r="B41" s="202"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="203"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="98" t="s">
@@ -13646,11 +13646,11 @@
         <f>IF(Tracker!C28=TRUE, "20", "0")</f>
         <v>0</v>
       </c>
-      <c r="C42" s="218">
+      <c r="C42" s="206">
         <f>B42+B43+B44</f>
         <v>0</v>
       </c>
-      <c r="D42" s="174"/>
+      <c r="D42" s="129"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="98" t="s">
@@ -13660,8 +13660,8 @@
         <f>IF(Tracker!C29=TRUE, "20", "0")</f>
         <v>0</v>
       </c>
-      <c r="C43" s="175"/>
-      <c r="D43" s="138"/>
+      <c r="C43" s="148"/>
+      <c r="D43" s="154"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="100" t="s">
@@ -13671,8 +13671,8 @@
         <f>IF(Tracker!C30=TRUE, "20", "0")</f>
         <v>0</v>
       </c>
-      <c r="C44" s="170"/>
-      <c r="D44" s="145"/>
+      <c r="C44" s="130"/>
+      <c r="D44" s="132"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="77"/>
@@ -13681,12 +13681,12 @@
       <c r="D45" s="78"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="208" t="s">
+      <c r="A46" s="201" t="s">
         <v>364</v>
       </c>
-      <c r="B46" s="209"/>
-      <c r="C46" s="209"/>
-      <c r="D46" s="210"/>
+      <c r="B46" s="202"/>
+      <c r="C46" s="202"/>
+      <c r="D46" s="203"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="101" t="s">
@@ -13696,11 +13696,11 @@
         <f>IF(Tracker!K7=TRUE, "80", "0")</f>
         <v>0</v>
       </c>
-      <c r="C47" s="219">
+      <c r="C47" s="207">
         <f>B47+B48+B49+B50</f>
         <v>0</v>
       </c>
-      <c r="D47" s="174"/>
+      <c r="D47" s="129"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="103" t="s">
@@ -13710,8 +13710,8 @@
         <f>IF(Tracker!L7=TRUE, "80", "0")</f>
         <v>0</v>
       </c>
-      <c r="C48" s="175"/>
-      <c r="D48" s="138"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="154"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="103" t="s">
@@ -13721,8 +13721,8 @@
         <f>IF(Tracker!M7=TRUE, "80", "0")</f>
         <v>0</v>
       </c>
-      <c r="C49" s="175"/>
-      <c r="D49" s="138"/>
+      <c r="C49" s="148"/>
+      <c r="D49" s="154"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="103" t="s">
@@ -13732,8 +13732,8 @@
         <f>IF(Tracker!N7=TRUE, "80", "0")</f>
         <v>0</v>
       </c>
-      <c r="C50" s="170"/>
-      <c r="D50" s="145"/>
+      <c r="C50" s="130"/>
+      <c r="D50" s="132"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="77"/>
@@ -13742,12 +13742,12 @@
       <c r="D51" s="78"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="208" t="s">
+      <c r="A52" s="201" t="s">
         <v>365</v>
       </c>
-      <c r="B52" s="209"/>
-      <c r="C52" s="209"/>
-      <c r="D52" s="210"/>
+      <c r="B52" s="202"/>
+      <c r="C52" s="202"/>
+      <c r="D52" s="203"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="105" t="s">
@@ -13757,11 +13757,11 @@
         <f>IF(Tracker!O7=TRUE,100,0)</f>
         <v>0</v>
       </c>
-      <c r="C53" s="220">
+      <c r="C53" s="208">
         <f>B53</f>
         <v>0</v>
       </c>
-      <c r="D53" s="210"/>
+      <c r="D53" s="203"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="77"/>
@@ -13770,23 +13770,23 @@
       <c r="D54" s="78"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="208" t="s">
+      <c r="A55" s="201" t="s">
         <v>366</v>
       </c>
-      <c r="B55" s="209"/>
-      <c r="C55" s="209"/>
-      <c r="D55" s="210"/>
+      <c r="B55" s="202"/>
+      <c r="C55" s="202"/>
+      <c r="D55" s="203"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="221" t="s">
+      <c r="A56" s="209" t="s">
         <v>367</v>
       </c>
-      <c r="B56" s="167"/>
-      <c r="C56" s="215">
+      <c r="B56" s="139"/>
+      <c r="C56" s="212">
         <f>(B57*-5)+(B58*-10)+(B59*-15)+(B60*-5)+(B61*-10)+(B62*-15)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="174"/>
+      <c r="D56" s="129"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="107" t="s">
@@ -13796,8 +13796,8 @@
         <f>'Team &amp; Encounters'!C21</f>
         <v>0</v>
       </c>
-      <c r="C57" s="175"/>
-      <c r="D57" s="138"/>
+      <c r="C57" s="148"/>
+      <c r="D57" s="154"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="107" t="s">
@@ -13807,8 +13807,8 @@
         <f>'Team &amp; Encounters'!C22</f>
         <v>0</v>
       </c>
-      <c r="C58" s="175"/>
-      <c r="D58" s="138"/>
+      <c r="C58" s="148"/>
+      <c r="D58" s="154"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="107" t="s">
@@ -13818,8 +13818,8 @@
         <f>'Team &amp; Encounters'!C23</f>
         <v>0</v>
       </c>
-      <c r="C59" s="175"/>
-      <c r="D59" s="138"/>
+      <c r="C59" s="148"/>
+      <c r="D59" s="154"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="107" t="s">
@@ -13829,8 +13829,8 @@
         <f>'Team &amp; Encounters'!E21</f>
         <v>0</v>
       </c>
-      <c r="C60" s="175"/>
-      <c r="D60" s="138"/>
+      <c r="C60" s="148"/>
+      <c r="D60" s="154"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="107" t="s">
@@ -13840,8 +13840,8 @@
         <f>'Team &amp; Encounters'!E22</f>
         <v>0</v>
       </c>
-      <c r="C61" s="175"/>
-      <c r="D61" s="138"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="154"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="107" t="s">
@@ -13851,8 +13851,8 @@
         <f>'Team &amp; Encounters'!E23</f>
         <v>0</v>
       </c>
-      <c r="C62" s="170"/>
-      <c r="D62" s="145"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="132"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="77"/>
@@ -13861,23 +13861,23 @@
       <c r="D63" s="78"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="208" t="s">
+      <c r="A64" s="201" t="s">
         <v>374</v>
       </c>
-      <c r="B64" s="209"/>
-      <c r="C64" s="209"/>
-      <c r="D64" s="210"/>
+      <c r="B64" s="202"/>
+      <c r="C64" s="202"/>
+      <c r="D64" s="203"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="216" t="s">
+      <c r="A65" s="204" t="s">
         <v>375</v>
       </c>
-      <c r="B65" s="167"/>
-      <c r="C65" s="217">
+      <c r="B65" s="139"/>
+      <c r="C65" s="205">
         <f>(B66*10)+(B67*5)</f>
         <v>0</v>
       </c>
-      <c r="D65" s="174"/>
+      <c r="D65" s="129"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="109" t="s">
@@ -13887,8 +13887,8 @@
         <f>COUNTIF(Tracker!J13:J70, "F")</f>
         <v>0</v>
       </c>
-      <c r="C66" s="175"/>
-      <c r="D66" s="138"/>
+      <c r="C66" s="148"/>
+      <c r="D66" s="154"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="109" t="s">
@@ -13898,11 +13898,26 @@
         <f>COUNTIF(Tracker!J13:J70, "P")</f>
         <v>0</v>
       </c>
-      <c r="C67" s="170"/>
-      <c r="D67" s="145"/>
+      <c r="C67" s="130"/>
+      <c r="D67" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="D1:D4"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="C16:D22"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="C25:D29"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="C32:D39"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="C56:D62"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="C65:D67"/>
@@ -13913,21 +13928,6 @@
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C25:D29"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="C32:D39"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="C56:D62"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C16:D22"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="D1:D4"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -13970,30 +13970,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.15">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="232" t="s">
         <v>378</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
-      <c r="U1" s="128"/>
-      <c r="V1" s="160"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="134"/>
     </row>
     <row r="2" spans="1:22" ht="75" customHeight="1">
       <c r="A2" s="111" t="e">
@@ -14188,53 +14188,53 @@
       <c r="A6" s="223" t="s">
         <v>385</v>
       </c>
-      <c r="B6" s="128"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="160"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="134"/>
       <c r="E6" s="224"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="128"/>
-      <c r="M6" s="128"/>
-      <c r="N6" s="128"/>
-      <c r="O6" s="128"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="128"/>
-      <c r="T6" s="128"/>
-      <c r="U6" s="128"/>
-      <c r="V6" s="160"/>
+      <c r="F6" s="156"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156"/>
+      <c r="S6" s="156"/>
+      <c r="T6" s="156"/>
+      <c r="U6" s="156"/>
+      <c r="V6" s="134"/>
     </row>
     <row r="7" spans="1:22" ht="13.15">
-      <c r="A7" s="225" t="s">
+      <c r="A7" s="233" t="s">
         <v>386</v>
       </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="128"/>
-      <c r="P7" s="128"/>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="128"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="128"/>
-      <c r="U7" s="128"/>
-      <c r="V7" s="160"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="156"/>
+      <c r="V7" s="134"/>
     </row>
     <row r="8" spans="1:22" ht="75" customHeight="1">
       <c r="A8" s="111" t="e">
@@ -14452,53 +14452,53 @@
       <c r="A12" s="223" t="s">
         <v>396</v>
       </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="160"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="134"/>
       <c r="E12" s="224"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
-      <c r="M12" s="128"/>
-      <c r="N12" s="128"/>
-      <c r="O12" s="128"/>
-      <c r="P12" s="128"/>
-      <c r="Q12" s="128"/>
-      <c r="R12" s="128"/>
-      <c r="S12" s="128"/>
-      <c r="T12" s="128"/>
-      <c r="U12" s="128"/>
-      <c r="V12" s="160"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="156"/>
+      <c r="N12" s="156"/>
+      <c r="O12" s="156"/>
+      <c r="P12" s="156"/>
+      <c r="Q12" s="156"/>
+      <c r="R12" s="156"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="156"/>
+      <c r="V12" s="134"/>
     </row>
     <row r="13" spans="1:22" ht="12.75">
-      <c r="A13" s="226" t="s">
+      <c r="A13" s="230" t="s">
         <v>397</v>
       </c>
-      <c r="B13" s="128"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="128"/>
-      <c r="P13" s="128"/>
-      <c r="Q13" s="128"/>
-      <c r="R13" s="128"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="160"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="156"/>
+      <c r="O13" s="156"/>
+      <c r="P13" s="156"/>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="156"/>
+      <c r="U13" s="156"/>
+      <c r="V13" s="134"/>
     </row>
     <row r="14" spans="1:22" ht="75" customHeight="1">
       <c r="A14" s="117" t="e">
@@ -14654,30 +14654,30 @@
       <c r="A17" s="223" t="s">
         <v>404</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="160"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="134"/>
       <c r="E17" s="224"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
-      <c r="M17" s="128"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="128"/>
-      <c r="Q17" s="128"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="128"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="160"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="156"/>
+      <c r="M17" s="156"/>
+      <c r="N17" s="156"/>
+      <c r="O17" s="156"/>
+      <c r="P17" s="156"/>
+      <c r="Q17" s="156"/>
+      <c r="R17" s="156"/>
+      <c r="S17" s="156"/>
+      <c r="T17" s="156"/>
+      <c r="U17" s="156"/>
+      <c r="V17" s="134"/>
     </row>
     <row r="18" spans="1:22" ht="12.75">
-      <c r="A18" s="227" t="s">
+      <c r="A18" s="231" t="s">
         <v>405</v>
       </c>
       <c r="B18" s="122"/>
@@ -14990,53 +14990,53 @@
       <c r="A24" s="223" t="s">
         <v>418</v>
       </c>
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="160"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="134"/>
       <c r="E24" s="224"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="128"/>
-      <c r="N24" s="128"/>
-      <c r="O24" s="128"/>
-      <c r="P24" s="128"/>
-      <c r="Q24" s="128"/>
-      <c r="R24" s="128"/>
-      <c r="S24" s="128"/>
-      <c r="T24" s="128"/>
-      <c r="U24" s="128"/>
-      <c r="V24" s="160"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="156"/>
+      <c r="N24" s="156"/>
+      <c r="O24" s="156"/>
+      <c r="P24" s="156"/>
+      <c r="Q24" s="156"/>
+      <c r="R24" s="156"/>
+      <c r="S24" s="156"/>
+      <c r="T24" s="156"/>
+      <c r="U24" s="156"/>
+      <c r="V24" s="134"/>
     </row>
     <row r="25" spans="1:22" ht="12.75">
-      <c r="A25" s="228" t="s">
+      <c r="A25" s="222" t="s">
         <v>419</v>
       </c>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="128"/>
-      <c r="M25" s="128"/>
-      <c r="N25" s="128"/>
-      <c r="O25" s="128"/>
-      <c r="P25" s="128"/>
-      <c r="Q25" s="128"/>
-      <c r="R25" s="128"/>
-      <c r="S25" s="128"/>
-      <c r="T25" s="128"/>
-      <c r="U25" s="128"/>
-      <c r="V25" s="160"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="156"/>
+      <c r="P25" s="156"/>
+      <c r="Q25" s="156"/>
+      <c r="R25" s="156"/>
+      <c r="S25" s="156"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="156"/>
+      <c r="V25" s="134"/>
     </row>
     <row r="26" spans="1:22" ht="75" customHeight="1">
       <c r="A26" s="117" t="e">
@@ -15294,53 +15294,53 @@
       <c r="A31" s="223" t="s">
         <v>424</v>
       </c>
-      <c r="B31" s="128"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="160"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="134"/>
       <c r="E31" s="224"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="128"/>
-      <c r="M31" s="128"/>
-      <c r="N31" s="128"/>
-      <c r="O31" s="128"/>
-      <c r="P31" s="128"/>
-      <c r="Q31" s="128"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="128"/>
-      <c r="T31" s="128"/>
-      <c r="U31" s="128"/>
-      <c r="V31" s="160"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="156"/>
+      <c r="N31" s="156"/>
+      <c r="O31" s="156"/>
+      <c r="P31" s="156"/>
+      <c r="Q31" s="156"/>
+      <c r="R31" s="156"/>
+      <c r="S31" s="156"/>
+      <c r="T31" s="156"/>
+      <c r="U31" s="156"/>
+      <c r="V31" s="134"/>
     </row>
     <row r="32" spans="1:22" ht="12.75">
-      <c r="A32" s="231" t="s">
+      <c r="A32" s="227" t="s">
         <v>425</v>
       </c>
-      <c r="B32" s="128"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="128"/>
-      <c r="M32" s="128"/>
-      <c r="N32" s="128"/>
-      <c r="O32" s="128"/>
-      <c r="P32" s="128"/>
-      <c r="Q32" s="128"/>
-      <c r="R32" s="128"/>
-      <c r="S32" s="128"/>
-      <c r="T32" s="128"/>
-      <c r="U32" s="128"/>
-      <c r="V32" s="160"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="156"/>
+      <c r="N32" s="156"/>
+      <c r="O32" s="156"/>
+      <c r="P32" s="156"/>
+      <c r="Q32" s="156"/>
+      <c r="R32" s="156"/>
+      <c r="S32" s="156"/>
+      <c r="T32" s="156"/>
+      <c r="U32" s="156"/>
+      <c r="V32" s="134"/>
     </row>
     <row r="33" spans="1:22" ht="75" customHeight="1">
       <c r="A33" s="117" t="e">
@@ -15543,53 +15543,53 @@
       <c r="A37" s="223" t="s">
         <v>432</v>
       </c>
-      <c r="B37" s="128"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="160"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="134"/>
       <c r="E37" s="224"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="128"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="128"/>
-      <c r="M37" s="128"/>
-      <c r="N37" s="128"/>
-      <c r="O37" s="128"/>
-      <c r="P37" s="128"/>
-      <c r="Q37" s="128"/>
-      <c r="R37" s="128"/>
-      <c r="S37" s="128"/>
-      <c r="T37" s="128"/>
-      <c r="U37" s="128"/>
-      <c r="V37" s="160"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="156"/>
+      <c r="L37" s="156"/>
+      <c r="M37" s="156"/>
+      <c r="N37" s="156"/>
+      <c r="O37" s="156"/>
+      <c r="P37" s="156"/>
+      <c r="Q37" s="156"/>
+      <c r="R37" s="156"/>
+      <c r="S37" s="156"/>
+      <c r="T37" s="156"/>
+      <c r="U37" s="156"/>
+      <c r="V37" s="134"/>
     </row>
     <row r="38" spans="1:22" ht="12.75">
-      <c r="A38" s="232" t="s">
+      <c r="A38" s="228" t="s">
         <v>433</v>
       </c>
-      <c r="B38" s="128"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="128"/>
-      <c r="K38" s="128"/>
-      <c r="L38" s="128"/>
-      <c r="M38" s="128"/>
-      <c r="N38" s="128"/>
-      <c r="O38" s="128"/>
-      <c r="P38" s="128"/>
-      <c r="Q38" s="128"/>
-      <c r="R38" s="128"/>
-      <c r="S38" s="128"/>
-      <c r="T38" s="128"/>
-      <c r="U38" s="128"/>
-      <c r="V38" s="160"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="156"/>
+      <c r="K38" s="156"/>
+      <c r="L38" s="156"/>
+      <c r="M38" s="156"/>
+      <c r="N38" s="156"/>
+      <c r="O38" s="156"/>
+      <c r="P38" s="156"/>
+      <c r="Q38" s="156"/>
+      <c r="R38" s="156"/>
+      <c r="S38" s="156"/>
+      <c r="T38" s="156"/>
+      <c r="U38" s="156"/>
+      <c r="V38" s="134"/>
     </row>
     <row r="39" spans="1:22" ht="75" customHeight="1">
       <c r="A39" s="117" t="e">
@@ -15816,53 +15816,53 @@
       <c r="A43" s="223" t="s">
         <v>441</v>
       </c>
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="160"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="134"/>
       <c r="E43" s="224"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="128"/>
-      <c r="K43" s="128"/>
-      <c r="L43" s="128"/>
-      <c r="M43" s="128"/>
-      <c r="N43" s="128"/>
-      <c r="O43" s="128"/>
-      <c r="P43" s="128"/>
-      <c r="Q43" s="128"/>
-      <c r="R43" s="128"/>
-      <c r="S43" s="128"/>
-      <c r="T43" s="128"/>
-      <c r="U43" s="128"/>
-      <c r="V43" s="160"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="156"/>
+      <c r="M43" s="156"/>
+      <c r="N43" s="156"/>
+      <c r="O43" s="156"/>
+      <c r="P43" s="156"/>
+      <c r="Q43" s="156"/>
+      <c r="R43" s="156"/>
+      <c r="S43" s="156"/>
+      <c r="T43" s="156"/>
+      <c r="U43" s="156"/>
+      <c r="V43" s="134"/>
     </row>
     <row r="44" spans="1:22" ht="12.75">
-      <c r="A44" s="233" t="s">
+      <c r="A44" s="229" t="s">
         <v>442</v>
       </c>
-      <c r="B44" s="128"/>
-      <c r="C44" s="128"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="128"/>
-      <c r="K44" s="128"/>
-      <c r="L44" s="128"/>
-      <c r="M44" s="128"/>
-      <c r="N44" s="128"/>
-      <c r="O44" s="128"/>
-      <c r="P44" s="128"/>
-      <c r="Q44" s="128"/>
-      <c r="R44" s="128"/>
-      <c r="S44" s="128"/>
-      <c r="T44" s="128"/>
-      <c r="U44" s="128"/>
-      <c r="V44" s="160"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="156"/>
+      <c r="F44" s="156"/>
+      <c r="G44" s="156"/>
+      <c r="H44" s="156"/>
+      <c r="I44" s="156"/>
+      <c r="J44" s="156"/>
+      <c r="K44" s="156"/>
+      <c r="L44" s="156"/>
+      <c r="M44" s="156"/>
+      <c r="N44" s="156"/>
+      <c r="O44" s="156"/>
+      <c r="P44" s="156"/>
+      <c r="Q44" s="156"/>
+      <c r="R44" s="156"/>
+      <c r="S44" s="156"/>
+      <c r="T44" s="156"/>
+      <c r="U44" s="156"/>
+      <c r="V44" s="134"/>
     </row>
     <row r="45" spans="1:22" ht="75" customHeight="1">
       <c r="A45" s="117" t="e">
@@ -16228,53 +16228,53 @@
       <c r="A52" s="223" t="s">
         <v>449</v>
       </c>
-      <c r="B52" s="128"/>
-      <c r="C52" s="128"/>
-      <c r="D52" s="160"/>
+      <c r="B52" s="156"/>
+      <c r="C52" s="156"/>
+      <c r="D52" s="134"/>
       <c r="E52" s="224"/>
-      <c r="F52" s="128"/>
-      <c r="G52" s="128"/>
-      <c r="H52" s="128"/>
-      <c r="I52" s="128"/>
-      <c r="J52" s="128"/>
-      <c r="K52" s="128"/>
-      <c r="L52" s="128"/>
-      <c r="M52" s="128"/>
-      <c r="N52" s="128"/>
-      <c r="O52" s="128"/>
-      <c r="P52" s="128"/>
-      <c r="Q52" s="128"/>
-      <c r="R52" s="128"/>
-      <c r="S52" s="128"/>
-      <c r="T52" s="128"/>
-      <c r="U52" s="128"/>
-      <c r="V52" s="160"/>
+      <c r="F52" s="156"/>
+      <c r="G52" s="156"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="156"/>
+      <c r="J52" s="156"/>
+      <c r="K52" s="156"/>
+      <c r="L52" s="156"/>
+      <c r="M52" s="156"/>
+      <c r="N52" s="156"/>
+      <c r="O52" s="156"/>
+      <c r="P52" s="156"/>
+      <c r="Q52" s="156"/>
+      <c r="R52" s="156"/>
+      <c r="S52" s="156"/>
+      <c r="T52" s="156"/>
+      <c r="U52" s="156"/>
+      <c r="V52" s="134"/>
     </row>
     <row r="53" spans="1:22" ht="12.75">
-      <c r="A53" s="229" t="s">
+      <c r="A53" s="225" t="s">
         <v>450</v>
       </c>
-      <c r="B53" s="128"/>
-      <c r="C53" s="128"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="128"/>
-      <c r="F53" s="128"/>
-      <c r="G53" s="128"/>
-      <c r="H53" s="128"/>
-      <c r="I53" s="128"/>
-      <c r="J53" s="128"/>
-      <c r="K53" s="128"/>
-      <c r="L53" s="128"/>
-      <c r="M53" s="128"/>
-      <c r="N53" s="128"/>
-      <c r="O53" s="128"/>
-      <c r="P53" s="128"/>
-      <c r="Q53" s="128"/>
-      <c r="R53" s="128"/>
-      <c r="S53" s="128"/>
-      <c r="T53" s="128"/>
-      <c r="U53" s="128"/>
-      <c r="V53" s="160"/>
+      <c r="B53" s="156"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="156"/>
+      <c r="F53" s="156"/>
+      <c r="G53" s="156"/>
+      <c r="H53" s="156"/>
+      <c r="I53" s="156"/>
+      <c r="J53" s="156"/>
+      <c r="K53" s="156"/>
+      <c r="L53" s="156"/>
+      <c r="M53" s="156"/>
+      <c r="N53" s="156"/>
+      <c r="O53" s="156"/>
+      <c r="P53" s="156"/>
+      <c r="Q53" s="156"/>
+      <c r="R53" s="156"/>
+      <c r="S53" s="156"/>
+      <c r="T53" s="156"/>
+      <c r="U53" s="156"/>
+      <c r="V53" s="134"/>
     </row>
     <row r="54" spans="1:22" ht="75" customHeight="1">
       <c r="A54" s="117" t="e">
@@ -17003,32 +17003,44 @@
       <c r="A68" s="223" t="s">
         <v>476</v>
       </c>
-      <c r="B68" s="128"/>
-      <c r="C68" s="128"/>
-      <c r="D68" s="160"/>
-      <c r="E68" s="230" t="s">
+      <c r="B68" s="156"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="134"/>
+      <c r="E68" s="226" t="s">
         <v>477</v>
       </c>
-      <c r="F68" s="128"/>
-      <c r="G68" s="128"/>
-      <c r="H68" s="128"/>
-      <c r="I68" s="128"/>
-      <c r="J68" s="128"/>
-      <c r="K68" s="128"/>
-      <c r="L68" s="128"/>
-      <c r="M68" s="128"/>
-      <c r="N68" s="128"/>
-      <c r="O68" s="128"/>
-      <c r="P68" s="128"/>
-      <c r="Q68" s="128"/>
-      <c r="R68" s="128"/>
-      <c r="S68" s="128"/>
-      <c r="T68" s="128"/>
-      <c r="U68" s="128"/>
-      <c r="V68" s="160"/>
+      <c r="F68" s="156"/>
+      <c r="G68" s="156"/>
+      <c r="H68" s="156"/>
+      <c r="I68" s="156"/>
+      <c r="J68" s="156"/>
+      <c r="K68" s="156"/>
+      <c r="L68" s="156"/>
+      <c r="M68" s="156"/>
+      <c r="N68" s="156"/>
+      <c r="O68" s="156"/>
+      <c r="P68" s="156"/>
+      <c r="Q68" s="156"/>
+      <c r="R68" s="156"/>
+      <c r="S68" s="156"/>
+      <c r="T68" s="156"/>
+      <c r="U68" s="156"/>
+      <c r="V68" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:V6"/>
+    <mergeCell ref="A7:V7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:V12"/>
+    <mergeCell ref="A13:V13"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:V17"/>
+    <mergeCell ref="A18:V18"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:V24"/>
     <mergeCell ref="A25:V25"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A43:D43"/>
@@ -17044,18 +17056,6 @@
     <mergeCell ref="A38:V38"/>
     <mergeCell ref="E43:V43"/>
     <mergeCell ref="A44:V44"/>
-    <mergeCell ref="A13:V13"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:V17"/>
-    <mergeCell ref="A18:V18"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:V24"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:V6"/>
-    <mergeCell ref="A7:V7"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:V12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/EncounterRoutingNRotM/NRotMAugust2024.xlsx
+++ b/EncounterRoutingNRotM/NRotMAugust2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f30cbaf81810b05/Documents/Programming/pokemonDataTools/EncounterRoutingNRotM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gil\OneDrive\Documents\Programming\pokemonDataTools\EncounterRoutingNRotM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{CBC81FE4-5CCE-4303-970D-0617F9213FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CC2A7B2-D5BA-49A4-A988-3C4C81434B32}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EA599C-2551-4C49-BA17-9CD4EC78431C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -1012,9 +1012,6 @@
     <t>Ravaged Path</t>
   </si>
   <si>
-    <t>Floroama Meadow</t>
-  </si>
-  <si>
     <t>Death Counts (DO NOT TOUCH)</t>
   </si>
   <si>
@@ -2210,6 +2207,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Floaroma Meadow</t>
   </si>
 </sst>
 </file>
@@ -4794,10 +4794,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -7307,8 +7303,8 @@
   </sheetPr>
   <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
@@ -8189,7 +8185,7 @@
       <c r="G17" s="136"/>
       <c r="H17" s="51"/>
       <c r="I17" s="42" t="s">
-        <v>190</v>
+        <v>478</v>
       </c>
       <c r="J17" s="43"/>
       <c r="K17" s="44" t="e">
@@ -8347,7 +8343,7 @@
     <row r="20" spans="1:24" ht="21">
       <c r="A20" s="30"/>
       <c r="B20" s="198" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="134"/>
       <c r="D20" s="30"/>
@@ -8356,7 +8352,7 @@
       <c r="G20" s="30"/>
       <c r="H20" s="51"/>
       <c r="I20" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J20" s="43"/>
       <c r="K20" s="44" t="e">
@@ -8404,14 +8400,14 @@
     <row r="21" spans="1:24" ht="21">
       <c r="A21" s="30"/>
       <c r="B21" s="61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" s="62">
         <f>COUNTIF($G$25:$G67, "B")</f>
         <v>0</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E21" s="62">
         <f>COUNTIF($D$25:$D67, "H")</f>
@@ -8421,7 +8417,7 @@
       <c r="G21" s="30"/>
       <c r="H21" s="51"/>
       <c r="I21" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J21" s="43"/>
       <c r="K21" s="44" t="e">
@@ -8469,14 +8465,14 @@
     <row r="22" spans="1:24" ht="21">
       <c r="A22" s="30"/>
       <c r="B22" s="61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C22" s="62">
         <f>COUNTIF($G$25:$G67, "M")</f>
         <v>0</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E22" s="62">
         <f>COUNTIF($D$25:$D67, "S")</f>
@@ -8486,7 +8482,7 @@
       <c r="G22" s="30"/>
       <c r="H22" s="51"/>
       <c r="I22" s="53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J22" s="54"/>
       <c r="K22" s="55" t="e">
@@ -8538,14 +8534,14 @@
     <row r="23" spans="1:24" ht="21">
       <c r="A23" s="30"/>
       <c r="B23" s="61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23" s="63">
         <f>COUNTIF($G$25:$G67, "F/S")</f>
         <v>0</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E23" s="62">
         <f>COUNTIF($D$25:$D67, "L")</f>
@@ -8555,7 +8551,7 @@
       <c r="G23" s="30"/>
       <c r="H23" s="51"/>
       <c r="I23" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J23" s="43"/>
       <c r="K23" s="44" t="e">
@@ -8603,7 +8599,7 @@
     <row r="24" spans="1:24" ht="21">
       <c r="A24" s="30"/>
       <c r="B24" s="198" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24" s="134"/>
       <c r="D24" s="64" t="s">
@@ -8618,7 +8614,7 @@
       </c>
       <c r="H24" s="51"/>
       <c r="I24" s="42" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J24" s="43"/>
       <c r="K24" s="44" t="e">
@@ -8746,7 +8742,7 @@
       <c r="G26" s="196"/>
       <c r="H26" s="51"/>
       <c r="I26" s="53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J26" s="54"/>
       <c r="K26" s="55" t="e">
@@ -8820,7 +8816,7 @@
       </c>
       <c r="H27" s="51"/>
       <c r="I27" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J27" s="43"/>
       <c r="K27" s="44" t="e">
@@ -8878,7 +8874,7 @@
       <c r="G28" s="196"/>
       <c r="H28" s="51"/>
       <c r="I28" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J28" s="43"/>
       <c r="K28" s="44" t="e">
@@ -9006,7 +9002,7 @@
       <c r="G30" s="196"/>
       <c r="H30" s="51"/>
       <c r="I30" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J30" s="43"/>
       <c r="K30" s="44" t="e">
@@ -9134,7 +9130,7 @@
       <c r="G32" s="196"/>
       <c r="H32" s="51"/>
       <c r="I32" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J32" s="43"/>
       <c r="K32" s="44" t="e">
@@ -9204,7 +9200,7 @@
       </c>
       <c r="H33" s="51"/>
       <c r="I33" s="42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J33" s="43"/>
       <c r="K33" s="44" t="e">
@@ -9332,7 +9328,7 @@
       </c>
       <c r="H35" s="51"/>
       <c r="I35" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J35" s="54"/>
       <c r="K35" s="55" t="e">
@@ -9464,7 +9460,7 @@
       </c>
       <c r="H37" s="51"/>
       <c r="I37" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J37" s="54"/>
       <c r="K37" s="55" t="e">
@@ -9654,7 +9650,7 @@
       <c r="G40" s="196"/>
       <c r="H40" s="51"/>
       <c r="I40" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J40" s="43"/>
       <c r="K40" s="44" t="e">
@@ -9724,7 +9720,7 @@
       </c>
       <c r="H41" s="51"/>
       <c r="I41" s="42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J41" s="43"/>
       <c r="K41" s="44" t="e">
@@ -9782,7 +9778,7 @@
       <c r="G42" s="196"/>
       <c r="H42" s="51"/>
       <c r="I42" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J42" s="43"/>
       <c r="K42" s="44" t="e">
@@ -9852,7 +9848,7 @@
       </c>
       <c r="H43" s="51"/>
       <c r="I43" s="42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J43" s="43"/>
       <c r="K43" s="44" t="e">
@@ -9910,7 +9906,7 @@
       <c r="G44" s="196"/>
       <c r="H44" s="51"/>
       <c r="I44" s="42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J44" s="43"/>
       <c r="K44" s="44" t="e">
@@ -9980,7 +9976,7 @@
       </c>
       <c r="H45" s="51"/>
       <c r="I45" s="42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J45" s="43"/>
       <c r="K45" s="44" t="e">
@@ -10038,7 +10034,7 @@
       <c r="G46" s="196"/>
       <c r="H46" s="51"/>
       <c r="I46" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J46" s="43"/>
       <c r="K46" s="44" t="e">
@@ -10166,7 +10162,7 @@
       <c r="G48" s="196"/>
       <c r="H48" s="51"/>
       <c r="I48" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J48" s="43"/>
       <c r="K48" s="44" t="e">
@@ -10236,7 +10232,7 @@
       </c>
       <c r="H49" s="51"/>
       <c r="I49" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J49" s="43"/>
       <c r="K49" s="44" t="e">
@@ -10294,7 +10290,7 @@
       <c r="G50" s="196"/>
       <c r="H50" s="51"/>
       <c r="I50" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J50" s="43"/>
       <c r="K50" s="44" t="e">
@@ -10364,7 +10360,7 @@
       </c>
       <c r="H51" s="51"/>
       <c r="I51" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J51" s="43"/>
       <c r="K51" s="44" t="e">
@@ -10422,7 +10418,7 @@
       <c r="G52" s="196"/>
       <c r="H52" s="51"/>
       <c r="I52" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J52" s="43"/>
       <c r="K52" s="44" t="e">
@@ -10492,7 +10488,7 @@
       </c>
       <c r="H53" s="51"/>
       <c r="I53" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J53" s="43"/>
       <c r="K53" s="44" t="e">
@@ -10620,7 +10616,7 @@
       </c>
       <c r="H55" s="51"/>
       <c r="I55" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J55" s="43"/>
       <c r="K55" s="44" t="e">
@@ -10678,7 +10674,7 @@
       <c r="G56" s="196"/>
       <c r="H56" s="51"/>
       <c r="I56" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J56" s="43"/>
       <c r="K56" s="44" t="e">
@@ -10748,7 +10744,7 @@
       </c>
       <c r="H57" s="51"/>
       <c r="I57" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J57" s="43"/>
       <c r="K57" s="44" t="e">
@@ -10876,7 +10872,7 @@
       </c>
       <c r="H59" s="51"/>
       <c r="I59" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J59" s="43"/>
       <c r="K59" s="44" t="e">
@@ -11004,7 +11000,7 @@
       </c>
       <c r="H61" s="51"/>
       <c r="I61" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J61" s="43"/>
       <c r="K61" s="44" t="e">
@@ -11062,7 +11058,7 @@
       <c r="G62" s="196"/>
       <c r="H62" s="51"/>
       <c r="I62" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J62" s="43"/>
       <c r="K62" s="44" t="e">
@@ -11190,7 +11186,7 @@
       <c r="G64" s="196"/>
       <c r="H64" s="51"/>
       <c r="I64" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J64" s="43"/>
       <c r="K64" s="44" t="e">
@@ -11533,7 +11529,7 @@
       <formula1>"Turtwig,Chimchar,Piplup"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J47" xr:uid="{00000000-0002-0000-0200-000010000000}">
-      <formula1>"Mr. Mime,Floatzel,Shellos,Magikarp,Finneon,Heracross,Wurmple,Burmy,Combee,Cherubi"</formula1>
+      <formula1>"Mr-Mime,Floatzel,Shellos,Magikarp,Finneon,Heracross,Wurmple,Burmy,Combee,Cherubi"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J28" xr:uid="{00000000-0002-0000-0200-000011000000}">
       <formula1>"Eevee"</formula1>
@@ -11653,13 +11649,13 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="76" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="76" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="F2" s="76" t="s">
         <v>233</v>
-      </c>
-      <c r="F2" s="76" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="3" spans="2:11">
@@ -11667,1537 +11663,1537 @@
         <v>182</v>
       </c>
       <c r="C3" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="E3" s="76" t="s">
         <v>236</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="F3" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="G3" s="76" t="s">
         <v>238</v>
-      </c>
-      <c r="G3" s="76" t="s">
-        <v>239</v>
       </c>
       <c r="J3" s="76" t="s">
         <v>182</v>
       </c>
       <c r="K3" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="76" t="s">
+      <c r="E4" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F4" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="E4" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F4" s="76" t="s">
-        <v>242</v>
-      </c>
       <c r="G4" s="76" t="s">
+        <v>238</v>
+      </c>
+      <c r="J4" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="J4" s="76" t="s">
-        <v>240</v>
-      </c>
       <c r="K4" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="C5" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="76" t="s">
+      <c r="E5" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F5" s="76" t="s">
-        <v>245</v>
-      </c>
       <c r="G5" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J5" s="76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K5" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="76" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="76" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" s="76" t="s">
+      <c r="E6" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6" s="76" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F6" s="76" t="s">
-        <v>248</v>
-      </c>
       <c r="G6" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J6" s="76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K6" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="76" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="76" t="s">
         <v>249</v>
       </c>
-      <c r="C7" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" s="76" t="s">
+      <c r="E7" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" s="76" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F7" s="76" t="s">
-        <v>251</v>
-      </c>
       <c r="G7" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J7" s="76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K7" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="76" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="76" t="s">
         <v>252</v>
       </c>
-      <c r="C8" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D8" s="76" t="s">
+      <c r="E8" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" s="76" t="s">
         <v>253</v>
       </c>
-      <c r="E8" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>254</v>
-      </c>
       <c r="G8" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J8" s="76" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K8" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="76" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="76" t="s">
         <v>255</v>
       </c>
-      <c r="C9" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9" s="76" t="s">
+      <c r="E9" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F9" s="76" t="s">
         <v>256</v>
       </c>
-      <c r="E9" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F9" s="76" t="s">
-        <v>257</v>
-      </c>
       <c r="G9" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J9" s="76" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K9" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="76" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="76" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D10" s="76" t="s">
+      <c r="E10" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="76" t="s">
         <v>259</v>
       </c>
-      <c r="E10" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F10" s="76" t="s">
-        <v>260</v>
-      </c>
       <c r="G10" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J10" s="76" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K10" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="76" t="s">
         <v>261</v>
       </c>
-      <c r="C11" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="76" t="s">
+      <c r="E11" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="76" t="s">
         <v>262</v>
       </c>
-      <c r="E11" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F11" s="76" t="s">
-        <v>263</v>
-      </c>
       <c r="G11" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J11" s="76" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K11" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="76" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="76" t="s">
         <v>264</v>
       </c>
-      <c r="C12" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="76" t="s">
+      <c r="E12" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F12" s="76" t="s">
         <v>265</v>
       </c>
-      <c r="E12" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F12" s="76" t="s">
-        <v>266</v>
-      </c>
       <c r="G12" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J12" s="76" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K12" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="76" t="s">
+        <v>266</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="76" t="s">
+      <c r="E13" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="76" t="s">
         <v>268</v>
       </c>
-      <c r="E13" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F13" s="76" t="s">
-        <v>269</v>
-      </c>
       <c r="G13" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J13" s="76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K13" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="76" t="s">
+        <v>269</v>
+      </c>
+      <c r="C14" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="76" t="s">
         <v>270</v>
       </c>
-      <c r="C14" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="E14" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F14" s="76" t="s">
-        <v>271</v>
-      </c>
       <c r="G14" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J14" s="76" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K14" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="C15" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="76" t="s">
         <v>272</v>
       </c>
-      <c r="C15" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="E15" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F15" s="76" t="s">
-        <v>273</v>
-      </c>
       <c r="G15" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J15" s="76" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K15" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="76" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" s="76" t="s">
         <v>274</v>
       </c>
-      <c r="C16" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="E16" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F16" s="76" t="s">
-        <v>275</v>
-      </c>
       <c r="G16" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J16" s="76" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K16" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F17" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="C17" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="E17" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F17" s="76" t="s">
-        <v>277</v>
-      </c>
       <c r="G17" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J17" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K17" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="F18" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="C18" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" s="76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F18" s="76" t="s">
-        <v>279</v>
-      </c>
       <c r="G18" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J18" s="76" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K18" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="76" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="76" t="s">
         <v>280</v>
       </c>
-      <c r="C19" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F19" s="76" t="s">
-        <v>281</v>
-      </c>
       <c r="G19" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J19" s="76" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K19" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="76" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="C20" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F20" s="76" t="s">
-        <v>283</v>
-      </c>
       <c r="G20" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J20" s="76" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K20" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F21" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="C21" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F21" s="76" t="s">
-        <v>285</v>
-      </c>
       <c r="G21" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J21" s="76" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K21" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="76" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="C22" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F22" s="76" t="s">
-        <v>287</v>
-      </c>
       <c r="G22" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J22" s="76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K22" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F23" s="76" t="s">
         <v>288</v>
       </c>
-      <c r="C23" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F23" s="76" t="s">
-        <v>289</v>
-      </c>
       <c r="G23" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J23" s="76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K23" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="76" t="s">
         <v>290</v>
       </c>
-      <c r="C24" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F24" s="76" t="s">
-        <v>291</v>
-      </c>
       <c r="G24" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J24" s="76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K24" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="76" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F25" s="76" t="s">
         <v>292</v>
       </c>
-      <c r="C25" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F25" s="76" t="s">
-        <v>293</v>
-      </c>
       <c r="G25" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J25" s="76" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K25" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="76" t="s">
         <v>294</v>
       </c>
-      <c r="C26" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F26" s="76" t="s">
-        <v>295</v>
-      </c>
       <c r="G26" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J26" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K26" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="C27" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F27" s="76" t="s">
         <v>296</v>
       </c>
-      <c r="C27" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F27" s="76" t="s">
-        <v>297</v>
-      </c>
       <c r="G27" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J27" s="76" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K27" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="76" t="s">
+        <v>297</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F28" s="76" t="s">
         <v>298</v>
       </c>
-      <c r="C28" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F28" s="76" t="s">
-        <v>299</v>
-      </c>
       <c r="G28" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J28" s="76" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K28" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="76" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="76" t="s">
         <v>300</v>
       </c>
-      <c r="C29" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F29" s="76" t="s">
-        <v>301</v>
-      </c>
       <c r="G29" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J29" s="76" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K29" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F30" s="76" t="s">
         <v>302</v>
       </c>
-      <c r="C30" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F30" s="76" t="s">
-        <v>303</v>
-      </c>
       <c r="G30" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J30" s="76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K30" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="76" t="s">
+        <v>303</v>
+      </c>
+      <c r="C31" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" s="76" t="s">
         <v>304</v>
       </c>
-      <c r="C31" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F31" s="76" t="s">
-        <v>305</v>
-      </c>
       <c r="G31" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J31" s="76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K31" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="76" t="s">
+        <v>305</v>
+      </c>
+      <c r="C32" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F32" s="76" t="s">
         <v>306</v>
       </c>
-      <c r="C32" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F32" s="76" t="s">
-        <v>307</v>
-      </c>
       <c r="G32" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J32" s="76" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K32" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="76" t="s">
+        <v>307</v>
+      </c>
+      <c r="C33" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33" s="76" t="s">
         <v>308</v>
       </c>
-      <c r="C33" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F33" s="76" t="s">
-        <v>309</v>
-      </c>
       <c r="G33" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J33" s="76" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K33" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="76" t="s">
+        <v>309</v>
+      </c>
+      <c r="C34" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F34" s="76" t="s">
         <v>310</v>
       </c>
-      <c r="C34" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F34" s="76" t="s">
-        <v>311</v>
-      </c>
       <c r="G34" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J34" s="76" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K34" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="76" t="s">
+        <v>311</v>
+      </c>
+      <c r="C35" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F35" s="76" t="s">
         <v>312</v>
       </c>
-      <c r="C35" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F35" s="76" t="s">
-        <v>313</v>
-      </c>
       <c r="G35" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J35" s="76" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K35" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="76" t="s">
+        <v>313</v>
+      </c>
+      <c r="C36" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F36" s="76" t="s">
         <v>314</v>
       </c>
-      <c r="C36" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F36" s="76" t="s">
-        <v>315</v>
-      </c>
       <c r="G36" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J36" s="76" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K36" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="76" t="s">
+        <v>315</v>
+      </c>
+      <c r="C37" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37" s="76" t="s">
         <v>316</v>
       </c>
-      <c r="C37" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F37" s="76" t="s">
-        <v>317</v>
-      </c>
       <c r="G37" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J37" s="76" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K37" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="76" t="s">
+        <v>317</v>
+      </c>
+      <c r="C38" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F38" s="76" t="s">
         <v>318</v>
       </c>
-      <c r="C38" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F38" s="76" t="s">
-        <v>319</v>
-      </c>
       <c r="G38" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J38" s="76" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K38" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="76" t="s">
+        <v>319</v>
+      </c>
+      <c r="C39" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F39" s="76" t="s">
         <v>320</v>
       </c>
-      <c r="C39" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F39" s="76" t="s">
-        <v>321</v>
-      </c>
       <c r="G39" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J39" s="76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K39" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="76" t="s">
+        <v>321</v>
+      </c>
+      <c r="C40" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F40" s="76" t="s">
         <v>322</v>
       </c>
-      <c r="C40" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F40" s="76" t="s">
-        <v>323</v>
-      </c>
       <c r="G40" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J40" s="76" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K40" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="76" t="s">
+        <v>323</v>
+      </c>
+      <c r="C41" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F41" s="76" t="s">
         <v>324</v>
       </c>
-      <c r="C41" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F41" s="76" t="s">
-        <v>325</v>
-      </c>
       <c r="G41" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J41" s="76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K41" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="C42" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="76" t="s">
         <v>326</v>
       </c>
-      <c r="C42" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F42" s="76" t="s">
-        <v>327</v>
-      </c>
       <c r="G42" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J42" s="76" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K42" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="76" t="s">
+        <v>327</v>
+      </c>
+      <c r="C43" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F43" s="76" t="s">
         <v>328</v>
       </c>
-      <c r="C43" s="76" t="s">
-        <v>235</v>
-      </c>
-      <c r="F43" s="76" t="s">
-        <v>329</v>
-      </c>
       <c r="G43" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J43" s="76" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K43" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="2:11">
       <c r="C44" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="F44" s="76" t="s">
+        <v>329</v>
+      </c>
+      <c r="G44" s="76" t="s">
+        <v>238</v>
+      </c>
+      <c r="J44" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="F44" s="76" t="s">
-        <v>330</v>
-      </c>
-      <c r="G44" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="J44" s="76" t="s">
+      <c r="K44" s="76" t="s">
         <v>236</v>
-      </c>
-      <c r="K44" s="76" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="45" spans="2:11">
       <c r="C45" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F45" s="76" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G45" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J45" s="76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K45" s="76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="2:11">
       <c r="C46" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F46" s="76" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G46" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J46" s="76" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K46" s="76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="C47" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F47" s="76" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G47" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J47" s="76" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K47" s="76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="2:11">
       <c r="C48" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F48" s="76" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G48" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J48" s="76" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K48" s="76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F49" s="76" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G49" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J49" s="76" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K49" s="76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="3:11">
       <c r="C50" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F50" s="76" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G50" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J50" s="76" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K50" s="76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="3:11">
       <c r="C51" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G51" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J51" s="76" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K51" s="76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="3:11">
       <c r="C52" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G52" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J52" s="76" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K52" s="76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="3:11">
       <c r="C53" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G53" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J53" s="76" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K53" s="76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="3:11">
       <c r="C54" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G54" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J54" s="76" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K54" s="76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="3:11">
       <c r="C55" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G55" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J55" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="K55" s="76" t="s">
         <v>238</v>
-      </c>
-      <c r="K55" s="76" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="56" spans="3:11">
       <c r="C56" s="76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G56" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J56" s="76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K56" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="3:11">
       <c r="G57" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J57" s="76" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K57" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="3:11">
       <c r="G58" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J58" s="76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K58" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="3:11">
       <c r="G59" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J59" s="76" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K59" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="3:11">
       <c r="G60" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J60" s="76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K60" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="3:11">
       <c r="G61" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J61" s="76" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K61" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="3:11">
       <c r="G62" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J62" s="76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K62" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="3:11">
       <c r="G63" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J63" s="76" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K63" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="3:11">
       <c r="G64" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J64" s="76" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K64" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="7:11">
       <c r="G65" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J65" s="76" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K65" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="7:11">
       <c r="G66" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J66" s="76" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K66" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="7:11">
       <c r="G67" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J67" s="76" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K67" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="7:11">
       <c r="G68" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J68" s="76" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K68" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="7:11">
       <c r="G69" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J69" s="76" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K69" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="7:11">
       <c r="G70" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J70" s="76" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K70" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="7:11">
       <c r="G71" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J71" s="76" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K71" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="7:11">
       <c r="G72" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J72" s="76" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K72" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="7:11">
       <c r="G73" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J73" s="76" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K73" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="7:11">
       <c r="G74" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J74" s="76" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K74" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="7:11">
       <c r="G75" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J75" s="76" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K75" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="7:11">
       <c r="G76" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J76" s="76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K76" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="7:11">
       <c r="G77" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J77" s="76" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K77" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="7:11">
       <c r="G78" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J78" s="76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K78" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="7:11">
       <c r="J79" s="76" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K79" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="7:11">
       <c r="J80" s="76" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K80" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="10:11">
       <c r="J81" s="76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K81" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="10:11">
       <c r="J82" s="76" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K82" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="10:11">
       <c r="J83" s="76" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K83" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="10:11">
       <c r="J84" s="76" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K84" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="10:11">
       <c r="J85" s="76" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K85" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="10:11">
       <c r="J86" s="76" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K86" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="10:11">
       <c r="J87" s="76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K87" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="10:11">
       <c r="J88" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K88" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="10:11">
       <c r="J89" s="76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K89" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="10:11">
       <c r="J90" s="76" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K90" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="10:11">
       <c r="J91" s="76" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K91" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="10:11">
       <c r="J92" s="76" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K92" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="10:11">
       <c r="J93" s="76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K93" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="10:11">
       <c r="J94" s="76" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K94" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="10:11">
       <c r="J95" s="76" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K95" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="10:11">
       <c r="J96" s="76" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K96" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97" spans="10:11">
       <c r="J97" s="76" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K97" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="10:11">
       <c r="J98" s="76" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K98" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="10:11">
       <c r="J99" s="76" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K99" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="10:11">
       <c r="J100" s="76" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K100" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="10:11">
       <c r="J101" s="76" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K101" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="10:11">
       <c r="J102" s="76" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K102" s="76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -13224,11 +13220,11 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="220" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B1" s="129"/>
       <c r="C1" s="213" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D1" s="221">
         <f>SUM(B6:B13)</f>
@@ -13261,14 +13257,14 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="79" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B6" s="80">
         <f>C56</f>
         <v>0</v>
       </c>
       <c r="C6" s="213" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D6" s="221" t="str">
         <f>IF(B18="YES", "YES", "NO")</f>
@@ -13277,7 +13273,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="81" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B7" s="82">
         <f>C65</f>
@@ -13288,7 +13284,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="83" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B8" s="60">
         <f>C16</f>
@@ -13299,7 +13295,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="83" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B9" s="60">
         <f>C25</f>
@@ -13310,14 +13306,14 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="83" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B10" s="60">
         <f>C32</f>
         <v>0</v>
       </c>
       <c r="C10" s="213" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D10" s="216">
         <f>IF(D6="YES",(D1*1.5),D1)</f>
@@ -13326,7 +13322,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="83" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B11" s="60">
         <f>C42</f>
@@ -13337,7 +13333,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="83" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B12" s="60">
         <f>C47</f>
@@ -13348,7 +13344,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="84" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B13" s="85">
         <f>C53</f>
@@ -13365,7 +13361,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="201" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B15" s="202"/>
       <c r="C15" s="202"/>
@@ -13398,7 +13394,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="88" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B18" s="89" t="str">
         <f>IF(Tracker!C14=TRUE, "YES", "NO")</f>
@@ -13409,7 +13405,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="88" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B19" s="89" t="str">
         <f>IF(Tracker!C15=TRUE, "YES", "NO")</f>
@@ -13420,7 +13416,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="88" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B20" s="89" t="str">
         <f>IF(Tracker!C16=TRUE, "YES", "NO")</f>
@@ -13431,7 +13427,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="88" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B21" s="89" t="str">
         <f>IF(Tracker!C17=TRUE, "YES", "NO")</f>
@@ -13442,7 +13438,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="88" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B22" s="89" t="str">
         <f>IF(Tracker!C18=TRUE, "YES", "NO")</f>
@@ -13467,7 +13463,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="90" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B25" s="91" t="str">
         <f>IF(Tracker!C21=TRUE, "40", "0")</f>
@@ -13481,7 +13477,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="90" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B26" s="91" t="str">
         <f>IF(Tracker!C22=TRUE, "40", "0")</f>
@@ -13492,7 +13488,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="92" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B27" s="91" t="str">
         <f>IF(Tracker!C23=TRUE, "40", "0")</f>
@@ -13503,7 +13499,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="92" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B28" s="91" t="str">
         <f>IF(Tracker!C24=TRUE, "40", "0")</f>
@@ -13514,7 +13510,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="92" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B29" s="91" t="str">
         <f>IF(Tracker!C25=TRUE, "40", "0")</f>
@@ -13531,7 +13527,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="201" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B31" s="202"/>
       <c r="C31" s="202"/>
@@ -13586,7 +13582,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="95" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B36" s="94" t="str">
         <f>IF(Tracker!G7=TRUE, "60", "0")</f>
@@ -13644,7 +13640,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="98" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B42" s="99" t="str">
         <f>IF(Tracker!C28=TRUE, "20", "0")</f>
@@ -13658,7 +13654,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="98" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B43" s="99" t="str">
         <f>IF(Tracker!C29=TRUE, "20", "0")</f>
@@ -13669,7 +13665,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="100" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B44" s="99" t="str">
         <f>IF(Tracker!C30=TRUE, "20", "0")</f>
@@ -13686,7 +13682,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="201" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B46" s="202"/>
       <c r="C46" s="202"/>
@@ -13747,7 +13743,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="201" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B52" s="202"/>
       <c r="C52" s="202"/>
@@ -13775,7 +13771,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="201" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B55" s="202"/>
       <c r="C55" s="202"/>
@@ -13783,7 +13779,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="209" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B56" s="139"/>
       <c r="C56" s="212">
@@ -13794,7 +13790,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="107" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B57" s="108">
         <f>'Team &amp; Encounters'!C21</f>
@@ -13805,7 +13801,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="107" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B58" s="108">
         <f>'Team &amp; Encounters'!C22</f>
@@ -13816,7 +13812,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="107" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B59" s="108">
         <f>'Team &amp; Encounters'!C23</f>
@@ -13827,7 +13823,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="107" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B60" s="108">
         <f>'Team &amp; Encounters'!E21</f>
@@ -13838,7 +13834,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="107" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B61" s="108">
         <f>'Team &amp; Encounters'!E22</f>
@@ -13849,7 +13845,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="107" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B62" s="108">
         <f>'Team &amp; Encounters'!E23</f>
@@ -13866,7 +13862,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="201" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B64" s="202"/>
       <c r="C64" s="202"/>
@@ -13874,7 +13870,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="204" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B65" s="139"/>
       <c r="C65" s="205">
@@ -13885,7 +13881,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="109" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B66" s="110">
         <f>COUNTIF(Tracker!J13:J70, "F")</f>
@@ -13896,7 +13892,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="109" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B67" s="110">
         <f>COUNTIF(Tracker!J13:J70, "P")</f>
@@ -13975,7 +13971,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="13.15">
       <c r="A1" s="232" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B1" s="156"/>
       <c r="C1" s="156"/>
@@ -14005,7 +14001,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C2" s="42" t="s">
         <v>45</v>
@@ -14018,7 +14014,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G2" s="114">
         <v>5</v>
@@ -14051,7 +14047,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C3" s="42" t="s">
         <v>48</v>
@@ -14064,7 +14060,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F3" s="64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G3" s="114">
         <v>8</v>
@@ -14097,7 +14093,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>51</v>
@@ -14110,7 +14106,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G4" s="114">
         <v>7</v>
@@ -14120,7 +14116,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J4" s="114">
         <v>7</v>
@@ -14147,7 +14143,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>54</v>
@@ -14160,7 +14156,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G5" s="114">
         <v>6</v>
@@ -14170,7 +14166,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I5" s="64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J5" s="114">
         <v>8</v>
@@ -14190,7 +14186,7 @@
     </row>
     <row r="6" spans="1:22" ht="72.75" customHeight="1">
       <c r="A6" s="223" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B6" s="156"/>
       <c r="C6" s="156"/>
@@ -14216,7 +14212,7 @@
     </row>
     <row r="7" spans="1:22" ht="13.15">
       <c r="A7" s="233" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B7" s="156"/>
       <c r="C7" s="156"/>
@@ -14246,20 +14242,20 @@
         <v>#NAME?</v>
       </c>
       <c r="B8" s="115" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C8" s="115" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="116" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E8" s="113" t="e">
         <f t="shared" ref="E8:E11" ca="1" si="5">_xludf.image("http://play.pokemonshowdown.com/sprites/gen5/"&amp;LOWER(F8)&amp;".png", 3)</f>
         <v>#NAME?</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G8" s="114">
         <v>11</v>
@@ -14269,7 +14265,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I8" s="64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J8" s="114">
         <v>11</v>
@@ -14293,7 +14289,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>61</v>
@@ -14306,7 +14302,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G9" s="114">
         <v>15</v>
@@ -14316,7 +14312,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J9" s="114">
         <v>17</v>
@@ -14343,7 +14339,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B10" s="115" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C10" s="115" t="s">
         <v>64</v>
@@ -14356,7 +14352,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G10" s="114">
         <v>8</v>
@@ -14366,7 +14362,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I10" s="64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J10" s="114">
         <v>10</v>
@@ -14376,7 +14372,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L10" s="64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M10" s="114">
         <v>12</v>
@@ -14386,7 +14382,7 @@
         <v>#NAME?</v>
       </c>
       <c r="O10" s="64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P10" s="114">
         <v>12</v>
@@ -14396,7 +14392,7 @@
         <v>#NAME?</v>
       </c>
       <c r="R10" s="64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S10" s="114">
         <v>14</v>
@@ -14406,7 +14402,7 @@
         <v>#NAME?</v>
       </c>
       <c r="U10" s="64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V10" s="114">
         <v>16</v>
@@ -14418,7 +14414,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B11" s="115" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C11" s="115" t="s">
         <v>67</v>
@@ -14431,7 +14427,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G11" s="114">
         <v>19</v>
@@ -14454,7 +14450,7 @@
     </row>
     <row r="12" spans="1:22" ht="75" customHeight="1">
       <c r="A12" s="223" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B12" s="156"/>
       <c r="C12" s="156"/>
@@ -14480,7 +14476,7 @@
     </row>
     <row r="13" spans="1:22" ht="12.75">
       <c r="A13" s="230" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B13" s="156"/>
       <c r="C13" s="156"/>
@@ -14510,7 +14506,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C14" s="42" t="s">
         <v>73</v>
@@ -14523,7 +14519,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G14" s="114">
         <v>21</v>
@@ -14533,7 +14529,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I14" s="64" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J14" s="114">
         <v>23</v>
@@ -14560,7 +14556,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C15" s="42" t="s">
         <v>76</v>
@@ -14573,7 +14569,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G15" s="114">
         <v>21</v>
@@ -14606,7 +14602,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>81</v>
@@ -14619,7 +14615,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G16" s="114">
         <v>18</v>
@@ -14629,7 +14625,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I16" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J16" s="114">
         <v>18</v>
@@ -14639,7 +14635,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L16" s="64" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M16" s="114">
         <v>21</v>
@@ -14656,7 +14652,7 @@
     </row>
     <row r="17" spans="1:22" ht="75" customHeight="1">
       <c r="A17" s="223" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B17" s="156"/>
       <c r="C17" s="156"/>
@@ -14682,7 +14678,7 @@
     </row>
     <row r="18" spans="1:22" ht="12.75">
       <c r="A18" s="231" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B18" s="122"/>
       <c r="C18" s="122"/>
@@ -14712,7 +14708,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C19" s="42" t="s">
         <v>87</v>
@@ -14725,7 +14721,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F19" s="64" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G19" s="114">
         <v>20</v>
@@ -14735,7 +14731,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I19" s="64" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J19" s="114">
         <v>20</v>
@@ -14745,7 +14741,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L19" s="64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M19" s="114">
         <v>20</v>
@@ -14755,7 +14751,7 @@
         <v>#NAME?</v>
       </c>
       <c r="O19" s="64" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P19" s="114">
         <v>20</v>
@@ -14779,20 +14775,20 @@
         <v>#NAME?</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>90</v>
       </c>
       <c r="D20" s="112" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E20" s="64" t="e">
         <f t="shared" ca="1" si="13"/>
         <v>#NAME?</v>
       </c>
       <c r="F20" s="64" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G20" s="114">
         <v>23</v>
@@ -14802,7 +14798,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I20" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J20" s="114">
         <v>23</v>
@@ -14838,7 +14834,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C21" s="42" t="s">
         <v>95</v>
@@ -14851,7 +14847,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F21" s="64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G21" s="114">
         <v>19</v>
@@ -14861,7 +14857,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J21" s="114">
         <v>21</v>
@@ -14871,7 +14867,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L21" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M21" s="114">
         <v>23</v>
@@ -14892,20 +14888,20 @@
         <v>#NAME?</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C22" s="42" t="s">
         <v>98</v>
       </c>
       <c r="D22" s="112" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E22" s="64" t="e">
         <f t="shared" ca="1" si="13"/>
         <v>#NAME?</v>
       </c>
       <c r="F22" s="64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G22" s="114">
         <v>24</v>
@@ -14915,7 +14911,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I22" s="64" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J22" s="114">
         <v>24</v>
@@ -14942,7 +14938,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>102</v>
@@ -14955,7 +14951,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F23" s="64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G23" s="114">
         <v>21</v>
@@ -14965,7 +14961,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J23" s="114">
         <v>24</v>
@@ -14975,7 +14971,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L23" s="64" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M23" s="114">
         <v>24</v>
@@ -14992,7 +14988,7 @@
     </row>
     <row r="24" spans="1:22" ht="75" customHeight="1">
       <c r="A24" s="223" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B24" s="156"/>
       <c r="C24" s="156"/>
@@ -15018,7 +15014,7 @@
     </row>
     <row r="25" spans="1:22" ht="12.75">
       <c r="A25" s="222" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B25" s="156"/>
       <c r="C25" s="156"/>
@@ -15048,7 +15044,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C26" s="42" t="s">
         <v>107</v>
@@ -15061,7 +15057,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F26" s="64" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G26" s="114">
         <v>26</v>
@@ -15071,7 +15067,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I26" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J26" s="114">
         <v>26</v>
@@ -15098,7 +15094,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>109</v>
@@ -15111,7 +15107,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F27" s="64" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G27" s="114">
         <v>24</v>
@@ -15121,7 +15117,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I27" s="64" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J27" s="114">
         <v>24</v>
@@ -15131,7 +15127,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L27" s="64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M27" s="114">
         <v>24</v>
@@ -15152,7 +15148,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C28" s="42" t="s">
         <v>112</v>
@@ -15165,7 +15161,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F28" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G28" s="114">
         <v>25</v>
@@ -15175,7 +15171,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I28" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J28" s="114">
         <v>25</v>
@@ -15185,7 +15181,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L28" s="64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M28" s="114">
         <v>28</v>
@@ -15206,7 +15202,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C29" s="42" t="s">
         <v>114</v>
@@ -15219,7 +15215,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F29" s="64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G29" s="114">
         <v>27</v>
@@ -15229,7 +15225,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I29" s="64" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J29" s="114">
         <v>27</v>
@@ -15253,7 +15249,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C30" s="42" t="s">
         <v>118</v>
@@ -15266,7 +15262,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F30" s="64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G30" s="114">
         <v>28</v>
@@ -15276,7 +15272,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I30" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J30" s="114">
         <v>30</v>
@@ -15296,7 +15292,7 @@
     </row>
     <row r="31" spans="1:22" ht="75" customHeight="1">
       <c r="A31" s="223" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B31" s="156"/>
       <c r="C31" s="156"/>
@@ -15322,7 +15318,7 @@
     </row>
     <row r="32" spans="1:22" ht="12.75">
       <c r="A32" s="227" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B32" s="156"/>
       <c r="C32" s="156"/>
@@ -15352,7 +15348,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>122</v>
@@ -15365,7 +15361,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F33" s="64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G33" s="114">
         <v>31</v>
@@ -15395,20 +15391,20 @@
         <v>#NAME?</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C34" s="42" t="s">
         <v>124</v>
       </c>
       <c r="D34" s="112" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E34" s="64" t="e">
         <f t="shared" ca="1" si="24"/>
         <v>#NAME?</v>
       </c>
       <c r="F34" s="64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G34" s="114">
         <v>36</v>
@@ -15418,7 +15414,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I34" s="64" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J34" s="114">
         <v>36</v>
@@ -15445,7 +15441,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C35" s="119" t="s">
         <v>128</v>
@@ -15458,7 +15454,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F35" s="64" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G35" s="114">
         <v>32</v>
@@ -15468,7 +15464,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I35" s="64" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J35" s="114">
         <v>31</v>
@@ -15478,7 +15474,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L35" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M35" s="114">
         <v>34</v>
@@ -15499,7 +15495,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C36" s="119" t="s">
         <v>130</v>
@@ -15512,7 +15508,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F36" s="64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G36" s="114">
         <v>33</v>
@@ -15522,7 +15518,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I36" s="64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J36" s="114">
         <v>33</v>
@@ -15545,7 +15541,7 @@
     </row>
     <row r="37" spans="1:22" ht="75" customHeight="1">
       <c r="A37" s="223" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B37" s="156"/>
       <c r="C37" s="156"/>
@@ -15571,7 +15567,7 @@
     </row>
     <row r="38" spans="1:22" ht="12.75">
       <c r="A38" s="228" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B38" s="156"/>
       <c r="C38" s="156"/>
@@ -15601,7 +15597,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C39" s="42" t="s">
         <v>133</v>
@@ -15614,7 +15610,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F39" s="64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G39" s="114">
         <v>38</v>
@@ -15624,7 +15620,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I39" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J39" s="114">
         <v>38</v>
@@ -15634,7 +15630,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L39" s="64" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M39" s="114">
         <v>40</v>
@@ -15655,7 +15651,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C40" s="42" t="s">
         <v>61</v>
@@ -15668,7 +15664,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F40" s="64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G40" s="114">
         <v>38</v>
@@ -15678,7 +15674,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I40" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J40" s="114">
         <v>38</v>
@@ -15688,7 +15684,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L40" s="64" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M40" s="114">
         <v>40</v>
@@ -15709,7 +15705,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C41" s="42" t="s">
         <v>136</v>
@@ -15722,7 +15718,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F41" s="64" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G41" s="114">
         <v>39</v>
@@ -15732,7 +15728,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I41" s="64" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J41" s="114">
         <v>40</v>
@@ -15768,7 +15764,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C42" s="42" t="s">
         <v>138</v>
@@ -15781,7 +15777,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F42" s="64" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G42" s="114">
         <v>37</v>
@@ -15791,7 +15787,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I42" s="64" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J42" s="114">
         <v>39</v>
@@ -15801,7 +15797,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L42" s="64" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M42" s="114">
         <v>39</v>
@@ -15818,7 +15814,7 @@
     </row>
     <row r="43" spans="1:22" ht="75" customHeight="1">
       <c r="A43" s="223" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B43" s="156"/>
       <c r="C43" s="156"/>
@@ -15844,7 +15840,7 @@
     </row>
     <row r="44" spans="1:22" ht="12.75">
       <c r="A44" s="229" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B44" s="156"/>
       <c r="C44" s="156"/>
@@ -15874,7 +15870,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C45" s="119" t="s">
         <v>133</v>
@@ -15887,7 +15883,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F45" s="64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G45" s="114">
         <v>42</v>
@@ -15897,7 +15893,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I45" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J45" s="114">
         <v>42</v>
@@ -15907,7 +15903,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L45" s="64" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M45" s="114">
         <v>44</v>
@@ -15969,7 +15965,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C47" s="119" t="s">
         <v>143</v>
@@ -15982,7 +15978,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F47" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G47" s="114">
         <v>45</v>
@@ -16009,7 +16005,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C48" s="119" t="s">
         <v>145</v>
@@ -16022,7 +16018,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F48" s="64" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G48" s="114">
         <v>41</v>
@@ -16032,7 +16028,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I48" s="64" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J48" s="114">
         <v>43</v>
@@ -16042,7 +16038,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L48" s="64" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M48" s="114">
         <v>42</v>
@@ -16063,7 +16059,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C49" s="119" t="s">
         <v>146</v>
@@ -16076,7 +16072,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F49" s="64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G49" s="114">
         <v>41</v>
@@ -16086,7 +16082,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I49" s="64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J49" s="114">
         <v>42</v>
@@ -16096,7 +16092,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L49" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M49" s="114">
         <v>41</v>
@@ -16106,7 +16102,7 @@
         <v>#NAME?</v>
       </c>
       <c r="O49" s="64" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P49" s="114">
         <v>41</v>
@@ -16124,7 +16120,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C50" s="119" t="s">
         <v>147</v>
@@ -16137,7 +16133,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F50" s="64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G50" s="114">
         <v>43</v>
@@ -16147,7 +16143,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I50" s="64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J50" s="114">
         <v>43</v>
@@ -16157,7 +16153,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L50" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M50" s="114">
         <v>40</v>
@@ -16181,7 +16177,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C51" s="119" t="s">
         <v>148</v>
@@ -16194,7 +16190,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F51" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G51" s="114">
         <v>45</v>
@@ -16204,7 +16200,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I51" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J51" s="114">
         <v>45</v>
@@ -16230,7 +16226,7 @@
     </row>
     <row r="52" spans="1:22" ht="75" customHeight="1">
       <c r="A52" s="223" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B52" s="156"/>
       <c r="C52" s="156"/>
@@ -16256,7 +16252,7 @@
     </row>
     <row r="53" spans="1:22" ht="12.75">
       <c r="A53" s="225" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B53" s="156"/>
       <c r="C53" s="156"/>
@@ -16286,7 +16282,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>151</v>
@@ -16299,7 +16295,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F54" s="64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G54" s="114">
         <v>43</v>
@@ -16309,7 +16305,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I54" s="64" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J54" s="114">
         <v>46</v>
@@ -16319,7 +16315,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L54" s="64" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M54" s="114">
         <v>46</v>
@@ -16340,7 +16336,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C55" s="42" t="s">
         <v>153</v>
@@ -16353,7 +16349,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F55" s="64" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G55" s="114">
         <v>45</v>
@@ -16363,7 +16359,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I55" s="64" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J55" s="114">
         <v>47</v>
@@ -16393,7 +16389,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B56" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C56" s="42" t="s">
         <v>154</v>
@@ -16406,7 +16402,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F56" s="64" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G56" s="114">
         <v>45</v>
@@ -16416,7 +16412,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I56" s="64" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J56" s="114">
         <v>46</v>
@@ -16426,7 +16422,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L56" s="64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M56" s="114">
         <v>48</v>
@@ -16450,7 +16446,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B57" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C57" s="42" t="s">
         <v>155</v>
@@ -16463,7 +16459,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F57" s="64" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G57" s="114">
         <v>45</v>
@@ -16473,7 +16469,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I57" s="64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J57" s="114">
         <v>46</v>
@@ -16483,7 +16479,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L57" s="64" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M57" s="114">
         <v>48</v>
@@ -16507,7 +16503,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C58" s="42" t="s">
         <v>156</v>
@@ -16520,7 +16516,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F58" s="64" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G58" s="114">
         <v>47</v>
@@ -16530,7 +16526,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I58" s="64" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J58" s="114">
         <v>48</v>
@@ -16554,7 +16550,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B59" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C59" s="42" t="s">
         <v>157</v>
@@ -16567,7 +16563,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F59" s="64" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G59" s="114">
         <v>47</v>
@@ -16577,7 +16573,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I59" s="64" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J59" s="114">
         <v>47</v>
@@ -16601,20 +16597,20 @@
         <v>#NAME?</v>
       </c>
       <c r="B60" s="42" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C60" s="42" t="s">
         <v>158</v>
       </c>
       <c r="D60" s="112" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E60" s="64" t="e">
         <f t="shared" ca="1" si="38"/>
         <v>#NAME?</v>
       </c>
       <c r="F60" s="64" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G60" s="114">
         <v>50</v>
@@ -16624,7 +16620,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I60" s="64" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J60" s="114">
         <v>50</v>
@@ -16651,7 +16647,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B61" s="42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C61" s="42" t="s">
         <v>160</v>
@@ -16664,7 +16660,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F61" s="120" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G61" s="114">
         <v>48</v>
@@ -16697,7 +16693,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C62" s="42" t="s">
         <v>161</v>
@@ -16710,7 +16706,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F62" s="120" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G62" s="114">
         <v>44</v>
@@ -16720,7 +16716,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I62" s="64" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J62" s="114">
         <v>45</v>
@@ -16730,7 +16726,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L62" s="64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M62" s="114">
         <v>46</v>
@@ -16751,20 +16747,20 @@
         <v>#NAME?</v>
       </c>
       <c r="B63" s="42" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C63" s="42" t="s">
         <v>162</v>
       </c>
       <c r="D63" s="112" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E63" s="64" t="e">
         <f t="shared" ca="1" si="38"/>
         <v>#NAME?</v>
       </c>
       <c r="F63" s="64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G63" s="114">
         <v>50</v>
@@ -16774,7 +16770,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I63" s="64" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J63" s="114">
         <v>50</v>
@@ -16801,7 +16797,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B64" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C64" s="42" t="s">
         <v>164</v>
@@ -16814,7 +16810,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F64" s="120" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G64" s="114">
         <v>47</v>
@@ -16824,7 +16820,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I64" s="64" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J64" s="114">
         <v>48</v>
@@ -16851,7 +16847,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C65" s="42" t="s">
         <v>165</v>
@@ -16864,7 +16860,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F65" s="120" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G65" s="114">
         <v>45</v>
@@ -16874,7 +16870,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I65" s="64" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J65" s="114">
         <v>47</v>
@@ -16901,7 +16897,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C66" s="42" t="s">
         <v>166</v>
@@ -16914,7 +16910,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F66" s="120" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G66" s="114">
         <v>46</v>
@@ -16924,7 +16920,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I66" s="64" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J66" s="114">
         <v>46</v>
@@ -16934,7 +16930,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L66" s="64" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M66" s="114">
         <v>46</v>
@@ -16955,7 +16951,7 @@
         <v>#NAME?</v>
       </c>
       <c r="B67" s="42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C67" s="42" t="s">
         <v>167</v>
@@ -16968,7 +16964,7 @@
         <v>#NAME?</v>
       </c>
       <c r="F67" s="120" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G67" s="114">
         <v>43</v>
@@ -16978,7 +16974,7 @@
         <v>#NAME?</v>
       </c>
       <c r="I67" s="64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J67" s="114">
         <v>45</v>
@@ -16988,7 +16984,7 @@
         <v>#NAME?</v>
       </c>
       <c r="L67" s="64" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M67" s="114">
         <v>47</v>
@@ -17005,13 +17001,13 @@
     </row>
     <row r="68" spans="1:22" ht="75" customHeight="1">
       <c r="A68" s="223" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B68" s="156"/>
       <c r="C68" s="156"/>
       <c r="D68" s="134"/>
       <c r="E68" s="226" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F68" s="156"/>
       <c r="G68" s="156"/>
